--- a/BackTest/2020-01-22 BackTest BTT.xlsx
+++ b/BackTest/2020-01-22 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,13 +445,13 @@
         <v>0.4098</v>
       </c>
       <c r="F2" t="n">
-        <v>2897115.9949</v>
+        <v>2548954.1924</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4109750000000009</v>
+        <v>0.4109950000000009</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -471,28 +471,32 @@
         <v>0.4098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4118</v>
+        <v>0.4098</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4118</v>
+        <v>0.4098</v>
       </c>
       <c r="E3" t="n">
         <v>0.4098</v>
       </c>
       <c r="F3" t="n">
-        <v>5269846.9111</v>
+        <v>2897115.9949</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4109566666666676</v>
+        <v>0.4109750000000009</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4098</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -503,22 +507,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4097</v>
+        <v>0.4098</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4092</v>
+        <v>0.4118</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4097</v>
+        <v>0.4118</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4089</v>
+        <v>0.4098</v>
       </c>
       <c r="F4" t="n">
-        <v>7592394.6075</v>
+        <v>5269846.9111</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4108950000000009</v>
+        <v>0.4109566666666676</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -527,8 +531,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4119</v>
+        <v>0.4097</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4119</v>
+        <v>0.4092</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4119</v>
+        <v>0.4097</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4119</v>
+        <v>0.4089</v>
       </c>
       <c r="F5" t="n">
-        <v>2163.1539</v>
+        <v>7592394.6075</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4108783333333342</v>
+        <v>0.4108950000000009</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,8 +572,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +589,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.412</v>
+        <v>0.4119</v>
       </c>
       <c r="C6" t="n">
         <v>0.4119</v>
       </c>
       <c r="D6" t="n">
-        <v>0.412</v>
+        <v>0.4119</v>
       </c>
       <c r="E6" t="n">
         <v>0.4119</v>
       </c>
       <c r="F6" t="n">
-        <v>5215592.7618</v>
+        <v>2163.1539</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4109300000000009</v>
+        <v>0.4108783333333342</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -597,8 +613,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -611,19 +633,19 @@
         <v>0.412</v>
       </c>
       <c r="C7" t="n">
-        <v>0.412</v>
+        <v>0.4119</v>
       </c>
       <c r="D7" t="n">
         <v>0.412</v>
       </c>
       <c r="E7" t="n">
-        <v>0.412</v>
+        <v>0.4119</v>
       </c>
       <c r="F7" t="n">
-        <v>1271.0311</v>
+        <v>5215592.7618</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4109150000000009</v>
+        <v>0.4109300000000009</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -632,8 +654,14 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -646,19 +674,19 @@
         <v>0.412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4127</v>
+        <v>0.412</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4127</v>
+        <v>0.412</v>
       </c>
       <c r="E8" t="n">
         <v>0.412</v>
       </c>
       <c r="F8" t="n">
-        <v>7182188.1734</v>
+        <v>1271.0311</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4109816666666675</v>
+        <v>0.4109150000000009</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -667,8 +695,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,22 +712,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4119</v>
+        <v>0.412</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4119</v>
+        <v>0.4127</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4119</v>
+        <v>0.4127</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4119</v>
+        <v>0.412</v>
       </c>
       <c r="F9" t="n">
-        <v>792889</v>
+        <v>7182188.1734</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4109650000000009</v>
+        <v>0.4109816666666675</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -702,8 +736,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -725,10 +765,10 @@
         <v>0.4119</v>
       </c>
       <c r="F10" t="n">
-        <v>15000</v>
+        <v>792889</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4109483333333342</v>
+        <v>0.4109650000000009</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -737,8 +777,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -760,10 +806,10 @@
         <v>0.4119</v>
       </c>
       <c r="F11" t="n">
-        <v>3188662.1281</v>
+        <v>15000</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4110050000000008</v>
+        <v>0.4109483333333342</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -772,8 +818,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -795,10 +847,10 @@
         <v>0.4119</v>
       </c>
       <c r="F12" t="n">
-        <v>2055971</v>
+        <v>3188662.1281</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4109883333333341</v>
+        <v>0.4110050000000008</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -807,8 +859,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,22 +876,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4123</v>
+        <v>0.4119</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4123</v>
+        <v>0.4119</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4123</v>
+        <v>0.4119</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4123</v>
+        <v>0.4119</v>
       </c>
       <c r="F13" t="n">
-        <v>3866934.3602</v>
+        <v>2055971</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4110100000000008</v>
+        <v>0.4109883333333341</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -842,8 +900,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +917,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.41</v>
+        <v>0.4123</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4084</v>
+        <v>0.4123</v>
       </c>
       <c r="D14" t="n">
-        <v>0.41</v>
+        <v>0.4123</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4084</v>
+        <v>0.4123</v>
       </c>
       <c r="F14" t="n">
-        <v>5824993.5197</v>
+        <v>3866934.3602</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4109666666666674</v>
+        <v>0.4110100000000008</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,8 +941,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,22 +958,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4083</v>
+        <v>0.41</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4083</v>
+        <v>0.4084</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4083</v>
+        <v>0.41</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4083</v>
+        <v>0.4084</v>
       </c>
       <c r="F15" t="n">
-        <v>126701.816</v>
+        <v>5824993.5197</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4109700000000007</v>
+        <v>0.4109666666666674</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -912,8 +982,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +999,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4075</v>
+        <v>0.4083</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4075</v>
+        <v>0.4083</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4075</v>
+        <v>0.4083</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4075</v>
+        <v>0.4083</v>
       </c>
       <c r="F16" t="n">
-        <v>2000000</v>
+        <v>126701.816</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4109050000000007</v>
+        <v>0.4109700000000007</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -947,8 +1023,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,22 +1040,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4072</v>
+        <v>0.4075</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4073</v>
+        <v>0.4075</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4073</v>
+        <v>0.4075</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4072</v>
+        <v>0.4075</v>
       </c>
       <c r="F17" t="n">
-        <v>4876383</v>
+        <v>2000000</v>
       </c>
       <c r="G17" t="n">
-        <v>0.410843333333334</v>
+        <v>0.4109050000000007</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -982,8 +1064,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1081,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4104</v>
+        <v>0.4072</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4104</v>
+        <v>0.4073</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4104</v>
+        <v>0.4073</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4104</v>
+        <v>0.4072</v>
       </c>
       <c r="F18" t="n">
-        <v>1218.648</v>
+        <v>4876383</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4108266666666673</v>
+        <v>0.410843333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1017,8 +1105,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4103</v>
+        <v>0.4104</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4103</v>
+        <v>0.4104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4103</v>
+        <v>0.4104</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4103</v>
+        <v>0.4104</v>
       </c>
       <c r="F19" t="n">
-        <v>500000</v>
+        <v>1218.648</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4108083333333339</v>
+        <v>0.4108266666666673</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1052,8 +1146,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1163,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.409</v>
+        <v>0.4103</v>
       </c>
       <c r="C20" t="n">
-        <v>0.409</v>
+        <v>0.4103</v>
       </c>
       <c r="D20" t="n">
-        <v>0.409</v>
+        <v>0.4103</v>
       </c>
       <c r="E20" t="n">
-        <v>0.409</v>
+        <v>0.4103</v>
       </c>
       <c r="F20" t="n">
-        <v>32000</v>
+        <v>500000</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4108150000000006</v>
+        <v>0.4108083333333339</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,8 +1187,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1204,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4104</v>
+        <v>0.409</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4104</v>
+        <v>0.409</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4104</v>
+        <v>0.409</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4104</v>
+        <v>0.409</v>
       </c>
       <c r="F21" t="n">
-        <v>2511846.2858</v>
+        <v>32000</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4108466666666672</v>
+        <v>0.4108150000000006</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1228,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1136,19 +1248,19 @@
         <v>0.4104</v>
       </c>
       <c r="C22" t="n">
-        <v>0.409</v>
+        <v>0.4104</v>
       </c>
       <c r="D22" t="n">
         <v>0.4104</v>
       </c>
       <c r="E22" t="n">
-        <v>0.409</v>
+        <v>0.4104</v>
       </c>
       <c r="F22" t="n">
-        <v>1168925.0313</v>
+        <v>2511846.2858</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4108600000000006</v>
+        <v>0.4108466666666672</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1157,8 +1269,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1286,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4091</v>
+        <v>0.4104</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4091</v>
+        <v>0.409</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4091</v>
+        <v>0.4104</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4091</v>
+        <v>0.409</v>
       </c>
       <c r="F23" t="n">
-        <v>747811.9999000001</v>
+        <v>1168925.0313</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4108233333333339</v>
+        <v>0.4108600000000006</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,36 +1327,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4107</v>
+        <v>0.4091</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4107</v>
+        <v>0.4091</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4107</v>
+        <v>0.4091</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4107</v>
+        <v>0.4091</v>
       </c>
       <c r="F24" t="n">
-        <v>16205.8209</v>
+        <v>747811.9999000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4108116666666672</v>
+        <v>0.4108233333333339</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0.4091</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1242,38 +1368,36 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4091</v>
+        <v>0.4107</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4091</v>
+        <v>0.4107</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4091</v>
+        <v>0.4107</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4091</v>
+        <v>0.4107</v>
       </c>
       <c r="F25" t="n">
-        <v>1444262.3234</v>
+        <v>16205.8209</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4108016666666671</v>
+        <v>0.4108116666666672</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0.4107</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1285,22 +1409,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4092</v>
+        <v>0.4091</v>
       </c>
       <c r="C26" t="n">
         <v>0.4091</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4092</v>
+        <v>0.4091</v>
       </c>
       <c r="E26" t="n">
         <v>0.4091</v>
       </c>
       <c r="F26" t="n">
-        <v>97264.16620000001</v>
+        <v>1444262.3234</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4107916666666671</v>
+        <v>0.4108016666666671</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1310,11 +1434,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M26" t="n">
@@ -1326,22 +1450,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4091</v>
+        <v>0.4092</v>
       </c>
       <c r="C27" t="n">
         <v>0.4091</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4091</v>
+        <v>0.4092</v>
       </c>
       <c r="E27" t="n">
         <v>0.4091</v>
       </c>
       <c r="F27" t="n">
-        <v>600524.2408</v>
+        <v>97264.16620000001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4107533333333337</v>
+        <v>0.4107916666666671</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1351,7 +1475,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1367,22 +1491,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4116</v>
+        <v>0.4091</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4116</v>
+        <v>0.4091</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4116</v>
+        <v>0.4091</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4116</v>
+        <v>0.4091</v>
       </c>
       <c r="F28" t="n">
-        <v>7169.0404</v>
+        <v>600524.2408</v>
       </c>
       <c r="G28" t="n">
-        <v>0.410756666666667</v>
+        <v>0.4107533333333337</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1392,7 +1516,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1408,22 +1532,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4113</v>
+        <v>0.4116</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4113</v>
+        <v>0.4116</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4113</v>
+        <v>0.4116</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4113</v>
+        <v>0.4116</v>
       </c>
       <c r="F29" t="n">
-        <v>7033258.1625</v>
+        <v>7169.0404</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4107550000000004</v>
+        <v>0.410756666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1433,7 +1557,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1461,10 +1585,10 @@
         <v>0.4113</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0001</v>
+        <v>7033258.1625</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4107533333333337</v>
+        <v>0.4107550000000004</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1474,7 +1598,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1490,19 +1614,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4114</v>
+        <v>0.4113</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4114</v>
+        <v>0.4113</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4114</v>
+        <v>0.4113</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4114</v>
+        <v>0.4113</v>
       </c>
       <c r="F31" t="n">
-        <v>4396.0831</v>
+        <v>0.0001</v>
       </c>
       <c r="G31" t="n">
         <v>0.4107533333333337</v>
@@ -1515,7 +1639,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1531,22 +1655,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="C32" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="D32" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="E32" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="F32" t="n">
-        <v>19476.18</v>
+        <v>4396.0831</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4107466666666671</v>
+        <v>0.4107533333333337</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1556,7 +1680,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1572,22 +1696,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="C33" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="D33" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="E33" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="F33" t="n">
-        <v>3116.1617</v>
+        <v>19476.18</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4107066666666671</v>
+        <v>0.4107466666666671</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1597,7 +1721,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1613,22 +1737,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.411</v>
+        <v>0.409</v>
       </c>
       <c r="C34" t="n">
-        <v>0.411</v>
+        <v>0.409</v>
       </c>
       <c r="D34" t="n">
-        <v>0.411</v>
+        <v>0.409</v>
       </c>
       <c r="E34" t="n">
-        <v>0.411</v>
+        <v>0.409</v>
       </c>
       <c r="F34" t="n">
-        <v>22871.04622871</v>
+        <v>3116.1617</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4106983333333337</v>
+        <v>0.4107066666666671</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1638,7 +1762,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1654,22 +1778,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="C35" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="D35" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="E35" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="F35" t="n">
-        <v>1786.863</v>
+        <v>22871.04622871</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4106283333333337</v>
+        <v>0.4106983333333337</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1679,7 +1803,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1707,10 +1831,10 @@
         <v>0.409</v>
       </c>
       <c r="F36" t="n">
-        <v>1825.2085</v>
+        <v>1786.863</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4105583333333337</v>
+        <v>0.4106283333333337</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1720,7 +1844,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1748,10 +1872,10 @@
         <v>0.409</v>
       </c>
       <c r="F37" t="n">
-        <v>1497.003</v>
+        <v>1825.2085</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4105083333333337</v>
+        <v>0.4105583333333337</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1761,7 +1885,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1780,19 +1904,19 @@
         <v>0.409</v>
       </c>
       <c r="C38" t="n">
-        <v>0.411</v>
+        <v>0.409</v>
       </c>
       <c r="D38" t="n">
-        <v>0.411</v>
+        <v>0.409</v>
       </c>
       <c r="E38" t="n">
         <v>0.409</v>
       </c>
       <c r="F38" t="n">
-        <v>7275709.09327129</v>
+        <v>1497.003</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4105000000000004</v>
+        <v>0.4105083333333337</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1802,7 +1926,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1818,7 +1942,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.411</v>
+        <v>0.409</v>
       </c>
       <c r="C39" t="n">
         <v>0.411</v>
@@ -1827,13 +1951,13 @@
         <v>0.411</v>
       </c>
       <c r="E39" t="n">
-        <v>0.411</v>
+        <v>0.409</v>
       </c>
       <c r="F39" t="n">
-        <v>3666000</v>
+        <v>7275709.09327129</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4105166666666671</v>
+        <v>0.4105000000000004</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1843,7 +1967,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1871,10 +1995,10 @@
         <v>0.411</v>
       </c>
       <c r="F40" t="n">
-        <v>1241000</v>
+        <v>3666000</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4105333333333337</v>
+        <v>0.4105166666666671</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1884,7 +2008,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1912,10 +2036,10 @@
         <v>0.411</v>
       </c>
       <c r="F41" t="n">
-        <v>2195837</v>
+        <v>1241000</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4105350000000004</v>
+        <v>0.4105333333333337</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1925,7 +2049,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1941,19 +2065,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4112</v>
+        <v>0.411</v>
       </c>
       <c r="F42" t="n">
-        <v>5281.9677</v>
+        <v>2195837</v>
       </c>
       <c r="G42" t="n">
         <v>0.4105350000000004</v>
@@ -1966,7 +2090,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1982,22 +2106,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.411</v>
+        <v>0.4112</v>
       </c>
       <c r="C43" t="n">
-        <v>0.411</v>
+        <v>0.4112</v>
       </c>
       <c r="D43" t="n">
-        <v>0.411</v>
+        <v>0.4112</v>
       </c>
       <c r="E43" t="n">
-        <v>0.411</v>
+        <v>0.4112</v>
       </c>
       <c r="F43" t="n">
-        <v>4492000</v>
+        <v>5281.9677</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4105233333333338</v>
+        <v>0.4105350000000004</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2007,7 +2131,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2035,10 +2159,10 @@
         <v>0.411</v>
       </c>
       <c r="F44" t="n">
-        <v>6559000</v>
+        <v>4492000</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4105116666666672</v>
+        <v>0.4105233333333338</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2048,7 +2172,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2076,10 +2200,10 @@
         <v>0.411</v>
       </c>
       <c r="F45" t="n">
-        <v>3151000</v>
+        <v>6559000</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4105000000000005</v>
+        <v>0.4105116666666672</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2089,7 +2213,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2117,10 +2241,10 @@
         <v>0.411</v>
       </c>
       <c r="F46" t="n">
-        <v>3970000</v>
+        <v>3151000</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4105133333333339</v>
+        <v>0.4105000000000005</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2130,7 +2254,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2149,19 +2273,19 @@
         <v>0.411</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4114</v>
+        <v>0.411</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4114</v>
+        <v>0.411</v>
       </c>
       <c r="E47" t="n">
         <v>0.411</v>
       </c>
       <c r="F47" t="n">
-        <v>9742362.9735</v>
+        <v>3970000</v>
       </c>
       <c r="G47" t="n">
-        <v>0.4105333333333339</v>
+        <v>0.4105133333333339</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2171,7 +2295,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2190,19 +2314,19 @@
         <v>0.411</v>
       </c>
       <c r="C48" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="D48" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="E48" t="n">
         <v>0.411</v>
       </c>
       <c r="F48" t="n">
-        <v>98698</v>
+        <v>9742362.9735</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4105100000000005</v>
+        <v>0.4105333333333339</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2212,7 +2336,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2228,22 +2352,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4114</v>
+        <v>0.411</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4114</v>
+        <v>0.411</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4114</v>
+        <v>0.411</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4114</v>
+        <v>0.411</v>
       </c>
       <c r="F49" t="n">
-        <v>3299</v>
+        <v>98698</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4105366666666672</v>
+        <v>0.4105100000000005</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2253,7 +2377,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2269,22 +2393,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="C50" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="D50" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="E50" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="F50" t="n">
-        <v>2008321.9999</v>
+        <v>3299</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4105083333333339</v>
+        <v>0.4105366666666672</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2294,7 +2418,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2322,10 +2446,10 @@
         <v>0.411</v>
       </c>
       <c r="F51" t="n">
-        <v>1392940.4488</v>
+        <v>2008321.9999</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4104816666666672</v>
+        <v>0.4105083333333339</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2335,7 +2459,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2363,10 +2487,10 @@
         <v>0.411</v>
       </c>
       <c r="F52" t="n">
-        <v>4161883.4175</v>
+        <v>1392940.4488</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4104566666666672</v>
+        <v>0.4104816666666672</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2376,7 +2500,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2392,22 +2516,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4114</v>
+        <v>0.411</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4114</v>
+        <v>0.411</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4114</v>
+        <v>0.411</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4114</v>
+        <v>0.411</v>
       </c>
       <c r="F53" t="n">
-        <v>1219.164</v>
+        <v>4161883.4175</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4104383333333338</v>
+        <v>0.4104566666666672</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2417,7 +2541,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2433,22 +2557,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="C54" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="D54" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="E54" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="F54" t="n">
-        <v>2.871e-05</v>
+        <v>1219.164</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4104583333333339</v>
+        <v>0.4104383333333338</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2458,7 +2582,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2474,22 +2598,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4095</v>
+        <v>0.411</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4095</v>
+        <v>0.411</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4095</v>
+        <v>0.411</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4095</v>
+        <v>0.411</v>
       </c>
       <c r="F55" t="n">
-        <v>167548.3463</v>
+        <v>2.871e-05</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4104533333333339</v>
+        <v>0.4104583333333339</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2499,7 +2623,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2515,22 +2639,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4093</v>
+        <v>0.4095</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4093</v>
+        <v>0.4095</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4093</v>
+        <v>0.4095</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4093</v>
+        <v>0.4095</v>
       </c>
       <c r="F56" t="n">
-        <v>311329.2921</v>
+        <v>167548.3463</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4104450000000005</v>
+        <v>0.4104533333333339</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2540,7 +2664,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2556,22 +2680,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4114</v>
+        <v>0.4093</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4114</v>
+        <v>0.4093</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4114</v>
+        <v>0.4093</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4114</v>
+        <v>0.4093</v>
       </c>
       <c r="F57" t="n">
-        <v>234309.67428293</v>
+        <v>311329.2921</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4104716666666672</v>
+        <v>0.4104450000000005</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2581,7 +2705,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2609,10 +2733,10 @@
         <v>0.4114</v>
       </c>
       <c r="F58" t="n">
-        <v>431662.9037</v>
+        <v>234309.67428293</v>
       </c>
       <c r="G58" t="n">
-        <v>0.4104983333333339</v>
+        <v>0.4104716666666672</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2622,7 +2746,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2641,19 +2765,19 @@
         <v>0.4114</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4116</v>
+        <v>0.4114</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4116</v>
+        <v>0.4114</v>
       </c>
       <c r="E59" t="n">
         <v>0.4114</v>
       </c>
       <c r="F59" t="n">
-        <v>106314.9588</v>
+        <v>431662.9037</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4105283333333338</v>
+        <v>0.4104983333333339</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2663,7 +2787,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2679,7 +2803,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4116</v>
+        <v>0.4114</v>
       </c>
       <c r="C60" t="n">
         <v>0.4116</v>
@@ -2688,13 +2812,13 @@
         <v>0.4116</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4116</v>
+        <v>0.4114</v>
       </c>
       <c r="F60" t="n">
-        <v>121212</v>
+        <v>106314.9588</v>
       </c>
       <c r="G60" t="n">
-        <v>0.4105583333333339</v>
+        <v>0.4105283333333338</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2704,7 +2828,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2732,10 +2856,10 @@
         <v>0.4116</v>
       </c>
       <c r="F61" t="n">
-        <v>1265124.6267</v>
+        <v>121212</v>
       </c>
       <c r="G61" t="n">
-        <v>0.4105883333333338</v>
+        <v>0.4105583333333339</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2745,7 +2869,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2773,10 +2897,10 @@
         <v>0.4116</v>
       </c>
       <c r="F62" t="n">
-        <v>1263271.8523</v>
+        <v>1265124.6267</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4106183333333338</v>
+        <v>0.4105883333333338</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2786,7 +2910,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2814,10 +2938,10 @@
         <v>0.4116</v>
       </c>
       <c r="F63" t="n">
-        <v>1.707e-05</v>
+        <v>1263271.8523</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4106150000000005</v>
+        <v>0.4106183333333338</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2827,7 +2951,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2855,10 +2979,10 @@
         <v>0.4116</v>
       </c>
       <c r="F64" t="n">
-        <v>2450830.07208293</v>
+        <v>1.707e-05</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4106550000000005</v>
+        <v>0.4106150000000005</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2868,7 +2992,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2896,10 +3020,10 @@
         <v>0.4116</v>
       </c>
       <c r="F65" t="n">
-        <v>1.707e-05</v>
+        <v>2450830.07208293</v>
       </c>
       <c r="G65" t="n">
-        <v>0.4106500000000005</v>
+        <v>0.4106550000000005</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2909,7 +3033,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2937,10 +3061,10 @@
         <v>0.4116</v>
       </c>
       <c r="F66" t="n">
-        <v>1166698.8435</v>
+        <v>1.707e-05</v>
       </c>
       <c r="G66" t="n">
-        <v>0.4106450000000005</v>
+        <v>0.4106500000000005</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2950,7 +3074,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2978,10 +3102,10 @@
         <v>0.4116</v>
       </c>
       <c r="F67" t="n">
-        <v>7268.03008293</v>
+        <v>1166698.8435</v>
       </c>
       <c r="G67" t="n">
-        <v>0.4106383333333339</v>
+        <v>0.4106450000000005</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2991,7 +3115,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3007,22 +3131,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4107</v>
+        <v>0.4116</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4107</v>
+        <v>0.4116</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4107</v>
+        <v>0.4116</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4107</v>
+        <v>0.4116</v>
       </c>
       <c r="F68" t="n">
-        <v>10720.2835</v>
+        <v>7268.03008293</v>
       </c>
       <c r="G68" t="n">
-        <v>0.4106050000000005</v>
+        <v>0.4106383333333339</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3032,7 +3156,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3048,22 +3172,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4125</v>
+        <v>0.4107</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4125</v>
+        <v>0.4107</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4125</v>
+        <v>0.4107</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4125</v>
+        <v>0.4107</v>
       </c>
       <c r="F69" t="n">
-        <v>30000</v>
+        <v>10720.2835</v>
       </c>
       <c r="G69" t="n">
-        <v>0.4106150000000006</v>
+        <v>0.4106050000000005</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3073,7 +3197,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3089,22 +3213,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.411</v>
+        <v>0.4125</v>
       </c>
       <c r="C70" t="n">
-        <v>0.411</v>
+        <v>0.4125</v>
       </c>
       <c r="D70" t="n">
-        <v>0.411</v>
+        <v>0.4125</v>
       </c>
       <c r="E70" t="n">
-        <v>0.411</v>
+        <v>0.4125</v>
       </c>
       <c r="F70" t="n">
-        <v>283653.6744</v>
+        <v>30000</v>
       </c>
       <c r="G70" t="n">
-        <v>0.4106000000000006</v>
+        <v>0.4106150000000006</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3114,7 +3238,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3130,22 +3254,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="F71" t="n">
-        <v>483638.4432</v>
+        <v>283653.6744</v>
       </c>
       <c r="G71" t="n">
-        <v>0.4106100000000006</v>
+        <v>0.4106000000000006</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3155,7 +3279,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3171,22 +3295,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.411</v>
+        <v>0.4125</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4103</v>
+        <v>0.4125</v>
       </c>
       <c r="D72" t="n">
-        <v>0.411</v>
+        <v>0.4125</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4103</v>
+        <v>0.4125</v>
       </c>
       <c r="F72" t="n">
-        <v>4653000</v>
+        <v>483638.4432</v>
       </c>
       <c r="G72" t="n">
-        <v>0.410583333333334</v>
+        <v>0.4106100000000006</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3196,7 +3320,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3212,22 +3336,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="C73" t="n">
-        <v>0.41</v>
+        <v>0.4103</v>
       </c>
       <c r="D73" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="E73" t="n">
-        <v>0.41</v>
+        <v>0.4103</v>
       </c>
       <c r="F73" t="n">
-        <v>23525.8398</v>
+        <v>4653000</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4105450000000007</v>
+        <v>0.410583333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3237,7 +3361,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3253,22 +3377,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4124</v>
+        <v>0.41</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4124</v>
+        <v>0.41</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4124</v>
+        <v>0.41</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4124</v>
+        <v>0.41</v>
       </c>
       <c r="F74" t="n">
-        <v>1252.3431</v>
+        <v>23525.8398</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4106116666666673</v>
+        <v>0.4105450000000007</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3278,7 +3402,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3294,22 +3418,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4125</v>
+        <v>0.4124</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4125</v>
+        <v>0.4124</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4125</v>
+        <v>0.4124</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4125</v>
+        <v>0.4124</v>
       </c>
       <c r="F75" t="n">
-        <v>6893685.4831</v>
+        <v>1252.3431</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4106816666666673</v>
+        <v>0.4106116666666673</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3319,7 +3443,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3335,22 +3459,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4103</v>
+        <v>0.4125</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4103</v>
+        <v>0.4125</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4103</v>
+        <v>0.4125</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4103</v>
+        <v>0.4125</v>
       </c>
       <c r="F76" t="n">
-        <v>134443.2346</v>
+        <v>6893685.4831</v>
       </c>
       <c r="G76" t="n">
-        <v>0.410728333333334</v>
+        <v>0.4106816666666673</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3360,7 +3484,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3376,22 +3500,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4128</v>
+        <v>0.4103</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4128</v>
+        <v>0.4103</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4128</v>
+        <v>0.4103</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4128</v>
+        <v>0.4103</v>
       </c>
       <c r="F77" t="n">
-        <v>1211.3381</v>
+        <v>134443.2346</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4108200000000007</v>
+        <v>0.410728333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3401,7 +3525,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3417,22 +3541,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4105</v>
+        <v>0.4128</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4105</v>
+        <v>0.4128</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4105</v>
+        <v>0.4128</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4105</v>
+        <v>0.4128</v>
       </c>
       <c r="F78" t="n">
-        <v>18099.5588</v>
+        <v>1211.3381</v>
       </c>
       <c r="G78" t="n">
-        <v>0.4108216666666674</v>
+        <v>0.4108200000000007</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3442,7 +3566,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3458,22 +3582,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4103</v>
+        <v>0.4105</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4102</v>
+        <v>0.4105</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4103</v>
+        <v>0.4105</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4102</v>
+        <v>0.4105</v>
       </c>
       <c r="F79" t="n">
-        <v>600000</v>
+        <v>18099.5588</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4108200000000007</v>
+        <v>0.4108216666666674</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3483,7 +3607,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3499,22 +3623,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.41</v>
+        <v>0.4103</v>
       </c>
       <c r="C80" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="D80" t="n">
-        <v>0.41</v>
+        <v>0.4103</v>
       </c>
       <c r="E80" t="n">
-        <v>0.41</v>
+        <v>0.4102</v>
       </c>
       <c r="F80" t="n">
-        <v>148814.9023</v>
+        <v>600000</v>
       </c>
       <c r="G80" t="n">
-        <v>0.4108366666666674</v>
+        <v>0.4108200000000007</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3524,7 +3648,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3540,22 +3664,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4101</v>
+        <v>0.41</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4101</v>
+        <v>0.41</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4101</v>
+        <v>0.41</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4101</v>
+        <v>0.41</v>
       </c>
       <c r="F81" t="n">
-        <v>221852.7946</v>
+        <v>148814.9023</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4108316666666674</v>
+        <v>0.4108366666666674</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3565,7 +3689,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3593,10 +3717,10 @@
         <v>0.4101</v>
       </c>
       <c r="F82" t="n">
-        <v>516127.0313</v>
+        <v>221852.7946</v>
       </c>
       <c r="G82" t="n">
-        <v>0.4108500000000008</v>
+        <v>0.4108316666666674</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3606,7 +3730,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3625,19 +3749,19 @@
         <v>0.4101</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4105</v>
+        <v>0.4101</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4137</v>
+        <v>0.4101</v>
       </c>
       <c r="E83" t="n">
         <v>0.4101</v>
       </c>
       <c r="F83" t="n">
-        <v>213922.92049567</v>
+        <v>516127.0313</v>
       </c>
       <c r="G83" t="n">
-        <v>0.4108733333333341</v>
+        <v>0.4108500000000008</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3647,7 +3771,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3663,32 +3787,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4142</v>
+        <v>0.4101</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4142</v>
+        <v>0.4105</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4142</v>
+        <v>0.4137</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4142</v>
+        <v>0.4101</v>
       </c>
       <c r="F84" t="n">
-        <v>1208</v>
+        <v>213922.92049567</v>
       </c>
       <c r="G84" t="n">
-        <v>0.4109316666666675</v>
+        <v>0.4108733333333341</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.4101</v>
+      </c>
       <c r="K84" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3704,22 +3830,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4136</v>
+        <v>0.4142</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4136</v>
+        <v>0.4142</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4136</v>
+        <v>0.4142</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4136</v>
+        <v>0.4142</v>
       </c>
       <c r="F85" t="n">
-        <v>10744.68085106</v>
+        <v>1208</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4110066666666675</v>
+        <v>0.4109316666666675</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3729,7 +3855,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3745,22 +3871,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="C86" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="D86" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="E86" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="F86" t="n">
-        <v>2617.1272</v>
+        <v>10744.68085106</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4110383333333342</v>
+        <v>0.4110066666666675</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3770,7 +3896,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3786,22 +3912,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4133</v>
+        <v>0.411</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4133</v>
+        <v>0.411</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4133</v>
+        <v>0.411</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4133</v>
+        <v>0.411</v>
       </c>
       <c r="F87" t="n">
-        <v>7305.9065</v>
+        <v>2617.1272</v>
       </c>
       <c r="G87" t="n">
-        <v>0.4111083333333342</v>
+        <v>0.4110383333333342</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3811,7 +3937,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3827,22 +3953,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4136</v>
+        <v>0.4133</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4136</v>
+        <v>0.4133</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4136</v>
+        <v>0.4133</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4136</v>
+        <v>0.4133</v>
       </c>
       <c r="F88" t="n">
-        <v>4372.4344</v>
+        <v>7305.9065</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4111416666666675</v>
+        <v>0.4111083333333342</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3852,7 +3978,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3868,22 +3994,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4132</v>
+        <v>0.4136</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4132</v>
+        <v>0.4136</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4132</v>
+        <v>0.4136</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4132</v>
+        <v>0.4136</v>
       </c>
       <c r="F89" t="n">
-        <v>2167797.4714</v>
+        <v>4372.4344</v>
       </c>
       <c r="G89" t="n">
-        <v>0.4111733333333342</v>
+        <v>0.4111416666666675</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3893,7 +4019,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3909,22 +4035,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.413</v>
+        <v>0.4132</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4131</v>
+        <v>0.4132</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4131</v>
+        <v>0.4132</v>
       </c>
       <c r="E90" t="n">
-        <v>0.413</v>
+        <v>0.4132</v>
       </c>
       <c r="F90" t="n">
-        <v>10394085.7128</v>
+        <v>2167797.4714</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4112033333333341</v>
+        <v>0.4111733333333342</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3934,7 +4060,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3950,22 +4076,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4141</v>
+        <v>0.413</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4141</v>
+        <v>0.4131</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4141</v>
+        <v>0.4131</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4141</v>
+        <v>0.413</v>
       </c>
       <c r="F91" t="n">
-        <v>23792.6314</v>
+        <v>10394085.7128</v>
       </c>
       <c r="G91" t="n">
-        <v>0.4112483333333342</v>
+        <v>0.4112033333333341</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3975,7 +4101,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3991,22 +4117,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.412</v>
+        <v>0.4141</v>
       </c>
       <c r="C92" t="n">
-        <v>0.412</v>
+        <v>0.4141</v>
       </c>
       <c r="D92" t="n">
-        <v>0.412</v>
+        <v>0.4141</v>
       </c>
       <c r="E92" t="n">
-        <v>0.412</v>
+        <v>0.4141</v>
       </c>
       <c r="F92" t="n">
-        <v>382024.3</v>
+        <v>23792.6314</v>
       </c>
       <c r="G92" t="n">
-        <v>0.4112650000000008</v>
+        <v>0.4112483333333342</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4016,7 +4142,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4032,22 +4158,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4141</v>
+        <v>0.412</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4141</v>
+        <v>0.412</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4141</v>
+        <v>0.412</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4141</v>
+        <v>0.412</v>
       </c>
       <c r="F93" t="n">
-        <v>1234.9625</v>
+        <v>382024.3</v>
       </c>
       <c r="G93" t="n">
-        <v>0.4113500000000008</v>
+        <v>0.4112650000000008</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4057,7 +4183,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4073,22 +4199,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.412</v>
+        <v>0.4141</v>
       </c>
       <c r="C94" t="n">
-        <v>0.412</v>
+        <v>0.4141</v>
       </c>
       <c r="D94" t="n">
-        <v>0.412</v>
+        <v>0.4141</v>
       </c>
       <c r="E94" t="n">
-        <v>0.412</v>
+        <v>0.4141</v>
       </c>
       <c r="F94" t="n">
-        <v>2431.9963</v>
+        <v>1234.9625</v>
       </c>
       <c r="G94" t="n">
-        <v>0.4113666666666675</v>
+        <v>0.4113500000000008</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4098,7 +4224,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4126,10 +4252,10 @@
         <v>0.412</v>
       </c>
       <c r="F95" t="n">
-        <v>1051217.3361</v>
+        <v>2431.9963</v>
       </c>
       <c r="G95" t="n">
-        <v>0.4114166666666675</v>
+        <v>0.4113666666666675</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4139,7 +4265,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4167,10 +4293,10 @@
         <v>0.412</v>
       </c>
       <c r="F96" t="n">
-        <v>117199.5254</v>
+        <v>1051217.3361</v>
       </c>
       <c r="G96" t="n">
-        <v>0.4114666666666675</v>
+        <v>0.4114166666666675</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4180,7 +4306,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4208,10 +4334,10 @@
         <v>0.412</v>
       </c>
       <c r="F97" t="n">
-        <v>150000</v>
+        <v>117199.5254</v>
       </c>
       <c r="G97" t="n">
-        <v>0.4115166666666675</v>
+        <v>0.4114666666666675</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4221,7 +4347,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4237,22 +4363,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4141</v>
+        <v>0.412</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4141</v>
+        <v>0.412</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4141</v>
+        <v>0.412</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4141</v>
+        <v>0.412</v>
       </c>
       <c r="F98" t="n">
-        <v>97907.0315</v>
+        <v>150000</v>
       </c>
       <c r="G98" t="n">
-        <v>0.4115683333333341</v>
+        <v>0.4115166666666675</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4262,7 +4388,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4278,22 +4404,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4121</v>
+        <v>0.4141</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4115</v>
+        <v>0.4141</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4121</v>
+        <v>0.4141</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4115</v>
+        <v>0.4141</v>
       </c>
       <c r="F99" t="n">
-        <v>277782.1473</v>
+        <v>97907.0315</v>
       </c>
       <c r="G99" t="n">
-        <v>0.4115766666666675</v>
+        <v>0.4115683333333341</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4303,7 +4429,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4319,22 +4445,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.4141</v>
+        <v>0.4121</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4141</v>
+        <v>0.4115</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4141</v>
+        <v>0.4121</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4141</v>
+        <v>0.4115</v>
       </c>
       <c r="F100" t="n">
-        <v>241487.56339048</v>
+        <v>277782.1473</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4116283333333341</v>
+        <v>0.4115766666666675</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4344,7 +4470,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4360,22 +4486,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.414</v>
+        <v>0.4141</v>
       </c>
       <c r="C101" t="n">
-        <v>0.414</v>
+        <v>0.4141</v>
       </c>
       <c r="D101" t="n">
-        <v>0.414</v>
+        <v>0.4141</v>
       </c>
       <c r="E101" t="n">
-        <v>0.414</v>
+        <v>0.4141</v>
       </c>
       <c r="F101" t="n">
-        <v>1723398.1953</v>
+        <v>241487.56339048</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4116783333333341</v>
+        <v>0.4116283333333341</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4385,7 +4511,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4404,19 +4530,19 @@
         <v>0.414</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4142</v>
+        <v>0.414</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4142</v>
+        <v>0.414</v>
       </c>
       <c r="E102" t="n">
         <v>0.414</v>
       </c>
       <c r="F102" t="n">
-        <v>17625084.8735</v>
+        <v>1723398.1953</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4117283333333341</v>
+        <v>0.4116783333333341</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4426,7 +4552,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4442,22 +4568,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4141</v>
+        <v>0.414</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4141</v>
+        <v>0.4142</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4141</v>
+        <v>0.4142</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4141</v>
+        <v>0.414</v>
       </c>
       <c r="F103" t="n">
-        <v>10810346.2674</v>
+        <v>17625084.8735</v>
       </c>
       <c r="G103" t="n">
-        <v>0.4117800000000008</v>
+        <v>0.4117283333333341</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4467,7 +4593,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4483,22 +4609,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4142</v>
+        <v>0.4141</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4142</v>
+        <v>0.4141</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4142</v>
+        <v>0.4141</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4142</v>
+        <v>0.4141</v>
       </c>
       <c r="F104" t="n">
-        <v>335786.6464</v>
+        <v>10810346.2674</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4118333333333341</v>
+        <v>0.4117800000000008</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4508,7 +4634,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4536,10 +4662,10 @@
         <v>0.4142</v>
       </c>
       <c r="F105" t="n">
-        <v>3047821.4476</v>
+        <v>335786.6464</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4118866666666675</v>
+        <v>0.4118333333333341</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4549,7 +4675,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4577,10 +4703,10 @@
         <v>0.4142</v>
       </c>
       <c r="F106" t="n">
-        <v>3139684.0192</v>
+        <v>3047821.4476</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4119400000000008</v>
+        <v>0.4118866666666675</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4590,7 +4716,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4606,22 +4732,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4144</v>
+        <v>0.4142</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4172</v>
+        <v>0.4142</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4172</v>
+        <v>0.4142</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4144</v>
+        <v>0.4142</v>
       </c>
       <c r="F107" t="n">
-        <v>22262.4241375</v>
+        <v>3139684.0192</v>
       </c>
       <c r="G107" t="n">
-        <v>0.4120366666666674</v>
+        <v>0.4119400000000008</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4631,7 +4757,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4647,22 +4773,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4173</v>
+        <v>0.4144</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4173</v>
+        <v>0.4172</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4173</v>
+        <v>0.4172</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4173</v>
+        <v>0.4144</v>
       </c>
       <c r="F108" t="n">
-        <v>1199</v>
+        <v>22262.4241375</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4121416666666675</v>
+        <v>0.4120366666666674</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4672,7 +4798,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4697,13 +4823,13 @@
         <v>0.4173</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4141</v>
+        <v>0.4173</v>
       </c>
       <c r="F109" t="n">
-        <v>3640.2848</v>
+        <v>1199</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4122400000000008</v>
+        <v>0.4121416666666675</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4713,7 +4839,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4738,13 +4864,13 @@
         <v>0.4173</v>
       </c>
       <c r="E110" t="n">
-        <v>0.415</v>
+        <v>0.4141</v>
       </c>
       <c r="F110" t="n">
-        <v>211136.6203</v>
+        <v>3640.2848</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4123450000000008</v>
+        <v>0.4122400000000008</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4754,7 +4880,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4773,19 +4899,19 @@
         <v>0.4173</v>
       </c>
       <c r="C111" t="n">
-        <v>0.419</v>
+        <v>0.4173</v>
       </c>
       <c r="D111" t="n">
-        <v>0.419</v>
+        <v>0.4173</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4173</v>
+        <v>0.415</v>
       </c>
       <c r="F111" t="n">
-        <v>23866.34844909</v>
+        <v>211136.6203</v>
       </c>
       <c r="G111" t="n">
-        <v>0.4124783333333341</v>
+        <v>0.4123450000000008</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4795,7 +4921,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4811,22 +4937,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="C112" t="n">
         <v>0.419</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.4155</v>
       </c>
       <c r="D112" t="n">
         <v>0.419</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4155</v>
+        <v>0.4173</v>
       </c>
       <c r="F112" t="n">
-        <v>2434.3676</v>
+        <v>23866.34844909</v>
       </c>
       <c r="G112" t="n">
-        <v>0.4125533333333341</v>
+        <v>0.4124783333333341</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4836,7 +4962,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4852,22 +4978,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4198</v>
+        <v>0.419</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4198</v>
+        <v>0.4155</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4198</v>
+        <v>0.419</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4198</v>
+        <v>0.4155</v>
       </c>
       <c r="F113" t="n">
-        <v>1192</v>
+        <v>2434.3676</v>
       </c>
       <c r="G113" t="n">
-        <v>0.4126933333333341</v>
+        <v>0.4125533333333341</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4877,7 +5003,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4905,10 +5031,10 @@
         <v>0.4198</v>
       </c>
       <c r="F114" t="n">
-        <v>12651.3</v>
+        <v>1192</v>
       </c>
       <c r="G114" t="n">
-        <v>0.4128400000000007</v>
+        <v>0.4126933333333341</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4918,7 +5044,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4934,40 +5060,40 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4199</v>
+        <v>0.4198</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4199</v>
+        <v>0.4198</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4199</v>
+        <v>0.4198</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4199</v>
+        <v>0.4198</v>
       </c>
       <c r="F115" t="n">
-        <v>1191</v>
+        <v>12651.3</v>
       </c>
       <c r="G115" t="n">
-        <v>0.413013333333334</v>
+        <v>0.4128400000000007</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>0.4091</v>
+        <v>0.4098</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>1</v>
+        <v>1.01940214738897</v>
       </c>
     </row>
     <row r="116">
@@ -4978,35 +5104,29 @@
         <v>0.4199</v>
       </c>
       <c r="C116" t="n">
-        <v>0.421</v>
+        <v>0.4199</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4211</v>
+        <v>0.4199</v>
       </c>
       <c r="E116" t="n">
         <v>0.4199</v>
       </c>
       <c r="F116" t="n">
-        <v>1891761.0749</v>
+        <v>1191</v>
       </c>
       <c r="G116" t="n">
-        <v>0.413208333333334</v>
+        <v>0.413013333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5016,22 +5136,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.417</v>
+        <v>0.4199</v>
       </c>
       <c r="C117" t="n">
-        <v>0.417</v>
+        <v>0.421</v>
       </c>
       <c r="D117" t="n">
-        <v>0.417</v>
+        <v>0.4211</v>
       </c>
       <c r="E117" t="n">
-        <v>0.417</v>
+        <v>0.4199</v>
       </c>
       <c r="F117" t="n">
-        <v>325610.6615</v>
+        <v>1891761.0749</v>
       </c>
       <c r="G117" t="n">
-        <v>0.4133016666666673</v>
+        <v>0.413208333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5040,16 +5160,10 @@
         <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>1.014310681984845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -5057,22 +5171,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.4205</v>
+        <v>0.417</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4205</v>
+        <v>0.417</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4205</v>
+        <v>0.417</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4205</v>
+        <v>0.417</v>
       </c>
       <c r="F118" t="n">
-        <v>77032</v>
+        <v>325610.6615</v>
       </c>
       <c r="G118" t="n">
-        <v>0.413453333333334</v>
+        <v>0.4133016666666673</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5087,6 +5201,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="F119" t="n">
+        <v>77032</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.413453333333334</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-22 BackTest BTT.xlsx
+++ b/BackTest/2020-01-22 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2548954.1924</v>
       </c>
       <c r="G2" t="n">
+        <v>0.4107399999999999</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.4109950000000009</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,21 @@
         <v>2897115.9949</v>
       </c>
       <c r="G3" t="n">
+        <v>0.4107133333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.4109750000000009</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.4098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,24 +529,21 @@
         <v>5269846.9111</v>
       </c>
       <c r="G4" t="n">
+        <v>0.4106733333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.4109566666666676</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,24 +567,21 @@
         <v>7592394.6075</v>
       </c>
       <c r="G5" t="n">
+        <v>0.4106333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4108950000000009</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,24 +605,21 @@
         <v>2163.1539</v>
       </c>
       <c r="G6" t="n">
+        <v>0.41058</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.4108783333333342</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,24 +643,21 @@
         <v>5215592.7618</v>
       </c>
       <c r="G7" t="n">
+        <v>0.4105333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.4109300000000009</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,24 +681,21 @@
         <v>1271.0311</v>
       </c>
       <c r="G8" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.4109150000000009</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -727,24 +719,21 @@
         <v>7182188.1734</v>
       </c>
       <c r="G9" t="n">
+        <v>0.4105133333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.4109816666666675</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -768,24 +757,21 @@
         <v>792889</v>
       </c>
       <c r="G10" t="n">
+        <v>0.4106533333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.4109650000000009</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -809,24 +795,21 @@
         <v>15000</v>
       </c>
       <c r="G11" t="n">
+        <v>0.4107933333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.4109483333333342</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -850,24 +833,21 @@
         <v>3188662.1281</v>
       </c>
       <c r="G12" t="n">
+        <v>0.4109333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.4110050000000008</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,24 +871,21 @@
         <v>2055971</v>
       </c>
       <c r="G13" t="n">
+        <v>0.4110733333333335</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.4109883333333341</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,24 +909,21 @@
         <v>3866934.3602</v>
       </c>
       <c r="G14" t="n">
+        <v>0.4112400000000002</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.4110100000000008</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,24 +947,21 @@
         <v>5824993.5197</v>
       </c>
       <c r="G15" t="n">
+        <v>0.4111466666666669</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.4109666666666674</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1014,24 +985,21 @@
         <v>126701.816</v>
       </c>
       <c r="G16" t="n">
+        <v>0.4110466666666668</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.4109700000000007</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1055,24 +1023,21 @@
         <v>2000000</v>
       </c>
       <c r="G17" t="n">
+        <v>0.4108933333333335</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.4109050000000007</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,24 +1061,21 @@
         <v>4876383</v>
       </c>
       <c r="G18" t="n">
+        <v>0.4107266666666669</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.410843333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1137,24 +1099,25 @@
         <v>1218.648</v>
       </c>
       <c r="G19" t="n">
+        <v>0.4106333333333335</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.4108266666666673</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+        <v>0.4073</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.4073</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1178,24 +1141,29 @@
         <v>500000</v>
       </c>
       <c r="G20" t="n">
+        <v>0.4107066666666669</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.4108083333333339</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+        <v>0.4104</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4073</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1219,24 +1187,29 @@
         <v>32000</v>
       </c>
       <c r="G21" t="n">
+        <v>0.4105133333333335</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.4108150000000006</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.4073</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1260,24 +1233,25 @@
         <v>2511846.2858</v>
       </c>
       <c r="G22" t="n">
+        <v>0.4104133333333335</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4108466666666672</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1301,24 +1275,29 @@
         <v>1168925.0313</v>
       </c>
       <c r="G23" t="n">
+        <v>0.4102133333333335</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.4108600000000006</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+        <v>0.4104</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1342,24 +1321,27 @@
         <v>747811.9999000001</v>
       </c>
       <c r="G24" t="n">
+        <v>0.4099733333333335</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.4108233333333339</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1383,24 +1365,27 @@
         <v>16205.8209</v>
       </c>
       <c r="G25" t="n">
+        <v>0.4098933333333335</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.4108116666666672</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1424,24 +1409,27 @@
         <v>1444262.3234</v>
       </c>
       <c r="G26" t="n">
+        <v>0.4097066666666668</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.4108016666666671</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1465,24 +1453,27 @@
         <v>97264.16620000001</v>
       </c>
       <c r="G27" t="n">
+        <v>0.4095200000000002</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.4107916666666671</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1506,24 +1497,27 @@
         <v>600524.2408</v>
       </c>
       <c r="G28" t="n">
+        <v>0.4093333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.4107533333333337</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1547,24 +1541,27 @@
         <v>7169.0404</v>
       </c>
       <c r="G29" t="n">
+        <v>0.4092866666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.410756666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,24 +1585,27 @@
         <v>7033258.1625</v>
       </c>
       <c r="G30" t="n">
+        <v>0.4094800000000001</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.4107550000000004</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,24 +1629,27 @@
         <v>0.0001</v>
       </c>
       <c r="G31" t="n">
+        <v>0.40968</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.4107533333333337</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1670,24 +1673,27 @@
         <v>4396.0831</v>
       </c>
       <c r="G32" t="n">
+        <v>0.4099400000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.4107533333333337</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1711,24 +1717,27 @@
         <v>19476.18</v>
       </c>
       <c r="G33" t="n">
+        <v>0.4101866666666668</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.4107466666666671</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1752,24 +1761,27 @@
         <v>3116.1617</v>
       </c>
       <c r="G34" t="n">
+        <v>0.4100933333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.4107066666666671</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1793,24 +1805,27 @@
         <v>22871.04622871</v>
       </c>
       <c r="G35" t="n">
+        <v>0.41014</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.4106983333333337</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1834,24 +1849,27 @@
         <v>1786.863</v>
       </c>
       <c r="G36" t="n">
+        <v>0.41014</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.4106283333333337</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1875,24 +1893,27 @@
         <v>1825.2085</v>
       </c>
       <c r="G37" t="n">
+        <v>0.4100466666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.4105583333333337</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1916,24 +1937,27 @@
         <v>1497.003</v>
       </c>
       <c r="G38" t="n">
+        <v>0.4100466666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.4105083333333337</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,24 +1981,27 @@
         <v>7275709.09327129</v>
       </c>
       <c r="G39" t="n">
+        <v>0.4101733333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.4105000000000004</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1998,24 +2025,29 @@
         <v>3666000</v>
       </c>
       <c r="G40" t="n">
+        <v>0.4101933333333332</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.4105166666666671</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,24 +2071,27 @@
         <v>1241000</v>
       </c>
       <c r="G41" t="n">
+        <v>0.4103199999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.4105333333333337</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,24 +2115,29 @@
         <v>2195837</v>
       </c>
       <c r="G42" t="n">
+        <v>0.4104466666666665</v>
+      </c>
+      <c r="H42" t="n">
         <v>0.4105350000000004</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2121,24 +2161,27 @@
         <v>5281.9677</v>
       </c>
       <c r="G43" t="n">
+        <v>0.4105866666666665</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.4105350000000004</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2162,24 +2205,27 @@
         <v>4492000</v>
       </c>
       <c r="G44" t="n">
+        <v>0.4105466666666665</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.4105233333333338</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2203,24 +2249,27 @@
         <v>6559000</v>
       </c>
       <c r="G45" t="n">
+        <v>0.4105266666666665</v>
+      </c>
+      <c r="H45" t="n">
         <v>0.4105116666666672</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2244,24 +2293,27 @@
         <v>3151000</v>
       </c>
       <c r="G46" t="n">
+        <v>0.4105066666666665</v>
+      </c>
+      <c r="H46" t="n">
         <v>0.4105000000000005</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2285,24 +2337,27 @@
         <v>3970000</v>
       </c>
       <c r="G47" t="n">
+        <v>0.4104799999999997</v>
+      </c>
+      <c r="H47" t="n">
         <v>0.4105133333333339</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2326,24 +2381,27 @@
         <v>9742362.9735</v>
       </c>
       <c r="G48" t="n">
+        <v>0.4105066666666665</v>
+      </c>
+      <c r="H48" t="n">
         <v>0.4105333333333339</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2367,24 +2425,27 @@
         <v>98698</v>
       </c>
       <c r="G49" t="n">
+        <v>0.4106399999999998</v>
+      </c>
+      <c r="H49" t="n">
         <v>0.4105100000000005</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,24 +2469,27 @@
         <v>3299</v>
       </c>
       <c r="G50" t="n">
+        <v>0.4106666666666665</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.4105366666666672</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2449,24 +2513,29 @@
         <v>2008321.9999</v>
       </c>
       <c r="G51" t="n">
+        <v>0.4107999999999998</v>
+      </c>
+      <c r="H51" t="n">
         <v>0.4105083333333339</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,24 +2559,27 @@
         <v>1392940.4488</v>
       </c>
       <c r="G52" t="n">
+        <v>0.4109333333333331</v>
+      </c>
+      <c r="H52" t="n">
         <v>0.4104816666666672</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,24 +2603,27 @@
         <v>4161883.4175</v>
       </c>
       <c r="G53" t="n">
+        <v>0.4110666666666664</v>
+      </c>
+      <c r="H53" t="n">
         <v>0.4104566666666672</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2572,24 +2647,27 @@
         <v>1219.164</v>
       </c>
       <c r="G54" t="n">
+        <v>0.411093333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.4104383333333338</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2613,24 +2691,27 @@
         <v>2.871e-05</v>
       </c>
       <c r="G55" t="n">
+        <v>0.411093333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>0.4104583333333339</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,24 +2735,27 @@
         <v>167548.3463</v>
       </c>
       <c r="G56" t="n">
+        <v>0.410993333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>0.4104533333333339</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2695,24 +2779,27 @@
         <v>311329.2921</v>
       </c>
       <c r="G57" t="n">
+        <v>0.4108799999999997</v>
+      </c>
+      <c r="H57" t="n">
         <v>0.4104450000000005</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,24 +2823,29 @@
         <v>234309.67428293</v>
       </c>
       <c r="G58" t="n">
+        <v>0.4108933333333331</v>
+      </c>
+      <c r="H58" t="n">
         <v>0.4104716666666672</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+        <v>0.4093</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2777,24 +2869,27 @@
         <v>431662.9037</v>
       </c>
       <c r="G59" t="n">
+        <v>0.4109199999999998</v>
+      </c>
+      <c r="H59" t="n">
         <v>0.4104983333333339</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2818,24 +2913,27 @@
         <v>106314.9588</v>
       </c>
       <c r="G60" t="n">
+        <v>0.4109599999999998</v>
+      </c>
+      <c r="H60" t="n">
         <v>0.4105283333333338</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2859,24 +2957,27 @@
         <v>121212</v>
       </c>
       <c r="G61" t="n">
+        <v>0.4109999999999998</v>
+      </c>
+      <c r="H61" t="n">
         <v>0.4105583333333339</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2900,24 +3001,27 @@
         <v>1265124.6267</v>
       </c>
       <c r="G62" t="n">
+        <v>0.4110399999999998</v>
+      </c>
+      <c r="H62" t="n">
         <v>0.4105883333333338</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2941,24 +3045,27 @@
         <v>1263271.8523</v>
       </c>
       <c r="G63" t="n">
+        <v>0.4110533333333332</v>
+      </c>
+      <c r="H63" t="n">
         <v>0.4106183333333338</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2982,24 +3089,27 @@
         <v>1.707e-05</v>
       </c>
       <c r="G64" t="n">
+        <v>0.4110933333333332</v>
+      </c>
+      <c r="H64" t="n">
         <v>0.4106150000000005</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,24 +3133,27 @@
         <v>2450830.07208293</v>
       </c>
       <c r="G65" t="n">
+        <v>0.4111066666666665</v>
+      </c>
+      <c r="H65" t="n">
         <v>0.4106550000000005</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3064,24 +3177,27 @@
         <v>1.707e-05</v>
       </c>
       <c r="G66" t="n">
+        <v>0.4111466666666665</v>
+      </c>
+      <c r="H66" t="n">
         <v>0.4106500000000005</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3105,24 +3221,27 @@
         <v>1166698.8435</v>
       </c>
       <c r="G67" t="n">
+        <v>0.4111866666666665</v>
+      </c>
+      <c r="H67" t="n">
         <v>0.4106450000000005</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3146,24 +3265,27 @@
         <v>7268.03008293</v>
       </c>
       <c r="G68" t="n">
+        <v>0.4112266666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>0.4106383333333339</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3187,24 +3309,29 @@
         <v>10720.2835</v>
       </c>
       <c r="G69" t="n">
+        <v>0.4111799999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>0.4106050000000005</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3228,24 +3355,29 @@
         <v>30000</v>
       </c>
       <c r="G70" t="n">
+        <v>0.4112799999999999</v>
+      </c>
+      <c r="H70" t="n">
         <v>0.4106150000000006</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3269,24 +3401,27 @@
         <v>283653.6744</v>
       </c>
       <c r="G71" t="n">
+        <v>0.4113799999999999</v>
+      </c>
+      <c r="H71" t="n">
         <v>0.4106000000000006</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,24 +3445,27 @@
         <v>483638.4432</v>
       </c>
       <c r="G72" t="n">
+        <v>0.4115933333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>0.4106100000000006</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3351,24 +3489,27 @@
         <v>4653000</v>
       </c>
       <c r="G73" t="n">
+        <v>0.4115199999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>0.410583333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3392,24 +3533,27 @@
         <v>23525.8398</v>
       </c>
       <c r="G74" t="n">
+        <v>0.4114266666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.4105450000000007</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3433,24 +3577,29 @@
         <v>1252.3431</v>
       </c>
       <c r="G75" t="n">
+        <v>0.4114799999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>0.4106116666666673</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,24 +3623,27 @@
         <v>6893685.4831</v>
       </c>
       <c r="G76" t="n">
+        <v>0.4115399999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>0.4106816666666673</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3515,24 +3667,27 @@
         <v>134443.2346</v>
       </c>
       <c r="G77" t="n">
+        <v>0.4114533333333332</v>
+      </c>
+      <c r="H77" t="n">
         <v>0.410728333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,24 +3711,27 @@
         <v>1211.3381</v>
       </c>
       <c r="G78" t="n">
+        <v>0.4115333333333332</v>
+      </c>
+      <c r="H78" t="n">
         <v>0.4108200000000007</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,24 +3755,27 @@
         <v>18099.5588</v>
       </c>
       <c r="G79" t="n">
+        <v>0.4114599999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>0.4108216666666674</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3638,24 +3799,27 @@
         <v>600000</v>
       </c>
       <c r="G80" t="n">
+        <v>0.4113666666666665</v>
+      </c>
+      <c r="H80" t="n">
         <v>0.4108200000000007</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3679,24 +3843,29 @@
         <v>148814.9023</v>
       </c>
       <c r="G81" t="n">
+        <v>0.4112599999999998</v>
+      </c>
+      <c r="H81" t="n">
         <v>0.4108366666666674</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,24 +3889,27 @@
         <v>221852.7946</v>
       </c>
       <c r="G82" t="n">
+        <v>0.4111599999999999</v>
+      </c>
+      <c r="H82" t="n">
         <v>0.4108316666666674</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3761,24 +3933,29 @@
         <v>516127.0313</v>
       </c>
       <c r="G83" t="n">
+        <v>0.4110599999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>0.4108500000000008</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,26 +3979,29 @@
         <v>213922.92049567</v>
       </c>
       <c r="G84" t="n">
+        <v>0.4110466666666665</v>
+      </c>
+      <c r="H84" t="n">
         <v>0.4108733333333341</v>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.4101</v>
       </c>
-      <c r="K84" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3845,24 +4025,29 @@
         <v>1208</v>
       </c>
       <c r="G85" t="n">
+        <v>0.4111599999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>0.4109316666666675</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3886,24 +4071,27 @@
         <v>10744.68085106</v>
       </c>
       <c r="G86" t="n">
+        <v>0.4113333333333332</v>
+      </c>
+      <c r="H86" t="n">
         <v>0.4110066666666675</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3927,24 +4115,27 @@
         <v>2617.1272</v>
       </c>
       <c r="G87" t="n">
+        <v>0.4112333333333332</v>
+      </c>
+      <c r="H87" t="n">
         <v>0.4110383333333342</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,24 +4159,27 @@
         <v>7305.9065</v>
       </c>
       <c r="G88" t="n">
+        <v>0.4114333333333332</v>
+      </c>
+      <c r="H88" t="n">
         <v>0.4111083333333342</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4009,24 +4203,27 @@
         <v>4372.4344</v>
       </c>
       <c r="G89" t="n">
+        <v>0.4116733333333331</v>
+      </c>
+      <c r="H89" t="n">
         <v>0.4111416666666675</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,24 +4247,27 @@
         <v>2167797.4714</v>
       </c>
       <c r="G90" t="n">
+        <v>0.4117266666666665</v>
+      </c>
+      <c r="H90" t="n">
         <v>0.4111733333333342</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,24 +4291,27 @@
         <v>10394085.7128</v>
       </c>
       <c r="G91" t="n">
+        <v>0.4117666666666665</v>
+      </c>
+      <c r="H91" t="n">
         <v>0.4112033333333341</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4132,24 +4335,27 @@
         <v>23792.6314</v>
       </c>
       <c r="G92" t="n">
+        <v>0.4120199999999998</v>
+      </c>
+      <c r="H92" t="n">
         <v>0.4112483333333342</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4173,24 +4379,27 @@
         <v>382024.3</v>
       </c>
       <c r="G93" t="n">
+        <v>0.4119666666666665</v>
+      </c>
+      <c r="H93" t="n">
         <v>0.4112650000000008</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4214,24 +4423,27 @@
         <v>1234.9625</v>
       </c>
       <c r="G94" t="n">
+        <v>0.4122066666666665</v>
+      </c>
+      <c r="H94" t="n">
         <v>0.4113500000000008</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4255,24 +4467,27 @@
         <v>2431.9963</v>
       </c>
       <c r="G95" t="n">
+        <v>0.4123266666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>0.4113666666666675</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4296,24 +4511,27 @@
         <v>1051217.3361</v>
       </c>
       <c r="G96" t="n">
+        <v>0.4124599999999999</v>
+      </c>
+      <c r="H96" t="n">
         <v>0.4114166666666675</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4337,24 +4555,27 @@
         <v>117199.5254</v>
       </c>
       <c r="G97" t="n">
+        <v>0.4125866666666665</v>
+      </c>
+      <c r="H97" t="n">
         <v>0.4114666666666675</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,24 +4599,27 @@
         <v>150000</v>
       </c>
       <c r="G98" t="n">
+        <v>0.4127133333333332</v>
+      </c>
+      <c r="H98" t="n">
         <v>0.4115166666666675</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,24 +4643,27 @@
         <v>97907.0315</v>
       </c>
       <c r="G99" t="n">
+        <v>0.4129533333333332</v>
+      </c>
+      <c r="H99" t="n">
         <v>0.4115683333333341</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4460,24 +4687,27 @@
         <v>277782.1473</v>
       </c>
       <c r="G100" t="n">
+        <v>0.4127733333333332</v>
+      </c>
+      <c r="H100" t="n">
         <v>0.4115766666666675</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4501,24 +4731,27 @@
         <v>241487.56339048</v>
       </c>
       <c r="G101" t="n">
+        <v>0.4128066666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>0.4116283333333341</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,24 +4775,27 @@
         <v>1723398.1953</v>
       </c>
       <c r="G102" t="n">
+        <v>0.4130066666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>0.4116783333333341</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4583,24 +4819,27 @@
         <v>17625084.8735</v>
       </c>
       <c r="G103" t="n">
+        <v>0.4130666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>0.4117283333333341</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,24 +4863,27 @@
         <v>10810346.2674</v>
       </c>
       <c r="G104" t="n">
+        <v>0.4131</v>
+      </c>
+      <c r="H104" t="n">
         <v>0.4117800000000008</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,24 +4907,27 @@
         <v>335786.6464</v>
       </c>
       <c r="G105" t="n">
+        <v>0.4131666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>0.4118333333333341</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,24 +4951,27 @@
         <v>3047821.4476</v>
       </c>
       <c r="G106" t="n">
+        <v>0.4132400000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>0.4118866666666675</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4747,24 +4995,27 @@
         <v>3139684.0192</v>
       </c>
       <c r="G107" t="n">
+        <v>0.4132466666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>0.4119400000000008</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,24 +5039,27 @@
         <v>22262.4241375</v>
       </c>
       <c r="G108" t="n">
+        <v>0.4135933333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>0.4120366666666674</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4829,24 +5083,27 @@
         <v>1199</v>
       </c>
       <c r="G109" t="n">
+        <v>0.4138066666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>0.4121416666666675</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4870,24 +5127,27 @@
         <v>3640.2848</v>
       </c>
       <c r="G110" t="n">
+        <v>0.41416</v>
+      </c>
+      <c r="H110" t="n">
         <v>0.4122400000000008</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,24 +5171,27 @@
         <v>211136.6203</v>
       </c>
       <c r="G111" t="n">
+        <v>0.4145133333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>0.4123450000000008</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4952,24 +5215,27 @@
         <v>23866.34844909</v>
       </c>
       <c r="G112" t="n">
+        <v>0.41498</v>
+      </c>
+      <c r="H112" t="n">
         <v>0.4124783333333341</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4993,24 +5259,27 @@
         <v>2434.3676</v>
       </c>
       <c r="G113" t="n">
+        <v>0.4152133333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>0.4125533333333341</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,24 +5303,27 @@
         <v>1192</v>
       </c>
       <c r="G114" t="n">
+        <v>0.4155933333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>0.4126933333333341</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5075,25 +5347,28 @@
         <v>12651.3</v>
       </c>
       <c r="G115" t="n">
+        <v>0.4161466666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>0.4128400000000007</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1.01940214738897</v>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -5116,18 +5391,27 @@
         <v>1191</v>
       </c>
       <c r="G116" t="n">
+        <v>0.4165333333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>0.413013333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5151,18 +5435,27 @@
         <v>1891761.0749</v>
       </c>
       <c r="G117" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="H117" t="n">
         <v>0.413208333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5186,18 +5479,27 @@
         <v>325610.6615</v>
       </c>
       <c r="G118" t="n">
+        <v>0.4171866666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>0.4133016666666673</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5221,18 +5523,413 @@
         <v>77032</v>
       </c>
       <c r="G119" t="n">
+        <v>0.4176133333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>0.413453333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4204</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="F120" t="n">
+        <v>262820.2589</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.4177799999999999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.413538333333334</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1.013826405867971</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.4204</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.4155</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10125947.4528</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.4181866666666666</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.413683333333334</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="F122" t="n">
+        <v>97619</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.4185933333333333</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.413828333333334</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1536000</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.4185133333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.4139016666666674</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="F124" t="n">
+        <v>47585.0583</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.4187133333333333</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.4140466666666674</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6712.0801</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.4189133333333333</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.4141916666666674</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2426.838</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.4188266666666667</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.4142650000000007</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1049135.5656</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.4186266666666667</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.4143383333333341</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="F128" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.4189466666666667</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.4144833333333341</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.4202</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.4202</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.4202</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.4202</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.4189733333333334</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.4146416666666675</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest BTT.xlsx
+++ b/BackTest/2020-01-22 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4114</v>
+        <v>0.41</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4114</v>
+        <v>0.4084</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4114</v>
+        <v>0.41</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4114</v>
+        <v>0.4084</v>
       </c>
       <c r="F2" t="n">
-        <v>157933.0912</v>
+        <v>5824993.5197</v>
       </c>
       <c r="G2" t="n">
-        <v>-22356988.43750427</v>
+        <v>-25369619.85620427</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4114</v>
+        <v>0.4083</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4114</v>
+        <v>0.4083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4114</v>
+        <v>0.4083</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4114</v>
+        <v>0.4083</v>
       </c>
       <c r="F3" t="n">
-        <v>1220</v>
+        <v>126701.816</v>
       </c>
       <c r="G3" t="n">
-        <v>-22356988.43750427</v>
+        <v>-25496321.67220427</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4115</v>
+        <v>0.4075</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4115</v>
+        <v>0.4075</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4115</v>
+        <v>0.4075</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4115</v>
+        <v>0.4075</v>
       </c>
       <c r="F4" t="n">
-        <v>1300</v>
+        <v>2000000</v>
       </c>
       <c r="G4" t="n">
-        <v>-22355688.43750427</v>
+        <v>-27496321.67220427</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,98 +539,113 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4132</v>
+        <v>0.4072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4132</v>
+        <v>0.4073</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4132</v>
+        <v>0.4073</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4132</v>
+        <v>0.4072</v>
       </c>
       <c r="F5" t="n">
-        <v>1212</v>
+        <v>4876383</v>
       </c>
       <c r="G5" t="n">
-        <v>-22354476.43750427</v>
+        <v>-32372704.67220427</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.4075</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4132</v>
+        <v>0.4104</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4132</v>
+        <v>0.4104</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4132</v>
+        <v>0.4104</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4132</v>
+        <v>0.4104</v>
       </c>
       <c r="F6" t="n">
-        <v>1212.6595</v>
+        <v>1218.648</v>
       </c>
       <c r="G6" t="n">
-        <v>-22354476.43750427</v>
+        <v>-32371486.02420427</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0.4073</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.412</v>
+        <v>0.4103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.412</v>
+        <v>0.4103</v>
       </c>
       <c r="D7" t="n">
-        <v>0.412</v>
+        <v>0.4103</v>
       </c>
       <c r="E7" t="n">
-        <v>0.412</v>
+        <v>0.4103</v>
       </c>
       <c r="F7" t="n">
-        <v>1500</v>
+        <v>500000</v>
       </c>
       <c r="G7" t="n">
-        <v>-22355976.43750427</v>
+        <v>-32871486.02420427</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,32 +655,37 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4115</v>
+        <v>0.409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4115</v>
+        <v>0.409</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4115</v>
+        <v>0.409</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4115</v>
+        <v>0.409</v>
       </c>
       <c r="F8" t="n">
-        <v>79341.93919999999</v>
+        <v>32000</v>
       </c>
       <c r="G8" t="n">
-        <v>-22435318.37670427</v>
+        <v>-32903486.02420427</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,32 +695,37 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4131</v>
+        <v>0.4104</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41</v>
+        <v>0.4104</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4131</v>
+        <v>0.4104</v>
       </c>
       <c r="E9" t="n">
-        <v>0.41</v>
+        <v>0.4104</v>
       </c>
       <c r="F9" t="n">
-        <v>8379289.9406</v>
+        <v>2511846.2858</v>
       </c>
       <c r="G9" t="n">
-        <v>-30814608.31730427</v>
+        <v>-30391639.73840427</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,32 +735,37 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.41</v>
+        <v>0.4104</v>
       </c>
       <c r="C10" t="n">
-        <v>0.41</v>
+        <v>0.409</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4129</v>
+        <v>0.4104</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4099</v>
+        <v>0.409</v>
       </c>
       <c r="F10" t="n">
-        <v>10669773.7646</v>
+        <v>1168925.0313</v>
       </c>
       <c r="G10" t="n">
-        <v>-30814608.31730427</v>
+        <v>-31560564.76970427</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,32 +775,37 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4109</v>
+        <v>0.4091</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4109</v>
+        <v>0.4091</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4109</v>
+        <v>0.4091</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4109</v>
+        <v>0.4091</v>
       </c>
       <c r="F11" t="n">
-        <v>81337.3846</v>
+        <v>747811.9999000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-30733270.93270427</v>
+        <v>-30812752.76980428</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,32 +815,37 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4112</v>
+        <v>0.4107</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4112</v>
+        <v>0.4107</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4112</v>
+        <v>0.4107</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4112</v>
+        <v>0.4107</v>
       </c>
       <c r="F12" t="n">
-        <v>1500</v>
+        <v>16205.8209</v>
       </c>
       <c r="G12" t="n">
-        <v>-30731770.93270427</v>
+        <v>-30796546.94890428</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,32 +855,37 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4117</v>
+        <v>0.4091</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4117</v>
+        <v>0.4091</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4117</v>
+        <v>0.4091</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4117</v>
+        <v>0.4091</v>
       </c>
       <c r="F13" t="n">
-        <v>1500</v>
+        <v>1444262.3234</v>
       </c>
       <c r="G13" t="n">
-        <v>-30730270.93270427</v>
+        <v>-32240809.27230427</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,32 +895,37 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4117</v>
+        <v>0.4092</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4117</v>
+        <v>0.4091</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4117</v>
+        <v>0.4092</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4117</v>
+        <v>0.4091</v>
       </c>
       <c r="F14" t="n">
-        <v>110000000</v>
+        <v>97264.16620000001</v>
       </c>
       <c r="G14" t="n">
-        <v>-30730270.93270427</v>
+        <v>-32240809.27230427</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,32 +935,37 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4117</v>
+        <v>0.4091</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4117</v>
+        <v>0.4091</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4117</v>
+        <v>0.4091</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4117</v>
+        <v>0.4091</v>
       </c>
       <c r="F15" t="n">
-        <v>687500000</v>
+        <v>600524.2408</v>
       </c>
       <c r="G15" t="n">
-        <v>-30730270.93270427</v>
+        <v>-32240809.27230427</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,32 +975,37 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4102</v>
+        <v>0.4116</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4102</v>
+        <v>0.4116</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4102</v>
+        <v>0.4116</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4102</v>
+        <v>0.4116</v>
       </c>
       <c r="F16" t="n">
-        <v>150000</v>
+        <v>7169.0404</v>
       </c>
       <c r="G16" t="n">
-        <v>-30880270.93270427</v>
+        <v>-32233640.23190428</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,32 +1015,37 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4102</v>
+        <v>0.4113</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4102</v>
+        <v>0.4113</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4102</v>
+        <v>0.4113</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4102</v>
+        <v>0.4113</v>
       </c>
       <c r="F17" t="n">
-        <v>20373</v>
+        <v>7033258.1625</v>
       </c>
       <c r="G17" t="n">
-        <v>-30880270.93270427</v>
+        <v>-39266898.39440428</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,32 +1055,37 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4102</v>
+        <v>0.4113</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4124</v>
+        <v>0.4113</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4124</v>
+        <v>0.4113</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4102</v>
+        <v>0.4113</v>
       </c>
       <c r="F18" t="n">
-        <v>1857673.8937</v>
+        <v>0.0001</v>
       </c>
       <c r="G18" t="n">
-        <v>-29022597.03900427</v>
+        <v>-39266898.39440428</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,32 +1095,37 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4124</v>
+        <v>0.4114</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4098</v>
+        <v>0.4114</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4124</v>
+        <v>0.4114</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4098</v>
+        <v>0.4114</v>
       </c>
       <c r="F19" t="n">
-        <v>3624.9355</v>
+        <v>4396.0831</v>
       </c>
       <c r="G19" t="n">
-        <v>-29026221.97450427</v>
+        <v>-39262502.31130428</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,32 +1135,37 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4127</v>
+        <v>0.411</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4127</v>
+        <v>0.411</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4127</v>
+        <v>0.411</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4127</v>
+        <v>0.411</v>
       </c>
       <c r="F20" t="n">
-        <v>2150763.4838</v>
+        <v>19476.18</v>
       </c>
       <c r="G20" t="n">
-        <v>-26875458.49070427</v>
+        <v>-39281978.49130428</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,32 +1175,37 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4126</v>
+        <v>0.409</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4126</v>
+        <v>0.409</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4126</v>
+        <v>0.409</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4126</v>
+        <v>0.409</v>
       </c>
       <c r="F21" t="n">
-        <v>594218.7913</v>
+        <v>3116.1617</v>
       </c>
       <c r="G21" t="n">
-        <v>-27469677.28200427</v>
+        <v>-39285094.65300428</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,32 +1215,37 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4125</v>
+        <v>0.411</v>
       </c>
       <c r="F22" t="n">
-        <v>8799.697700000001</v>
+        <v>22871.04622871</v>
       </c>
       <c r="G22" t="n">
-        <v>-27478476.97970427</v>
+        <v>-39262223.60677557</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,32 +1255,37 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4125</v>
+        <v>0.409</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4125</v>
+        <v>0.409</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4125</v>
+        <v>0.409</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4125</v>
+        <v>0.409</v>
       </c>
       <c r="F23" t="n">
-        <v>1447405.2928</v>
+        <v>1786.863</v>
       </c>
       <c r="G23" t="n">
-        <v>-27478476.97970427</v>
+        <v>-39264010.46977557</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,32 +1295,37 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="F24" t="n">
-        <v>3269.379</v>
+        <v>1825.2085</v>
       </c>
       <c r="G24" t="n">
-        <v>-27481746.35870427</v>
+        <v>-39264010.46977557</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,67 +1335,79 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4122</v>
+        <v>0.409</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4122</v>
+        <v>0.409</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="F25" t="n">
-        <v>4642960.72774818</v>
+        <v>1497.003</v>
       </c>
       <c r="G25" t="n">
-        <v>-27481746.35870427</v>
+        <v>-39264010.46977557</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0.409</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="F26" t="n">
-        <v>192537.6283</v>
+        <v>7275709.09327129</v>
       </c>
       <c r="G26" t="n">
-        <v>-27481746.35870427</v>
+        <v>-31988301.37650428</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,32 +1417,37 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="F27" t="n">
-        <v>800818.2812</v>
+        <v>3666000</v>
       </c>
       <c r="G27" t="n">
-        <v>-27481746.35870427</v>
+        <v>-31988301.37650428</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,32 +1457,37 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="F28" t="n">
-        <v>166601.425</v>
+        <v>1241000</v>
       </c>
       <c r="G28" t="n">
-        <v>-27481746.35870427</v>
+        <v>-31988301.37650428</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,32 +1497,37 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="F29" t="n">
-        <v>5404553.396</v>
+        <v>2195837</v>
       </c>
       <c r="G29" t="n">
-        <v>-27481746.35870427</v>
+        <v>-31988301.37650428</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,32 +1537,37 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4098</v>
+        <v>0.4112</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4098</v>
+        <v>0.4112</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4098</v>
+        <v>0.4112</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4098</v>
+        <v>0.4112</v>
       </c>
       <c r="F30" t="n">
-        <v>50614</v>
+        <v>5281.9677</v>
       </c>
       <c r="G30" t="n">
-        <v>-27481746.35870427</v>
+        <v>-31983019.40880428</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,32 +1577,37 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="F31" t="n">
-        <v>2548954.1924</v>
+        <v>4492000</v>
       </c>
       <c r="G31" t="n">
-        <v>-27481746.35870427</v>
+        <v>-36475019.40880428</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,32 +1617,37 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="F32" t="n">
-        <v>2897115.9949</v>
+        <v>6559000</v>
       </c>
       <c r="G32" t="n">
-        <v>-27481746.35870427</v>
+        <v>-36475019.40880428</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,32 +1657,37 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4118</v>
+        <v>0.411</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4118</v>
+        <v>0.411</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4098</v>
+        <v>0.411</v>
       </c>
       <c r="F33" t="n">
-        <v>5269846.9111</v>
+        <v>3151000</v>
       </c>
       <c r="G33" t="n">
-        <v>-22211899.44760427</v>
+        <v>-36475019.40880428</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,32 +1697,37 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4097</v>
+        <v>0.411</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4092</v>
+        <v>0.411</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4097</v>
+        <v>0.411</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4089</v>
+        <v>0.411</v>
       </c>
       <c r="F34" t="n">
-        <v>7592394.6075</v>
+        <v>3970000</v>
       </c>
       <c r="G34" t="n">
-        <v>-29804294.05510427</v>
+        <v>-36475019.40880428</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,67 +1737,79 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4119</v>
+        <v>0.4114</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4119</v>
+        <v>0.4114</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="F35" t="n">
-        <v>2163.1539</v>
+        <v>9742362.9735</v>
       </c>
       <c r="G35" t="n">
-        <v>-29802130.90120427</v>
+        <v>-26732656.43530428</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.411</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.412</v>
+        <v>0.411</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="D36" t="n">
-        <v>0.412</v>
+        <v>0.411</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="F36" t="n">
-        <v>5215592.7618</v>
+        <v>98698</v>
       </c>
       <c r="G36" t="n">
-        <v>-29802130.90120427</v>
+        <v>-26831354.43530428</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,67 +1819,79 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.412</v>
+        <v>0.4114</v>
       </c>
       <c r="C37" t="n">
-        <v>0.412</v>
+        <v>0.4114</v>
       </c>
       <c r="D37" t="n">
-        <v>0.412</v>
+        <v>0.4114</v>
       </c>
       <c r="E37" t="n">
-        <v>0.412</v>
+        <v>0.4114</v>
       </c>
       <c r="F37" t="n">
-        <v>1271.0311</v>
+        <v>3299</v>
       </c>
       <c r="G37" t="n">
-        <v>-29800859.87010427</v>
+        <v>-26828055.43530428</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0.411</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.412</v>
+        <v>0.411</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4127</v>
+        <v>0.411</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4127</v>
+        <v>0.411</v>
       </c>
       <c r="E38" t="n">
-        <v>0.412</v>
+        <v>0.411</v>
       </c>
       <c r="F38" t="n">
-        <v>7182188.1734</v>
+        <v>2008321.9999</v>
       </c>
       <c r="G38" t="n">
-        <v>-22618671.69670427</v>
+        <v>-28836377.43520428</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,32 +1901,37 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="F39" t="n">
-        <v>792889</v>
+        <v>1392940.4488</v>
       </c>
       <c r="G39" t="n">
-        <v>-23411560.69670427</v>
+        <v>-28836377.43520428</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,382 +1941,457 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="F40" t="n">
-        <v>15000</v>
+        <v>4161883.4175</v>
       </c>
       <c r="G40" t="n">
-        <v>-23411560.69670427</v>
+        <v>-28836377.43520428</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0.411</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4119</v>
+        <v>0.4114</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4119</v>
+        <v>0.4114</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4119</v>
+        <v>0.4114</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4119</v>
+        <v>0.4114</v>
       </c>
       <c r="F41" t="n">
-        <v>3188662.1281</v>
+        <v>1219.164</v>
       </c>
       <c r="G41" t="n">
-        <v>-23411560.69670427</v>
+        <v>-28835158.27120428</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0.411</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4119</v>
+        <v>0.411</v>
       </c>
       <c r="F42" t="n">
-        <v>2055971</v>
+        <v>2.871e-05</v>
       </c>
       <c r="G42" t="n">
-        <v>-23411560.69670427</v>
+        <v>-28835158.27123299</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4123</v>
+        <v>0.4095</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4123</v>
+        <v>0.4095</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4123</v>
+        <v>0.4095</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4123</v>
+        <v>0.4095</v>
       </c>
       <c r="F43" t="n">
-        <v>3866934.3602</v>
+        <v>167548.3463</v>
       </c>
       <c r="G43" t="n">
-        <v>-19544626.33650427</v>
+        <v>-29002706.61753299</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0.411</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.41</v>
+        <v>0.4093</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4084</v>
+        <v>0.4093</v>
       </c>
       <c r="D44" t="n">
-        <v>0.41</v>
+        <v>0.4093</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4084</v>
+        <v>0.4093</v>
       </c>
       <c r="F44" t="n">
-        <v>5824993.5197</v>
+        <v>311329.2921</v>
       </c>
       <c r="G44" t="n">
-        <v>-25369619.85620427</v>
+        <v>-29314035.90963299</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0.4095</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4083</v>
+        <v>0.4114</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4083</v>
+        <v>0.4114</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4083</v>
+        <v>0.4114</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4083</v>
+        <v>0.4114</v>
       </c>
       <c r="F45" t="n">
-        <v>126701.816</v>
+        <v>234309.67428293</v>
       </c>
       <c r="G45" t="n">
-        <v>-25496321.67220427</v>
+        <v>-29079726.23535006</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0.4093</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4075</v>
+        <v>0.4114</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4075</v>
+        <v>0.4114</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4075</v>
+        <v>0.4114</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4075</v>
+        <v>0.4114</v>
       </c>
       <c r="F46" t="n">
-        <v>2000000</v>
+        <v>431662.9037</v>
       </c>
       <c r="G46" t="n">
-        <v>-27496321.67220427</v>
+        <v>-29079726.23535006</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4072</v>
+        <v>0.4114</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4073</v>
+        <v>0.4116</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4073</v>
+        <v>0.4116</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4072</v>
+        <v>0.4114</v>
       </c>
       <c r="F47" t="n">
-        <v>4876383</v>
+        <v>106314.9588</v>
       </c>
       <c r="G47" t="n">
-        <v>-32372704.67220427</v>
+        <v>-28973411.27655006</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4104</v>
+        <v>0.4116</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4104</v>
+        <v>0.4116</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4104</v>
+        <v>0.4116</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4104</v>
+        <v>0.4116</v>
       </c>
       <c r="F48" t="n">
-        <v>1218.648</v>
+        <v>121212</v>
       </c>
       <c r="G48" t="n">
-        <v>-32371486.02420427</v>
+        <v>-28973411.27655006</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4103</v>
+        <v>0.4116</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4103</v>
+        <v>0.4116</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4103</v>
+        <v>0.4116</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4103</v>
+        <v>0.4116</v>
       </c>
       <c r="F49" t="n">
-        <v>500000</v>
+        <v>1265124.6267</v>
       </c>
       <c r="G49" t="n">
-        <v>-32871486.02420427</v>
+        <v>-28973411.27655006</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.409</v>
+        <v>0.4116</v>
       </c>
       <c r="C50" t="n">
-        <v>0.409</v>
+        <v>0.4116</v>
       </c>
       <c r="D50" t="n">
-        <v>0.409</v>
+        <v>0.4116</v>
       </c>
       <c r="E50" t="n">
-        <v>0.409</v>
+        <v>0.4116</v>
       </c>
       <c r="F50" t="n">
-        <v>32000</v>
+        <v>1263271.8523</v>
       </c>
       <c r="G50" t="n">
-        <v>-32903486.02420427</v>
+        <v>-28973411.27655006</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,32 +2401,37 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4104</v>
+        <v>0.4116</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4104</v>
+        <v>0.4116</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4104</v>
+        <v>0.4116</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4104</v>
+        <v>0.4116</v>
       </c>
       <c r="F51" t="n">
-        <v>2511846.2858</v>
+        <v>1.707e-05</v>
       </c>
       <c r="G51" t="n">
-        <v>-30391639.73840427</v>
+        <v>-28973411.27655006</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,32 +2441,37 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4104</v>
+        <v>0.4116</v>
       </c>
       <c r="C52" t="n">
-        <v>0.409</v>
+        <v>0.4116</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4104</v>
+        <v>0.4116</v>
       </c>
       <c r="E52" t="n">
-        <v>0.409</v>
+        <v>0.4116</v>
       </c>
       <c r="F52" t="n">
-        <v>1168925.0313</v>
+        <v>2450830.07208293</v>
       </c>
       <c r="G52" t="n">
-        <v>-31560564.76970427</v>
+        <v>-28973411.27655006</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,347 +2481,415 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4091</v>
+        <v>0.4116</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4091</v>
+        <v>0.4116</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4091</v>
+        <v>0.4116</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4091</v>
+        <v>0.4116</v>
       </c>
       <c r="F53" t="n">
-        <v>747811.9999000001</v>
+        <v>1.707e-05</v>
       </c>
       <c r="G53" t="n">
-        <v>-30812752.76980428</v>
+        <v>-28973411.27655006</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4107</v>
+        <v>0.4116</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4107</v>
+        <v>0.4116</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4107</v>
+        <v>0.4116</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4107</v>
+        <v>0.4116</v>
       </c>
       <c r="F54" t="n">
-        <v>16205.8209</v>
+        <v>1166698.8435</v>
       </c>
       <c r="G54" t="n">
-        <v>-30796546.94890428</v>
+        <v>-28973411.27655006</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4091</v>
+        <v>0.4116</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4091</v>
+        <v>0.4116</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4091</v>
+        <v>0.4116</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4091</v>
+        <v>0.4116</v>
       </c>
       <c r="F55" t="n">
-        <v>1444262.3234</v>
+        <v>7268.03008293</v>
       </c>
       <c r="G55" t="n">
-        <v>-32240809.27230427</v>
+        <v>-28973411.27655006</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4092</v>
+        <v>0.4107</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4091</v>
+        <v>0.4107</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4092</v>
+        <v>0.4107</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4091</v>
+        <v>0.4107</v>
       </c>
       <c r="F56" t="n">
-        <v>97264.16620000001</v>
+        <v>10720.2835</v>
       </c>
       <c r="G56" t="n">
-        <v>-32240809.27230427</v>
+        <v>-28984131.56005006</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4091</v>
+        <v>0.4125</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4091</v>
+        <v>0.4125</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4091</v>
+        <v>0.4125</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4091</v>
+        <v>0.4125</v>
       </c>
       <c r="F57" t="n">
-        <v>600524.2408</v>
+        <v>30000</v>
       </c>
       <c r="G57" t="n">
-        <v>-32240809.27230427</v>
+        <v>-28954131.56005006</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0.4107</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4116</v>
+        <v>0.411</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4116</v>
+        <v>0.411</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4116</v>
+        <v>0.411</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4116</v>
+        <v>0.411</v>
       </c>
       <c r="F58" t="n">
-        <v>7169.0404</v>
+        <v>283653.6744</v>
       </c>
       <c r="G58" t="n">
-        <v>-32233640.23190428</v>
+        <v>-29237785.23445006</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0.4125</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4113</v>
+        <v>0.4125</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4113</v>
+        <v>0.4125</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4113</v>
+        <v>0.4125</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4113</v>
+        <v>0.4125</v>
       </c>
       <c r="F59" t="n">
-        <v>7033258.1625</v>
+        <v>483638.4432</v>
       </c>
       <c r="G59" t="n">
-        <v>-39266898.39440428</v>
+        <v>-28754146.79125006</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0.411</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4113</v>
+        <v>0.411</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4113</v>
+        <v>0.4103</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4113</v>
+        <v>0.411</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4113</v>
+        <v>0.4103</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0001</v>
+        <v>4653000</v>
       </c>
       <c r="G60" t="n">
-        <v>-39266898.39440428</v>
+        <v>-33407146.79125006</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0.4125</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4114</v>
+        <v>0.41</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4114</v>
+        <v>0.41</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4114</v>
+        <v>0.41</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4114</v>
+        <v>0.41</v>
       </c>
       <c r="F61" t="n">
-        <v>4396.0831</v>
+        <v>23525.8398</v>
       </c>
       <c r="G61" t="n">
-        <v>-39262502.31130428</v>
+        <v>-33430672.63105007</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0.4103</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.411</v>
+        <v>0.4124</v>
       </c>
       <c r="C62" t="n">
-        <v>0.411</v>
+        <v>0.4124</v>
       </c>
       <c r="D62" t="n">
-        <v>0.411</v>
+        <v>0.4124</v>
       </c>
       <c r="E62" t="n">
-        <v>0.411</v>
+        <v>0.4124</v>
       </c>
       <c r="F62" t="n">
-        <v>19476.18</v>
+        <v>1252.3431</v>
       </c>
       <c r="G62" t="n">
-        <v>-39281978.49130428</v>
+        <v>-33429420.28795006</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -2557,37 +2898,40 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
+        <v>0.41</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.409</v>
+        <v>0.4125</v>
       </c>
       <c r="C63" t="n">
-        <v>0.409</v>
+        <v>0.4125</v>
       </c>
       <c r="D63" t="n">
-        <v>0.409</v>
+        <v>0.4125</v>
       </c>
       <c r="E63" t="n">
-        <v>0.409</v>
+        <v>0.4125</v>
       </c>
       <c r="F63" t="n">
-        <v>3116.1617</v>
+        <v>6893685.4831</v>
       </c>
       <c r="G63" t="n">
-        <v>-39285094.65300428</v>
+        <v>-26535734.80485006</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -2596,84 +2940,80 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.4114</v>
-      </c>
+        <v>0.4124</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.411</v>
+        <v>0.4103</v>
       </c>
       <c r="C64" t="n">
-        <v>0.411</v>
+        <v>0.4103</v>
       </c>
       <c r="D64" t="n">
-        <v>0.411</v>
+        <v>0.4103</v>
       </c>
       <c r="E64" t="n">
-        <v>0.411</v>
+        <v>0.4103</v>
       </c>
       <c r="F64" t="n">
-        <v>22871.04622871</v>
+        <v>134443.2346</v>
       </c>
       <c r="G64" t="n">
-        <v>-39262223.60677557</v>
+        <v>-26670178.03945006</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.4114</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.409</v>
+        <v>0.4128</v>
       </c>
       <c r="C65" t="n">
-        <v>0.409</v>
+        <v>0.4128</v>
       </c>
       <c r="D65" t="n">
-        <v>0.409</v>
+        <v>0.4128</v>
       </c>
       <c r="E65" t="n">
-        <v>0.409</v>
+        <v>0.4128</v>
       </c>
       <c r="F65" t="n">
-        <v>1786.863</v>
+        <v>1211.3381</v>
       </c>
       <c r="G65" t="n">
-        <v>-39264010.46977557</v>
+        <v>-26668966.70135006</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,32 +3023,37 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.409</v>
+        <v>0.4105</v>
       </c>
       <c r="C66" t="n">
-        <v>0.409</v>
+        <v>0.4105</v>
       </c>
       <c r="D66" t="n">
-        <v>0.409</v>
+        <v>0.4105</v>
       </c>
       <c r="E66" t="n">
-        <v>0.409</v>
+        <v>0.4105</v>
       </c>
       <c r="F66" t="n">
-        <v>1825.2085</v>
+        <v>18099.5588</v>
       </c>
       <c r="G66" t="n">
-        <v>-39264010.46977557</v>
+        <v>-26687066.26015006</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,32 +3063,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.409</v>
+        <v>0.4103</v>
       </c>
       <c r="C67" t="n">
-        <v>0.409</v>
+        <v>0.4102</v>
       </c>
       <c r="D67" t="n">
-        <v>0.409</v>
+        <v>0.4103</v>
       </c>
       <c r="E67" t="n">
-        <v>0.409</v>
+        <v>0.4102</v>
       </c>
       <c r="F67" t="n">
-        <v>1497.003</v>
+        <v>600000</v>
       </c>
       <c r="G67" t="n">
-        <v>-39264010.46977557</v>
+        <v>-27287066.26015006</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,220 +3103,267 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.409</v>
+        <v>0.41</v>
       </c>
       <c r="C68" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="D68" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="E68" t="n">
-        <v>0.409</v>
+        <v>0.41</v>
       </c>
       <c r="F68" t="n">
-        <v>7275709.09327129</v>
+        <v>148814.9023</v>
       </c>
       <c r="G68" t="n">
-        <v>-31988301.37650428</v>
+        <v>-27435881.16245006</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.4102</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.411</v>
+        <v>0.4101</v>
       </c>
       <c r="C69" t="n">
-        <v>0.411</v>
+        <v>0.4101</v>
       </c>
       <c r="D69" t="n">
-        <v>0.411</v>
+        <v>0.4101</v>
       </c>
       <c r="E69" t="n">
-        <v>0.411</v>
+        <v>0.4101</v>
       </c>
       <c r="F69" t="n">
-        <v>3666000</v>
+        <v>221852.7946</v>
       </c>
       <c r="G69" t="n">
-        <v>-31988301.37650428</v>
+        <v>-27214028.36785007</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.41</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.411</v>
+        <v>0.4101</v>
       </c>
       <c r="C70" t="n">
-        <v>0.411</v>
+        <v>0.4101</v>
       </c>
       <c r="D70" t="n">
-        <v>0.411</v>
+        <v>0.4101</v>
       </c>
       <c r="E70" t="n">
-        <v>0.411</v>
+        <v>0.4101</v>
       </c>
       <c r="F70" t="n">
-        <v>1241000</v>
+        <v>516127.0313</v>
       </c>
       <c r="G70" t="n">
-        <v>-31988301.37650428</v>
+        <v>-27214028.36785007</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.4101</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.411</v>
+        <v>0.4101</v>
       </c>
       <c r="C71" t="n">
-        <v>0.411</v>
+        <v>0.4105</v>
       </c>
       <c r="D71" t="n">
-        <v>0.411</v>
+        <v>0.4137</v>
       </c>
       <c r="E71" t="n">
-        <v>0.411</v>
+        <v>0.4101</v>
       </c>
       <c r="F71" t="n">
-        <v>2195837</v>
+        <v>213922.92049567</v>
       </c>
       <c r="G71" t="n">
-        <v>-31988301.37650428</v>
+        <v>-27000105.44735439</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.4101</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4112</v>
+        <v>0.4142</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4112</v>
+        <v>0.4142</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4112</v>
+        <v>0.4142</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4112</v>
+        <v>0.4142</v>
       </c>
       <c r="F72" t="n">
-        <v>5281.9677</v>
+        <v>1208</v>
       </c>
       <c r="G72" t="n">
-        <v>-31983019.40880428</v>
+        <v>-26998897.44735439</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.4105</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="C73" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="D73" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="E73" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="F73" t="n">
-        <v>4492000</v>
+        <v>10744.68085106</v>
       </c>
       <c r="G73" t="n">
-        <v>-36475019.40880428</v>
+        <v>-27009642.12820546</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.4142</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2985,10 +3382,10 @@
         <v>0.411</v>
       </c>
       <c r="F74" t="n">
-        <v>6559000</v>
+        <v>2617.1272</v>
       </c>
       <c r="G74" t="n">
-        <v>-36475019.40880428</v>
+        <v>-27012259.25540546</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2998,67 +3395,79 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.411</v>
+        <v>0.4133</v>
       </c>
       <c r="C75" t="n">
-        <v>0.411</v>
+        <v>0.4133</v>
       </c>
       <c r="D75" t="n">
-        <v>0.411</v>
+        <v>0.4133</v>
       </c>
       <c r="E75" t="n">
-        <v>0.411</v>
+        <v>0.4133</v>
       </c>
       <c r="F75" t="n">
-        <v>3151000</v>
+        <v>7305.9065</v>
       </c>
       <c r="G75" t="n">
-        <v>-36475019.40880428</v>
+        <v>-27004953.34890546</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.411</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="C76" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="D76" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="E76" t="n">
-        <v>0.411</v>
+        <v>0.4136</v>
       </c>
       <c r="F76" t="n">
-        <v>3970000</v>
+        <v>4372.4344</v>
       </c>
       <c r="G76" t="n">
-        <v>-36475019.40880428</v>
+        <v>-27000580.91450546</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3068,137 +3477,163 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.411</v>
+        <v>0.4132</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4114</v>
+        <v>0.4132</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4114</v>
+        <v>0.4132</v>
       </c>
       <c r="E77" t="n">
-        <v>0.411</v>
+        <v>0.4132</v>
       </c>
       <c r="F77" t="n">
-        <v>9742362.9735</v>
+        <v>2167797.4714</v>
       </c>
       <c r="G77" t="n">
-        <v>-26732656.43530428</v>
+        <v>-29168378.38590546</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0.4136</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.411</v>
+        <v>0.413</v>
       </c>
       <c r="C78" t="n">
-        <v>0.411</v>
+        <v>0.4131</v>
       </c>
       <c r="D78" t="n">
-        <v>0.411</v>
+        <v>0.4131</v>
       </c>
       <c r="E78" t="n">
-        <v>0.411</v>
+        <v>0.413</v>
       </c>
       <c r="F78" t="n">
-        <v>98698</v>
+        <v>10394085.7128</v>
       </c>
       <c r="G78" t="n">
-        <v>-26831354.43530428</v>
+        <v>-39562464.09870546</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0.4132</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4114</v>
+        <v>0.4141</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4114</v>
+        <v>0.4141</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4114</v>
+        <v>0.4141</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4114</v>
+        <v>0.4141</v>
       </c>
       <c r="F79" t="n">
-        <v>3299</v>
+        <v>23792.6314</v>
       </c>
       <c r="G79" t="n">
-        <v>-26828055.43530428</v>
+        <v>-39538671.46730546</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0.4131</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="C80" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="D80" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="E80" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="F80" t="n">
-        <v>2008321.9999</v>
+        <v>382024.3</v>
       </c>
       <c r="G80" t="n">
-        <v>-28836377.43520428</v>
+        <v>-39920695.76730546</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3208,67 +3643,79 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.411</v>
+        <v>0.4141</v>
       </c>
       <c r="C81" t="n">
-        <v>0.411</v>
+        <v>0.4141</v>
       </c>
       <c r="D81" t="n">
-        <v>0.411</v>
+        <v>0.4141</v>
       </c>
       <c r="E81" t="n">
-        <v>0.411</v>
+        <v>0.4141</v>
       </c>
       <c r="F81" t="n">
-        <v>1392940.4488</v>
+        <v>1234.9625</v>
       </c>
       <c r="G81" t="n">
-        <v>-28836377.43520428</v>
+        <v>-39919460.80480546</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0.412</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="C82" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="D82" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="E82" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="F82" t="n">
-        <v>4161883.4175</v>
+        <v>2431.9963</v>
       </c>
       <c r="G82" t="n">
-        <v>-28836377.43520428</v>
+        <v>-39921892.80110545</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3278,207 +3725,247 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4114</v>
+        <v>0.412</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4114</v>
+        <v>0.412</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4114</v>
+        <v>0.412</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4114</v>
+        <v>0.412</v>
       </c>
       <c r="F83" t="n">
-        <v>1219.164</v>
+        <v>1051217.3361</v>
       </c>
       <c r="G83" t="n">
-        <v>-28835158.27120428</v>
+        <v>-39921892.80110545</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0.412</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="C84" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="D84" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="E84" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="F84" t="n">
-        <v>2.871e-05</v>
+        <v>117199.5254</v>
       </c>
       <c r="G84" t="n">
-        <v>-28835158.27123299</v>
+        <v>-39921892.80110545</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0.412</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.4095</v>
+        <v>0.412</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4095</v>
+        <v>0.412</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4095</v>
+        <v>0.412</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4095</v>
+        <v>0.412</v>
       </c>
       <c r="F85" t="n">
-        <v>167548.3463</v>
+        <v>150000</v>
       </c>
       <c r="G85" t="n">
-        <v>-29002706.61753299</v>
+        <v>-39921892.80110545</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0.412</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4093</v>
+        <v>0.4141</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4093</v>
+        <v>0.4141</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4093</v>
+        <v>0.4141</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4093</v>
+        <v>0.4141</v>
       </c>
       <c r="F86" t="n">
-        <v>311329.2921</v>
+        <v>97907.0315</v>
       </c>
       <c r="G86" t="n">
-        <v>-29314035.90963299</v>
+        <v>-39823985.76960546</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0.412</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4114</v>
+        <v>0.4121</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4114</v>
+        <v>0.4115</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4114</v>
+        <v>0.4121</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4114</v>
+        <v>0.4115</v>
       </c>
       <c r="F87" t="n">
-        <v>234309.67428293</v>
+        <v>277782.1473</v>
       </c>
       <c r="G87" t="n">
-        <v>-29079726.23535006</v>
+        <v>-40101767.91690546</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0.4141</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4114</v>
+        <v>0.4141</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4114</v>
+        <v>0.4141</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4114</v>
+        <v>0.4141</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4114</v>
+        <v>0.4141</v>
       </c>
       <c r="F88" t="n">
-        <v>431662.9037</v>
+        <v>241487.56339048</v>
       </c>
       <c r="G88" t="n">
-        <v>-29079726.23535006</v>
+        <v>-39860280.35351498</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3488,67 +3975,79 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4114</v>
+        <v>0.414</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4116</v>
+        <v>0.414</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4116</v>
+        <v>0.414</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4114</v>
+        <v>0.414</v>
       </c>
       <c r="F89" t="n">
-        <v>106314.9588</v>
+        <v>1723398.1953</v>
       </c>
       <c r="G89" t="n">
-        <v>-28973411.27655006</v>
+        <v>-41583678.54881497</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0.4141</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4116</v>
+        <v>0.414</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4116</v>
+        <v>0.414</v>
       </c>
       <c r="F90" t="n">
-        <v>121212</v>
+        <v>17625084.8735</v>
       </c>
       <c r="G90" t="n">
-        <v>-28973411.27655006</v>
+        <v>-23958593.67531497</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3558,32 +4057,37 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4116</v>
+        <v>0.4141</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4116</v>
+        <v>0.4141</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4116</v>
+        <v>0.4141</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4116</v>
+        <v>0.4141</v>
       </c>
       <c r="F91" t="n">
-        <v>1265124.6267</v>
+        <v>10810346.2674</v>
       </c>
       <c r="G91" t="n">
-        <v>-28973411.27655006</v>
+        <v>-34768939.94271497</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3593,32 +4097,37 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="F92" t="n">
-        <v>1263271.8523</v>
+        <v>335786.6464</v>
       </c>
       <c r="G92" t="n">
-        <v>-28973411.27655006</v>
+        <v>-34433153.29631498</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3628,32 +4137,37 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="F93" t="n">
-        <v>1.707e-05</v>
+        <v>3047821.4476</v>
       </c>
       <c r="G93" t="n">
-        <v>-28973411.27655006</v>
+        <v>-34433153.29631498</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3663,32 +4177,37 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4116</v>
+        <v>0.4142</v>
       </c>
       <c r="F94" t="n">
-        <v>2450830.07208293</v>
+        <v>3139684.0192</v>
       </c>
       <c r="G94" t="n">
-        <v>-28973411.27655006</v>
+        <v>-34433153.29631498</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3698,32 +4217,37 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4116</v>
+        <v>0.4144</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4116</v>
+        <v>0.4172</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4116</v>
+        <v>0.4172</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4116</v>
+        <v>0.4144</v>
       </c>
       <c r="F95" t="n">
-        <v>1.707e-05</v>
+        <v>22262.4241375</v>
       </c>
       <c r="G95" t="n">
-        <v>-28973411.27655006</v>
+        <v>-34410890.87217747</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3733,32 +4257,37 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4116</v>
+        <v>0.4173</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4116</v>
+        <v>0.4173</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4116</v>
+        <v>0.4173</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4116</v>
+        <v>0.4173</v>
       </c>
       <c r="F96" t="n">
-        <v>1166698.8435</v>
+        <v>1199</v>
       </c>
       <c r="G96" t="n">
-        <v>-28973411.27655006</v>
+        <v>-34409691.87217747</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3768,32 +4297,37 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4116</v>
+        <v>0.4173</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4116</v>
+        <v>0.4173</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4116</v>
+        <v>0.4173</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4116</v>
+        <v>0.4141</v>
       </c>
       <c r="F97" t="n">
-        <v>7268.03008293</v>
+        <v>3640.2848</v>
       </c>
       <c r="G97" t="n">
-        <v>-28973411.27655006</v>
+        <v>-34409691.87217747</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3803,32 +4337,37 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4107</v>
+        <v>0.4173</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4107</v>
+        <v>0.4173</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4107</v>
+        <v>0.4173</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4107</v>
+        <v>0.415</v>
       </c>
       <c r="F98" t="n">
-        <v>10720.2835</v>
+        <v>211136.6203</v>
       </c>
       <c r="G98" t="n">
-        <v>-28984131.56005006</v>
+        <v>-34409691.87217747</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3838,32 +4377,37 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4125</v>
+        <v>0.4173</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4125</v>
+        <v>0.419</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4125</v>
+        <v>0.419</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4125</v>
+        <v>0.4173</v>
       </c>
       <c r="F99" t="n">
-        <v>30000</v>
+        <v>23866.34844909</v>
       </c>
       <c r="G99" t="n">
-        <v>-28954131.56005006</v>
+        <v>-34385825.52372839</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3873,32 +4417,37 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.411</v>
+        <v>0.419</v>
       </c>
       <c r="C100" t="n">
-        <v>0.411</v>
+        <v>0.4155</v>
       </c>
       <c r="D100" t="n">
-        <v>0.411</v>
+        <v>0.419</v>
       </c>
       <c r="E100" t="n">
-        <v>0.411</v>
+        <v>0.4155</v>
       </c>
       <c r="F100" t="n">
-        <v>283653.6744</v>
+        <v>2434.3676</v>
       </c>
       <c r="G100" t="n">
-        <v>-29237785.23445006</v>
+        <v>-34388259.89132839</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3908,32 +4457,37 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4125</v>
+        <v>0.4198</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4125</v>
+        <v>0.4198</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4125</v>
+        <v>0.4198</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4125</v>
+        <v>0.4198</v>
       </c>
       <c r="F101" t="n">
-        <v>483638.4432</v>
+        <v>1192</v>
       </c>
       <c r="G101" t="n">
-        <v>-28754146.79125006</v>
+        <v>-34387067.89132839</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3943,32 +4497,37 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.411</v>
+        <v>0.4198</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4103</v>
+        <v>0.4198</v>
       </c>
       <c r="D102" t="n">
-        <v>0.411</v>
+        <v>0.4198</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4103</v>
+        <v>0.4198</v>
       </c>
       <c r="F102" t="n">
-        <v>4653000</v>
+        <v>12651.3</v>
       </c>
       <c r="G102" t="n">
-        <v>-33407146.79125006</v>
+        <v>-34387067.89132839</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3978,32 +4537,37 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.41</v>
+        <v>0.4199</v>
       </c>
       <c r="C103" t="n">
-        <v>0.41</v>
+        <v>0.4199</v>
       </c>
       <c r="D103" t="n">
-        <v>0.41</v>
+        <v>0.4199</v>
       </c>
       <c r="E103" t="n">
-        <v>0.41</v>
+        <v>0.4199</v>
       </c>
       <c r="F103" t="n">
-        <v>23525.8398</v>
+        <v>1191</v>
       </c>
       <c r="G103" t="n">
-        <v>-33430672.63105007</v>
+        <v>-34385876.89132839</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4013,71 +4577,77 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4124</v>
+        <v>0.4199</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4124</v>
+        <v>0.421</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4124</v>
+        <v>0.4211</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4124</v>
+        <v>0.4199</v>
       </c>
       <c r="F104" t="n">
-        <v>1252.3431</v>
+        <v>1891761.0749</v>
       </c>
       <c r="G104" t="n">
-        <v>-33429420.28795006</v>
+        <v>-32494115.81642839</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.4125</v>
+        <v>0.417</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4125</v>
+        <v>0.417</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4125</v>
+        <v>0.417</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4125</v>
+        <v>0.417</v>
       </c>
       <c r="F105" t="n">
-        <v>6893685.4831</v>
+        <v>325610.6615</v>
       </c>
       <c r="G105" t="n">
-        <v>-26535734.80485006</v>
+        <v>-32819726.47792839</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4086,39 +4656,38 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>0.41</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4103</v>
+        <v>0.4205</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4103</v>
+        <v>0.4205</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4103</v>
+        <v>0.4205</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4103</v>
+        <v>0.4205</v>
       </c>
       <c r="F106" t="n">
-        <v>134443.2346</v>
+        <v>77032</v>
       </c>
       <c r="G106" t="n">
-        <v>-26670178.03945006</v>
+        <v>-32742694.47792839</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4127,39 +4696,38 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>0.41</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4128</v>
+        <v>0.4167</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4128</v>
+        <v>0.4167</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4128</v>
+        <v>0.4204</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4128</v>
+        <v>0.4167</v>
       </c>
       <c r="F107" t="n">
-        <v>1211.3381</v>
+        <v>262820.2589</v>
       </c>
       <c r="G107" t="n">
-        <v>-26668966.70135006</v>
+        <v>-33005514.73682839</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4169,32 +4737,37 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4105</v>
+        <v>0.4167</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4105</v>
+        <v>0.4203</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4105</v>
+        <v>0.4204</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4105</v>
+        <v>0.4155</v>
       </c>
       <c r="F108" t="n">
-        <v>18099.5588</v>
+        <v>10125947.4528</v>
       </c>
       <c r="G108" t="n">
-        <v>-26687066.26015006</v>
+        <v>-22879567.28402839</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4204,32 +4777,37 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4103</v>
+        <v>0.4203</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4102</v>
+        <v>0.4203</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4103</v>
+        <v>0.4203</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4102</v>
+        <v>0.4203</v>
       </c>
       <c r="F109" t="n">
-        <v>600000</v>
+        <v>97619</v>
       </c>
       <c r="G109" t="n">
-        <v>-27287066.26015006</v>
+        <v>-22879567.28402839</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4239,32 +4817,37 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.41</v>
+        <v>0.416</v>
       </c>
       <c r="C110" t="n">
-        <v>0.41</v>
+        <v>0.416</v>
       </c>
       <c r="D110" t="n">
-        <v>0.41</v>
+        <v>0.416</v>
       </c>
       <c r="E110" t="n">
-        <v>0.41</v>
+        <v>0.416</v>
       </c>
       <c r="F110" t="n">
-        <v>148814.9023</v>
+        <v>1536000</v>
       </c>
       <c r="G110" t="n">
-        <v>-27435881.16245006</v>
+        <v>-24415567.28402839</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4274,32 +4857,37 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4101</v>
+        <v>0.4203</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4101</v>
+        <v>0.4203</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4101</v>
+        <v>0.4203</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4101</v>
+        <v>0.4203</v>
       </c>
       <c r="F111" t="n">
-        <v>221852.7946</v>
+        <v>47585.0583</v>
       </c>
       <c r="G111" t="n">
-        <v>-27214028.36785007</v>
+        <v>-24367982.22572839</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4309,1833 +4897,197 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4101</v>
+        <v>0.4203</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4101</v>
+        <v>0.4203</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4101</v>
+        <v>0.4203</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4101</v>
+        <v>0.4203</v>
       </c>
       <c r="F112" t="n">
-        <v>516127.0313</v>
+        <v>6712.0801</v>
       </c>
       <c r="G112" t="n">
-        <v>-27214028.36785007</v>
+        <v>-24367982.22572839</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4101</v>
+        <v>0.4203</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4105</v>
+        <v>0.416</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4137</v>
+        <v>0.4203</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4101</v>
+        <v>0.416</v>
       </c>
       <c r="F113" t="n">
-        <v>213922.92049567</v>
+        <v>2426.838</v>
       </c>
       <c r="G113" t="n">
-        <v>-27000105.44735439</v>
+        <v>-24370409.06372839</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.4101</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4142</v>
+        <v>0.416</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4142</v>
+        <v>0.416</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4142</v>
+        <v>0.416</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4142</v>
+        <v>0.416</v>
       </c>
       <c r="F114" t="n">
-        <v>1208</v>
+        <v>1049135.5656</v>
       </c>
       <c r="G114" t="n">
-        <v>-26998897.44735439</v>
+        <v>-24370409.06372839</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.4105</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4136</v>
+        <v>0.4203</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4136</v>
+        <v>0.4203</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4136</v>
+        <v>0.4203</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4136</v>
+        <v>0.4203</v>
       </c>
       <c r="F115" t="n">
-        <v>10744.68085106</v>
+        <v>80000</v>
       </c>
       <c r="G115" t="n">
-        <v>-27009642.12820546</v>
+        <v>-24290409.06372839</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.411</v>
+        <v>0.4202</v>
       </c>
       <c r="C116" t="n">
-        <v>0.411</v>
+        <v>0.4202</v>
       </c>
       <c r="D116" t="n">
-        <v>0.411</v>
+        <v>0.4202</v>
       </c>
       <c r="E116" t="n">
-        <v>0.411</v>
+        <v>0.4202</v>
       </c>
       <c r="F116" t="n">
-        <v>2617.1272</v>
+        <v>1600000</v>
       </c>
       <c r="G116" t="n">
-        <v>-27012259.25540546</v>
+        <v>-25890409.06372839</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.4133</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.4133</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.4133</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.4133</v>
-      </c>
-      <c r="F117" t="n">
-        <v>7305.9065</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-27004953.34890546</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4372.4344</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-27000580.91450546</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.4132</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.4132</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.4132</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.4132</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2167797.4714</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-29168378.38590546</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.4131</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.4131</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.413</v>
-      </c>
-      <c r="F120" t="n">
-        <v>10394085.7128</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-39562464.09870546</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="F121" t="n">
-        <v>23792.6314</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-39538671.46730546</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="F122" t="n">
-        <v>382024.3</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-39920695.76730546</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1234.9625</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-39919460.80480546</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="F124" t="n">
-        <v>2431.9963</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-39921892.80110545</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1051217.3361</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-39921892.80110545</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="F126" t="n">
-        <v>117199.5254</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-39921892.80110545</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="F127" t="n">
-        <v>150000</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-39921892.80110545</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="F128" t="n">
-        <v>97907.0315</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-39823985.76960546</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.4121</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.4115</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.4121</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.4115</v>
-      </c>
-      <c r="F129" t="n">
-        <v>277782.1473</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-40101767.91690546</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="F130" t="n">
-        <v>241487.56339048</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-39860280.35351498</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1723398.1953</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-41583678.54881497</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="F132" t="n">
-        <v>17625084.8735</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-23958593.67531497</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="F133" t="n">
-        <v>10810346.2674</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-34768939.94271497</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="F134" t="n">
-        <v>335786.6464</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-34433153.29631498</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="F135" t="n">
-        <v>3047821.4476</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-34433153.29631498</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.4142</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3139684.0192</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-34433153.29631498</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.4144</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.4172</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.4172</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.4144</v>
-      </c>
-      <c r="F137" t="n">
-        <v>22262.4241375</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-34410890.87217747</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1199</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-34409691.87217747</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="F139" t="n">
-        <v>3640.2848</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-34409691.87217747</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="F140" t="n">
-        <v>211136.6203</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-34409691.87217747</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.4173</v>
-      </c>
-      <c r="F141" t="n">
-        <v>23866.34844909</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-34385825.52372839</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.4155</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.4155</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2434.3676</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-34388259.89132839</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1192</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-34387067.89132839</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.4198</v>
-      </c>
-      <c r="F144" t="n">
-        <v>12651.3</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-34387067.89132839</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1191</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-34385876.89132839</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.4211</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.4199</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1891761.0749</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-32494115.81642839</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="F147" t="n">
-        <v>325610.6615</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-32819726.47792839</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.4205</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.4205</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.4205</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.4205</v>
-      </c>
-      <c r="F148" t="n">
-        <v>77032</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-32742694.47792839</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.4167</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.4167</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.4204</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.4167</v>
-      </c>
-      <c r="F149" t="n">
-        <v>262820.2589</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-33005514.73682839</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.4167</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.4204</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.4155</v>
-      </c>
-      <c r="F150" t="n">
-        <v>10125947.4528</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-22879567.28402839</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="F151" t="n">
-        <v>97619</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-22879567.28402839</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1536000</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-24415567.28402839</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="F153" t="n">
-        <v>47585.0583</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-24367982.22572839</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="F154" t="n">
-        <v>6712.0801</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-24367982.22572839</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2426.838</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-24370409.06372839</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1049135.5656</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-24370409.06372839</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.4203</v>
-      </c>
-      <c r="F157" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-24290409.06372839</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.4202</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.4202</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.4202</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.4202</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1600000</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-25890409.06372839</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest BTT.xlsx
+++ b/BackTest/2020-01-22 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.41</v>
+        <v>0.4129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4084</v>
+        <v>0.4129</v>
       </c>
       <c r="D2" t="n">
-        <v>0.41</v>
+        <v>0.4129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4084</v>
+        <v>0.4129</v>
       </c>
       <c r="F2" t="n">
-        <v>5824993.5197</v>
+        <v>31530.4742</v>
       </c>
       <c r="G2" t="n">
-        <v>-25369619.85620427</v>
+        <v>-14354877.58040426</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4083</v>
+        <v>0.4129</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4083</v>
+        <v>0.4129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4083</v>
+        <v>0.4129</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4083</v>
+        <v>0.4129</v>
       </c>
       <c r="F3" t="n">
-        <v>126701.816</v>
+        <v>6567.2582</v>
       </c>
       <c r="G3" t="n">
-        <v>-25496321.67220427</v>
+        <v>-14354877.58040426</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4075</v>
+        <v>0.4129</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4075</v>
+        <v>0.4129</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4075</v>
+        <v>0.4129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4075</v>
+        <v>0.4129</v>
       </c>
       <c r="F4" t="n">
-        <v>2000000</v>
+        <v>2867.5948</v>
       </c>
       <c r="G4" t="n">
-        <v>-27496321.67220427</v>
+        <v>-14354877.58040426</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,38 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4072</v>
+        <v>0.4088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4073</v>
+        <v>0.4088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4073</v>
+        <v>0.4088</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4072</v>
+        <v>0.4088</v>
       </c>
       <c r="F5" t="n">
-        <v>4876383</v>
+        <v>1250</v>
       </c>
       <c r="G5" t="n">
-        <v>-32372704.67220427</v>
+        <v>-14356127.58040426</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.4075</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -588,38 +582,32 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4104</v>
+        <v>0.4129</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4104</v>
+        <v>0.4129</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4104</v>
+        <v>0.4129</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4104</v>
+        <v>0.4129</v>
       </c>
       <c r="F6" t="n">
-        <v>1218.648</v>
+        <v>1232.2753</v>
       </c>
       <c r="G6" t="n">
-        <v>-32371486.02420427</v>
+        <v>-14354895.30510426</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.4073</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -630,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4103</v>
+        <v>0.4087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4103</v>
+        <v>0.4087</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4103</v>
+        <v>0.4087</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4103</v>
+        <v>0.4087</v>
       </c>
       <c r="F7" t="n">
-        <v>500000</v>
+        <v>4298.9166</v>
       </c>
       <c r="G7" t="n">
-        <v>-32871486.02420427</v>
+        <v>-14359194.22170426</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,11 +643,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -670,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.409</v>
+        <v>0.4129</v>
       </c>
       <c r="C8" t="n">
-        <v>0.409</v>
+        <v>0.4129</v>
       </c>
       <c r="D8" t="n">
-        <v>0.409</v>
+        <v>0.4129</v>
       </c>
       <c r="E8" t="n">
-        <v>0.409</v>
+        <v>0.4129</v>
       </c>
       <c r="F8" t="n">
-        <v>32000</v>
+        <v>1238.0999</v>
       </c>
       <c r="G8" t="n">
-        <v>-32903486.02420427</v>
+        <v>-14357956.12180426</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -695,11 +679,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -710,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4104</v>
+        <v>0.4129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4104</v>
+        <v>0.4129</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4104</v>
+        <v>0.4129</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4104</v>
+        <v>0.4129</v>
       </c>
       <c r="F9" t="n">
-        <v>2511846.2858</v>
+        <v>212595.1529</v>
       </c>
       <c r="G9" t="n">
-        <v>-30391639.73840427</v>
+        <v>-14357956.12180426</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -735,11 +715,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -750,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4104</v>
+        <v>0.4085</v>
       </c>
       <c r="C10" t="n">
-        <v>0.409</v>
+        <v>0.4085</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4104</v>
+        <v>0.4085</v>
       </c>
       <c r="E10" t="n">
-        <v>0.409</v>
+        <v>0.4085</v>
       </c>
       <c r="F10" t="n">
-        <v>1168925.0313</v>
+        <v>600000</v>
       </c>
       <c r="G10" t="n">
-        <v>-31560564.76970427</v>
+        <v>-14957956.12180426</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -775,11 +751,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -790,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4091</v>
+        <v>0.4129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4091</v>
+        <v>0.4129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4091</v>
+        <v>0.4129</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4091</v>
+        <v>0.4129</v>
       </c>
       <c r="F11" t="n">
-        <v>747811.9999000001</v>
+        <v>72478.06849999999</v>
       </c>
       <c r="G11" t="n">
-        <v>-30812752.76980428</v>
+        <v>-14885478.05330426</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -815,11 +787,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -830,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4107</v>
+        <v>0.411</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4107</v>
+        <v>0.411</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4107</v>
+        <v>0.411</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4107</v>
+        <v>0.411</v>
       </c>
       <c r="F12" t="n">
-        <v>16205.8209</v>
+        <v>2500</v>
       </c>
       <c r="G12" t="n">
-        <v>-30796546.94890428</v>
+        <v>-14887978.05330426</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -855,11 +823,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -870,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4091</v>
+        <v>0.411</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4091</v>
+        <v>0.411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4091</v>
+        <v>0.411</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4091</v>
+        <v>0.411</v>
       </c>
       <c r="F13" t="n">
-        <v>1444262.3234</v>
+        <v>1910</v>
       </c>
       <c r="G13" t="n">
-        <v>-32240809.27230427</v>
+        <v>-14887978.05330426</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -895,11 +859,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -910,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4092</v>
+        <v>0.411</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4091</v>
+        <v>0.4081</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4092</v>
+        <v>0.411</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4091</v>
+        <v>0.4081</v>
       </c>
       <c r="F14" t="n">
-        <v>97264.16620000001</v>
+        <v>1570109.3494</v>
       </c>
       <c r="G14" t="n">
-        <v>-32240809.27230427</v>
+        <v>-16458087.40270426</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -935,11 +895,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -950,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4091</v>
+        <v>0.4114</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4091</v>
+        <v>0.4114</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4091</v>
+        <v>0.4114</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4091</v>
+        <v>0.4114</v>
       </c>
       <c r="F15" t="n">
-        <v>600524.2408</v>
+        <v>177147.9905</v>
       </c>
       <c r="G15" t="n">
-        <v>-32240809.27230427</v>
+        <v>-16280939.41220427</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -975,11 +931,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -990,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4116</v>
+        <v>0.411</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4116</v>
+        <v>0.411</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4116</v>
+        <v>0.411</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4116</v>
+        <v>0.411</v>
       </c>
       <c r="F16" t="n">
-        <v>7169.0404</v>
+        <v>10122.3097</v>
       </c>
       <c r="G16" t="n">
-        <v>-32233640.23190428</v>
+        <v>-16291061.72190426</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1015,11 +967,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1030,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4113</v>
+        <v>0.4114</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4113</v>
+        <v>0.4114</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4113</v>
+        <v>0.4114</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4113</v>
+        <v>0.4114</v>
       </c>
       <c r="F17" t="n">
-        <v>7033258.1625</v>
+        <v>2424.6626</v>
       </c>
       <c r="G17" t="n">
-        <v>-39266898.39440428</v>
+        <v>-16288637.05930427</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1055,11 +1003,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1070,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4113</v>
+        <v>0.4114</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4113</v>
+        <v>0.4114</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4113</v>
+        <v>0.4114</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4113</v>
+        <v>0.4114</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0001</v>
+        <v>30000</v>
       </c>
       <c r="G18" t="n">
-        <v>-39266898.39440428</v>
+        <v>-16288637.05930427</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1095,11 +1039,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1110,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4114</v>
+        <v>0.4086</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4114</v>
+        <v>0.4086</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4114</v>
+        <v>0.4086</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4114</v>
+        <v>0.4086</v>
       </c>
       <c r="F19" t="n">
-        <v>4396.0831</v>
+        <v>8220.8622</v>
       </c>
       <c r="G19" t="n">
-        <v>-39262502.31130428</v>
+        <v>-16296857.92150426</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1135,11 +1075,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1150,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.411</v>
+        <v>0.4085</v>
       </c>
       <c r="C20" t="n">
-        <v>0.411</v>
+        <v>0.4085</v>
       </c>
       <c r="D20" t="n">
-        <v>0.411</v>
+        <v>0.4085</v>
       </c>
       <c r="E20" t="n">
-        <v>0.411</v>
+        <v>0.4085</v>
       </c>
       <c r="F20" t="n">
-        <v>19476.18</v>
+        <v>1484203.1934</v>
       </c>
       <c r="G20" t="n">
-        <v>-39281978.49130428</v>
+        <v>-17781061.11490427</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1175,11 +1111,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1190,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.409</v>
+        <v>0.4085</v>
       </c>
       <c r="C21" t="n">
-        <v>0.409</v>
+        <v>0.4082</v>
       </c>
       <c r="D21" t="n">
-        <v>0.409</v>
+        <v>0.4085</v>
       </c>
       <c r="E21" t="n">
-        <v>0.409</v>
+        <v>0.4082</v>
       </c>
       <c r="F21" t="n">
-        <v>3116.1617</v>
+        <v>4837376.6165</v>
       </c>
       <c r="G21" t="n">
-        <v>-39285094.65300428</v>
+        <v>-22618437.73140427</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1215,11 +1147,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.411</v>
+        <v>0.4113</v>
       </c>
       <c r="C22" t="n">
-        <v>0.411</v>
+        <v>0.4113</v>
       </c>
       <c r="D22" t="n">
-        <v>0.411</v>
+        <v>0.4113</v>
       </c>
       <c r="E22" t="n">
-        <v>0.411</v>
+        <v>0.4113</v>
       </c>
       <c r="F22" t="n">
-        <v>22871.04622871</v>
+        <v>2461.3154</v>
       </c>
       <c r="G22" t="n">
-        <v>-39262223.60677557</v>
+        <v>-22615976.41600427</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1255,11 +1183,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1270,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.409</v>
+        <v>0.4114</v>
       </c>
       <c r="C23" t="n">
-        <v>0.409</v>
+        <v>0.4114</v>
       </c>
       <c r="D23" t="n">
-        <v>0.409</v>
+        <v>0.4114</v>
       </c>
       <c r="E23" t="n">
-        <v>0.409</v>
+        <v>0.4114</v>
       </c>
       <c r="F23" t="n">
-        <v>1786.863</v>
+        <v>32639.338</v>
       </c>
       <c r="G23" t="n">
-        <v>-39264010.46977557</v>
+        <v>-22583337.07800427</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1295,11 +1219,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1310,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.409</v>
+        <v>0.4097</v>
       </c>
       <c r="C24" t="n">
-        <v>0.409</v>
+        <v>0.4097</v>
       </c>
       <c r="D24" t="n">
-        <v>0.409</v>
+        <v>0.4097</v>
       </c>
       <c r="E24" t="n">
-        <v>0.409</v>
+        <v>0.4097</v>
       </c>
       <c r="F24" t="n">
-        <v>1825.2085</v>
+        <v>4506.3319</v>
       </c>
       <c r="G24" t="n">
-        <v>-39264010.46977557</v>
+        <v>-22587843.40990427</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1335,11 +1255,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1350,38 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.409</v>
+        <v>0.4114</v>
       </c>
       <c r="C25" t="n">
-        <v>0.409</v>
+        <v>0.4097</v>
       </c>
       <c r="D25" t="n">
-        <v>0.409</v>
+        <v>0.4114</v>
       </c>
       <c r="E25" t="n">
-        <v>0.409</v>
+        <v>0.4097</v>
       </c>
       <c r="F25" t="n">
-        <v>1497.003</v>
+        <v>95513.273</v>
       </c>
       <c r="G25" t="n">
-        <v>-39264010.46977557</v>
+        <v>-22587843.40990427</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0.409</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1392,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.409</v>
+        <v>0.4114</v>
       </c>
       <c r="C26" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="D26" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="E26" t="n">
-        <v>0.409</v>
+        <v>0.4114</v>
       </c>
       <c r="F26" t="n">
-        <v>7275709.09327129</v>
+        <v>230854.9724</v>
       </c>
       <c r="G26" t="n">
-        <v>-31988301.37650428</v>
+        <v>-22356988.43750427</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1417,11 +1327,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1432,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="C27" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="D27" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="E27" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="F27" t="n">
-        <v>3666000</v>
+        <v>10535.9353</v>
       </c>
       <c r="G27" t="n">
-        <v>-31988301.37650428</v>
+        <v>-22356988.43750427</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1457,11 +1363,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1472,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="C28" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="D28" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="E28" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="F28" t="n">
-        <v>1241000</v>
+        <v>136696.1667</v>
       </c>
       <c r="G28" t="n">
-        <v>-31988301.37650428</v>
+        <v>-22356988.43750427</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1497,11 +1399,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1512,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="C29" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="D29" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="E29" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="F29" t="n">
-        <v>2195837</v>
+        <v>7174.5284</v>
       </c>
       <c r="G29" t="n">
-        <v>-31988301.37650428</v>
+        <v>-22356988.43750427</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1537,11 +1435,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1552,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4112</v>
+        <v>0.4114</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4112</v>
+        <v>0.4114</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4112</v>
+        <v>0.4114</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4112</v>
+        <v>0.4114</v>
       </c>
       <c r="F30" t="n">
-        <v>5281.9677</v>
+        <v>161125.3376</v>
       </c>
       <c r="G30" t="n">
-        <v>-31983019.40880428</v>
+        <v>-22356988.43750427</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1577,11 +1471,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1592,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="C31" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="D31" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="E31" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="F31" t="n">
-        <v>4492000</v>
+        <v>157933.0912</v>
       </c>
       <c r="G31" t="n">
-        <v>-36475019.40880428</v>
+        <v>-22356988.43750427</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1617,11 +1507,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1632,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="C32" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="D32" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="E32" t="n">
-        <v>0.411</v>
+        <v>0.4114</v>
       </c>
       <c r="F32" t="n">
-        <v>6559000</v>
+        <v>1220</v>
       </c>
       <c r="G32" t="n">
-        <v>-36475019.40880428</v>
+        <v>-22356988.43750427</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1657,11 +1543,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1672,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.411</v>
+        <v>0.4115</v>
       </c>
       <c r="C33" t="n">
-        <v>0.411</v>
+        <v>0.4115</v>
       </c>
       <c r="D33" t="n">
-        <v>0.411</v>
+        <v>0.4115</v>
       </c>
       <c r="E33" t="n">
-        <v>0.411</v>
+        <v>0.4115</v>
       </c>
       <c r="F33" t="n">
-        <v>3151000</v>
+        <v>1300</v>
       </c>
       <c r="G33" t="n">
-        <v>-36475019.40880428</v>
+        <v>-22355688.43750427</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1697,11 +1579,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1712,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.411</v>
+        <v>0.4132</v>
       </c>
       <c r="C34" t="n">
-        <v>0.411</v>
+        <v>0.4132</v>
       </c>
       <c r="D34" t="n">
-        <v>0.411</v>
+        <v>0.4132</v>
       </c>
       <c r="E34" t="n">
-        <v>0.411</v>
+        <v>0.4132</v>
       </c>
       <c r="F34" t="n">
-        <v>3970000</v>
+        <v>1212</v>
       </c>
       <c r="G34" t="n">
-        <v>-36475019.40880428</v>
+        <v>-22354476.43750427</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1737,11 +1615,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1752,38 +1626,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.411</v>
+        <v>0.4132</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4114</v>
+        <v>0.4132</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4114</v>
+        <v>0.4132</v>
       </c>
       <c r="E35" t="n">
-        <v>0.411</v>
+        <v>0.4132</v>
       </c>
       <c r="F35" t="n">
-        <v>9742362.9735</v>
+        <v>1212.6595</v>
       </c>
       <c r="G35" t="n">
-        <v>-26732656.43530428</v>
+        <v>-22354476.43750427</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1794,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="C36" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="D36" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="E36" t="n">
-        <v>0.411</v>
+        <v>0.412</v>
       </c>
       <c r="F36" t="n">
-        <v>98698</v>
+        <v>1500</v>
       </c>
       <c r="G36" t="n">
-        <v>-26831354.43530428</v>
+        <v>-22355976.43750427</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1819,11 +1687,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1834,38 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4114</v>
+        <v>0.4115</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4114</v>
+        <v>0.4115</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4114</v>
+        <v>0.4115</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4114</v>
+        <v>0.4115</v>
       </c>
       <c r="F37" t="n">
-        <v>3299</v>
+        <v>79341.93919999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-26828055.43530428</v>
+        <v>-22435318.37670427</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1876,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.411</v>
+        <v>0.4131</v>
       </c>
       <c r="C38" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="D38" t="n">
-        <v>0.411</v>
+        <v>0.4131</v>
       </c>
       <c r="E38" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="F38" t="n">
-        <v>2008321.9999</v>
+        <v>8379289.9406</v>
       </c>
       <c r="G38" t="n">
-        <v>-28836377.43520428</v>
+        <v>-30814608.31730427</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1901,11 +1759,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1916,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="C39" t="n">
-        <v>0.411</v>
+        <v>0.41</v>
       </c>
       <c r="D39" t="n">
-        <v>0.411</v>
+        <v>0.4129</v>
       </c>
       <c r="E39" t="n">
-        <v>0.411</v>
+        <v>0.4099</v>
       </c>
       <c r="F39" t="n">
-        <v>1392940.4488</v>
+        <v>10669773.7646</v>
       </c>
       <c r="G39" t="n">
-        <v>-28836377.43520428</v>
+        <v>-30814608.31730427</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1941,11 +1795,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1956,38 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.411</v>
+        <v>0.4109</v>
       </c>
       <c r="C40" t="n">
-        <v>0.411</v>
+        <v>0.4109</v>
       </c>
       <c r="D40" t="n">
-        <v>0.411</v>
+        <v>0.4109</v>
       </c>
       <c r="E40" t="n">
-        <v>0.411</v>
+        <v>0.4109</v>
       </c>
       <c r="F40" t="n">
-        <v>4161883.4175</v>
+        <v>81337.3846</v>
       </c>
       <c r="G40" t="n">
-        <v>-28836377.43520428</v>
+        <v>-30733270.93270427</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1998,38 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4114</v>
+        <v>0.4112</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4114</v>
+        <v>0.4112</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4114</v>
+        <v>0.4112</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4114</v>
+        <v>0.4112</v>
       </c>
       <c r="F41" t="n">
-        <v>1219.164</v>
+        <v>1500</v>
       </c>
       <c r="G41" t="n">
-        <v>-28835158.27120428</v>
+        <v>-30731770.93270427</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2040,38 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="C42" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="D42" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="E42" t="n">
-        <v>0.411</v>
+        <v>0.4117</v>
       </c>
       <c r="F42" t="n">
-        <v>2.871e-05</v>
+        <v>1500</v>
       </c>
       <c r="G42" t="n">
-        <v>-28835158.27123299</v>
+        <v>-30730270.93270427</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.4114</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2082,38 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4095</v>
+        <v>0.4117</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4095</v>
+        <v>0.4117</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4095</v>
+        <v>0.4117</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4095</v>
+        <v>0.4117</v>
       </c>
       <c r="F43" t="n">
-        <v>167548.3463</v>
+        <v>110000000</v>
       </c>
       <c r="G43" t="n">
-        <v>-29002706.61753299</v>
+        <v>-30730270.93270427</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2124,38 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4093</v>
+        <v>0.4117</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4093</v>
+        <v>0.4117</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4093</v>
+        <v>0.4117</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4093</v>
+        <v>0.4117</v>
       </c>
       <c r="F44" t="n">
-        <v>311329.2921</v>
+        <v>687500000</v>
       </c>
       <c r="G44" t="n">
-        <v>-29314035.90963299</v>
+        <v>-30730270.93270427</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0.4095</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2166,38 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4114</v>
+        <v>0.4102</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4114</v>
+        <v>0.4102</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4114</v>
+        <v>0.4102</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4114</v>
+        <v>0.4102</v>
       </c>
       <c r="F45" t="n">
-        <v>234309.67428293</v>
+        <v>150000</v>
       </c>
       <c r="G45" t="n">
-        <v>-29079726.23535006</v>
+        <v>-30880270.93270427</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0.4093</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2208,38 +2022,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4114</v>
+        <v>0.4102</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4114</v>
+        <v>0.4102</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4114</v>
+        <v>0.4102</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4114</v>
+        <v>0.4102</v>
       </c>
       <c r="F46" t="n">
-        <v>431662.9037</v>
+        <v>20373</v>
       </c>
       <c r="G46" t="n">
-        <v>-29079726.23535006</v>
+        <v>-30880270.93270427</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0.4114</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2250,38 +2058,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4114</v>
+        <v>0.4102</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4116</v>
+        <v>0.4124</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4116</v>
+        <v>0.4124</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4114</v>
+        <v>0.4102</v>
       </c>
       <c r="F47" t="n">
-        <v>106314.9588</v>
+        <v>1857673.8937</v>
       </c>
       <c r="G47" t="n">
-        <v>-28973411.27655006</v>
+        <v>-29022597.03900427</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0.4114</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2292,38 +2094,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4116</v>
+        <v>0.4124</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4116</v>
+        <v>0.4124</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="F48" t="n">
-        <v>121212</v>
+        <v>3624.9355</v>
       </c>
       <c r="G48" t="n">
-        <v>-28973411.27655006</v>
+        <v>-29026221.97450427</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0.4116</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2334,38 +2130,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4116</v>
+        <v>0.4127</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4116</v>
+        <v>0.4127</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4116</v>
+        <v>0.4127</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4116</v>
+        <v>0.4127</v>
       </c>
       <c r="F49" t="n">
-        <v>1265124.6267</v>
+        <v>2150763.4838</v>
       </c>
       <c r="G49" t="n">
-        <v>-28973411.27655006</v>
+        <v>-26875458.49070427</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0.4116</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2376,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4116</v>
+        <v>0.4126</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4116</v>
+        <v>0.4126</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4116</v>
+        <v>0.4126</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4116</v>
+        <v>0.4126</v>
       </c>
       <c r="F50" t="n">
-        <v>1263271.8523</v>
+        <v>594218.7913</v>
       </c>
       <c r="G50" t="n">
-        <v>-28973411.27655006</v>
+        <v>-27469677.28200427</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2401,11 +2191,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2416,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4116</v>
+        <v>0.4125</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4116</v>
+        <v>0.4125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4116</v>
+        <v>0.4125</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4116</v>
+        <v>0.4125</v>
       </c>
       <c r="F51" t="n">
-        <v>1.707e-05</v>
+        <v>8799.697700000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-28973411.27655006</v>
+        <v>-27478476.97970427</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2441,11 +2227,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2456,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4116</v>
+        <v>0.4125</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4116</v>
+        <v>0.4125</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4116</v>
+        <v>0.4125</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4116</v>
+        <v>0.4125</v>
       </c>
       <c r="F52" t="n">
-        <v>2450830.07208293</v>
+        <v>1447405.2928</v>
       </c>
       <c r="G52" t="n">
-        <v>-28973411.27655006</v>
+        <v>-27478476.97970427</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2481,11 +2263,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2496,38 +2274,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="F53" t="n">
-        <v>1.707e-05</v>
+        <v>3269.379</v>
       </c>
       <c r="G53" t="n">
-        <v>-28973411.27655006</v>
+        <v>-27481746.35870427</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0.4116</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2538,38 +2310,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4116</v>
+        <v>0.4122</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4116</v>
+        <v>0.4122</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="F54" t="n">
-        <v>1166698.8435</v>
+        <v>4642960.72774818</v>
       </c>
       <c r="G54" t="n">
-        <v>-28973411.27655006</v>
+        <v>-27481746.35870427</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0.4116</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2580,38 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4116</v>
+        <v>0.4098</v>
       </c>
       <c r="F55" t="n">
-        <v>7268.03008293</v>
+        <v>192537.6283</v>
       </c>
       <c r="G55" t="n">
-        <v>-28973411.27655006</v>
+        <v>-27481746.35870427</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0.4116</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2622,38 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4107</v>
+        <v>0.4098</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4107</v>
+        <v>0.4098</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4107</v>
+        <v>0.4098</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4107</v>
+        <v>0.4098</v>
       </c>
       <c r="F56" t="n">
-        <v>10720.2835</v>
+        <v>800818.2812</v>
       </c>
       <c r="G56" t="n">
-        <v>-28984131.56005006</v>
+        <v>-27481746.35870427</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0.4116</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2664,38 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4125</v>
+        <v>0.4098</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4125</v>
+        <v>0.4098</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4125</v>
+        <v>0.4098</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4125</v>
+        <v>0.4098</v>
       </c>
       <c r="F57" t="n">
-        <v>30000</v>
+        <v>166601.425</v>
       </c>
       <c r="G57" t="n">
-        <v>-28954131.56005006</v>
+        <v>-27481746.35870427</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0.4107</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2706,38 +2454,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.411</v>
+        <v>0.4098</v>
       </c>
       <c r="C58" t="n">
-        <v>0.411</v>
+        <v>0.4098</v>
       </c>
       <c r="D58" t="n">
-        <v>0.411</v>
+        <v>0.4098</v>
       </c>
       <c r="E58" t="n">
-        <v>0.411</v>
+        <v>0.4098</v>
       </c>
       <c r="F58" t="n">
-        <v>283653.6744</v>
+        <v>5404553.396</v>
       </c>
       <c r="G58" t="n">
-        <v>-29237785.23445006</v>
+        <v>-27481746.35870427</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0.4125</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2748,38 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4125</v>
+        <v>0.4098</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4125</v>
+        <v>0.4098</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4125</v>
+        <v>0.4098</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4125</v>
+        <v>0.4098</v>
       </c>
       <c r="F59" t="n">
-        <v>483638.4432</v>
+        <v>50614</v>
       </c>
       <c r="G59" t="n">
-        <v>-28754146.79125006</v>
+        <v>-27481746.35870427</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2790,38 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.411</v>
+        <v>0.4098</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4103</v>
+        <v>0.4098</v>
       </c>
       <c r="D60" t="n">
-        <v>0.411</v>
+        <v>0.4098</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4103</v>
+        <v>0.4098</v>
       </c>
       <c r="F60" t="n">
-        <v>4653000</v>
+        <v>2548954.1924</v>
       </c>
       <c r="G60" t="n">
-        <v>-33407146.79125006</v>
+        <v>-27481746.35870427</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0.4125</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2832,38 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.41</v>
+        <v>0.4098</v>
       </c>
       <c r="C61" t="n">
-        <v>0.41</v>
+        <v>0.4098</v>
       </c>
       <c r="D61" t="n">
-        <v>0.41</v>
+        <v>0.4098</v>
       </c>
       <c r="E61" t="n">
-        <v>0.41</v>
+        <v>0.4098</v>
       </c>
       <c r="F61" t="n">
-        <v>23525.8398</v>
+        <v>2897115.9949</v>
       </c>
       <c r="G61" t="n">
-        <v>-33430672.63105007</v>
+        <v>-27481746.35870427</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0.4103</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2874,38 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4124</v>
+        <v>0.4098</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4124</v>
+        <v>0.4118</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4124</v>
+        <v>0.4118</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4124</v>
+        <v>0.4098</v>
       </c>
       <c r="F62" t="n">
-        <v>1252.3431</v>
+        <v>5269846.9111</v>
       </c>
       <c r="G62" t="n">
-        <v>-33429420.28795006</v>
+        <v>-22211899.44760427</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0.41</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2916,38 +2634,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4125</v>
+        <v>0.4097</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4125</v>
+        <v>0.4092</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4125</v>
+        <v>0.4097</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4125</v>
+        <v>0.4089</v>
       </c>
       <c r="F63" t="n">
-        <v>6893685.4831</v>
+        <v>7592394.6075</v>
       </c>
       <c r="G63" t="n">
-        <v>-26535734.80485006</v>
+        <v>-29804294.05510427</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0.4124</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4103</v>
+        <v>0.4119</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4103</v>
+        <v>0.4119</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4103</v>
+        <v>0.4119</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4103</v>
+        <v>0.4119</v>
       </c>
       <c r="F64" t="n">
-        <v>134443.2346</v>
+        <v>2163.1539</v>
       </c>
       <c r="G64" t="n">
-        <v>-26670178.03945006</v>
+        <v>-29802130.90120427</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2983,11 +2695,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2998,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4128</v>
+        <v>0.412</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4128</v>
+        <v>0.4119</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4128</v>
+        <v>0.412</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4128</v>
+        <v>0.4119</v>
       </c>
       <c r="F65" t="n">
-        <v>1211.3381</v>
+        <v>5215592.7618</v>
       </c>
       <c r="G65" t="n">
-        <v>-26668966.70135006</v>
+        <v>-29802130.90120427</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3023,11 +2731,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3038,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4105</v>
+        <v>0.412</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4105</v>
+        <v>0.412</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4105</v>
+        <v>0.412</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4105</v>
+        <v>0.412</v>
       </c>
       <c r="F66" t="n">
-        <v>18099.5588</v>
+        <v>1271.0311</v>
       </c>
       <c r="G66" t="n">
-        <v>-26687066.26015006</v>
+        <v>-29800859.87010427</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3063,11 +2767,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3078,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4103</v>
+        <v>0.412</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4102</v>
+        <v>0.4127</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4103</v>
+        <v>0.4127</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4102</v>
+        <v>0.412</v>
       </c>
       <c r="F67" t="n">
-        <v>600000</v>
+        <v>7182188.1734</v>
       </c>
       <c r="G67" t="n">
-        <v>-27287066.26015006</v>
+        <v>-22618671.69670427</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3103,11 +2803,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3118,38 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.41</v>
+        <v>0.4119</v>
       </c>
       <c r="C68" t="n">
-        <v>0.41</v>
+        <v>0.4119</v>
       </c>
       <c r="D68" t="n">
-        <v>0.41</v>
+        <v>0.4119</v>
       </c>
       <c r="E68" t="n">
-        <v>0.41</v>
+        <v>0.4119</v>
       </c>
       <c r="F68" t="n">
-        <v>148814.9023</v>
+        <v>792889</v>
       </c>
       <c r="G68" t="n">
-        <v>-27435881.16245006</v>
+        <v>-23411560.69670427</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0.4102</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3160,38 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4101</v>
+        <v>0.4119</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4101</v>
+        <v>0.4119</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4101</v>
+        <v>0.4119</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4101</v>
+        <v>0.4119</v>
       </c>
       <c r="F69" t="n">
-        <v>221852.7946</v>
+        <v>15000</v>
       </c>
       <c r="G69" t="n">
-        <v>-27214028.36785007</v>
+        <v>-23411560.69670427</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0.41</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3202,38 +2886,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4101</v>
+        <v>0.4119</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4101</v>
+        <v>0.4119</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4101</v>
+        <v>0.4119</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4101</v>
+        <v>0.4119</v>
       </c>
       <c r="F70" t="n">
-        <v>516127.0313</v>
+        <v>3188662.1281</v>
       </c>
       <c r="G70" t="n">
-        <v>-27214028.36785007</v>
+        <v>-23411560.69670427</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0.4101</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3244,38 +2922,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4101</v>
+        <v>0.4119</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4105</v>
+        <v>0.4119</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4137</v>
+        <v>0.4119</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4101</v>
+        <v>0.4119</v>
       </c>
       <c r="F71" t="n">
-        <v>213922.92049567</v>
+        <v>2055971</v>
       </c>
       <c r="G71" t="n">
-        <v>-27000105.44735439</v>
+        <v>-23411560.69670427</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0.4101</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3286,38 +2958,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4142</v>
+        <v>0.4123</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4142</v>
+        <v>0.4123</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4142</v>
+        <v>0.4123</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4142</v>
+        <v>0.4123</v>
       </c>
       <c r="F72" t="n">
-        <v>1208</v>
+        <v>3866934.3602</v>
       </c>
       <c r="G72" t="n">
-        <v>-26998897.44735439</v>
+        <v>-19544626.33650427</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0.4105</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3328,38 +2994,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4136</v>
+        <v>0.41</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4136</v>
+        <v>0.4084</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4136</v>
+        <v>0.41</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4136</v>
+        <v>0.4084</v>
       </c>
       <c r="F73" t="n">
-        <v>10744.68085106</v>
+        <v>5824993.5197</v>
       </c>
       <c r="G73" t="n">
-        <v>-27009642.12820546</v>
+        <v>-25369619.85620427</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0.4142</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3370,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.411</v>
+        <v>0.4083</v>
       </c>
       <c r="C74" t="n">
-        <v>0.411</v>
+        <v>0.4083</v>
       </c>
       <c r="D74" t="n">
-        <v>0.411</v>
+        <v>0.4083</v>
       </c>
       <c r="E74" t="n">
-        <v>0.411</v>
+        <v>0.4083</v>
       </c>
       <c r="F74" t="n">
-        <v>2617.1272</v>
+        <v>126701.816</v>
       </c>
       <c r="G74" t="n">
-        <v>-27012259.25540546</v>
+        <v>-25496321.67220427</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3395,11 +3055,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3410,38 +3066,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4133</v>
+        <v>0.4075</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4133</v>
+        <v>0.4075</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4133</v>
+        <v>0.4075</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4133</v>
+        <v>0.4075</v>
       </c>
       <c r="F75" t="n">
-        <v>7305.9065</v>
+        <v>2000000</v>
       </c>
       <c r="G75" t="n">
-        <v>-27004953.34890546</v>
+        <v>-27496321.67220427</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3452,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4136</v>
+        <v>0.4072</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4136</v>
+        <v>0.4073</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4136</v>
+        <v>0.4073</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4136</v>
+        <v>0.4072</v>
       </c>
       <c r="F76" t="n">
-        <v>4372.4344</v>
+        <v>4876383</v>
       </c>
       <c r="G76" t="n">
-        <v>-27000580.91450546</v>
+        <v>-32372704.67220427</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3477,11 +3127,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3492,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4132</v>
+        <v>0.4104</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4132</v>
+        <v>0.4104</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4132</v>
+        <v>0.4104</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4132</v>
+        <v>0.4104</v>
       </c>
       <c r="F77" t="n">
-        <v>2167797.4714</v>
+        <v>1218.648</v>
       </c>
       <c r="G77" t="n">
-        <v>-29168378.38590546</v>
+        <v>-32371486.02420427</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -3516,14 +3162,12 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4136</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.4073</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.4073</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3534,22 +3178,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.413</v>
+        <v>0.4103</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4131</v>
+        <v>0.4103</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4131</v>
+        <v>0.4103</v>
       </c>
       <c r="E78" t="n">
-        <v>0.413</v>
+        <v>0.4103</v>
       </c>
       <c r="F78" t="n">
-        <v>10394085.7128</v>
+        <v>500000</v>
       </c>
       <c r="G78" t="n">
-        <v>-39562464.09870546</v>
+        <v>-32871486.02420427</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -3558,12 +3202,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4132</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+        <v>0.4104</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.4073</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -3576,22 +3222,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4141</v>
+        <v>0.409</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4141</v>
+        <v>0.409</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4141</v>
+        <v>0.409</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4141</v>
+        <v>0.409</v>
       </c>
       <c r="F79" t="n">
-        <v>23792.6314</v>
+        <v>32000</v>
       </c>
       <c r="G79" t="n">
-        <v>-39538671.46730546</v>
+        <v>-32903486.02420427</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
@@ -3600,12 +3246,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.4131</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+        <v>0.4103</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.4073</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M79" t="n">
@@ -3618,36 +3266,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.412</v>
+        <v>0.4104</v>
       </c>
       <c r="C80" t="n">
-        <v>0.412</v>
+        <v>0.4104</v>
       </c>
       <c r="D80" t="n">
-        <v>0.412</v>
+        <v>0.4104</v>
       </c>
       <c r="E80" t="n">
-        <v>0.412</v>
+        <v>0.4104</v>
       </c>
       <c r="F80" t="n">
-        <v>382024.3</v>
+        <v>2511846.2858</v>
       </c>
       <c r="G80" t="n">
-        <v>-39920695.76730546</v>
+        <v>-30391639.73840427</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3658,22 +3306,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4141</v>
+        <v>0.4104</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4141</v>
+        <v>0.409</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4141</v>
+        <v>0.4104</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4141</v>
+        <v>0.409</v>
       </c>
       <c r="F81" t="n">
-        <v>1234.9625</v>
+        <v>1168925.0313</v>
       </c>
       <c r="G81" t="n">
-        <v>-39919460.80480546</v>
+        <v>-31560564.76970427</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -3682,12 +3330,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+        <v>0.4104</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M81" t="n">
@@ -3700,31 +3350,35 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.412</v>
+        <v>0.4091</v>
       </c>
       <c r="C82" t="n">
-        <v>0.412</v>
+        <v>0.4091</v>
       </c>
       <c r="D82" t="n">
-        <v>0.412</v>
+        <v>0.4091</v>
       </c>
       <c r="E82" t="n">
-        <v>0.412</v>
+        <v>0.4091</v>
       </c>
       <c r="F82" t="n">
-        <v>2431.9963</v>
+        <v>747811.9999000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-39921892.80110545</v>
+        <v>-30812752.76980428</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3740,22 +3394,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.412</v>
+        <v>0.4107</v>
       </c>
       <c r="C83" t="n">
-        <v>0.412</v>
+        <v>0.4107</v>
       </c>
       <c r="D83" t="n">
-        <v>0.412</v>
+        <v>0.4107</v>
       </c>
       <c r="E83" t="n">
-        <v>0.412</v>
+        <v>0.4107</v>
       </c>
       <c r="F83" t="n">
-        <v>1051217.3361</v>
+        <v>16205.8209</v>
       </c>
       <c r="G83" t="n">
-        <v>-39921892.80110545</v>
+        <v>-30796546.94890428</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
@@ -3764,9 +3418,11 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+        <v>0.4091</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3782,22 +3438,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.412</v>
+        <v>0.4091</v>
       </c>
       <c r="C84" t="n">
-        <v>0.412</v>
+        <v>0.4091</v>
       </c>
       <c r="D84" t="n">
-        <v>0.412</v>
+        <v>0.4091</v>
       </c>
       <c r="E84" t="n">
-        <v>0.412</v>
+        <v>0.4091</v>
       </c>
       <c r="F84" t="n">
-        <v>117199.5254</v>
+        <v>1444262.3234</v>
       </c>
       <c r="G84" t="n">
-        <v>-39921892.80110545</v>
+        <v>-32240809.27230427</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -3806,9 +3462,11 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+        <v>0.4107</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3824,22 +3482,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.412</v>
+        <v>0.4092</v>
       </c>
       <c r="C85" t="n">
-        <v>0.412</v>
+        <v>0.4091</v>
       </c>
       <c r="D85" t="n">
-        <v>0.412</v>
+        <v>0.4092</v>
       </c>
       <c r="E85" t="n">
-        <v>0.412</v>
+        <v>0.4091</v>
       </c>
       <c r="F85" t="n">
-        <v>150000</v>
+        <v>97264.16620000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-39921892.80110545</v>
+        <v>-32240809.27230427</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -3848,9 +3506,11 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+        <v>0.4091</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3866,22 +3526,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4141</v>
+        <v>0.4091</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4141</v>
+        <v>0.4091</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4141</v>
+        <v>0.4091</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4141</v>
+        <v>0.4091</v>
       </c>
       <c r="F86" t="n">
-        <v>97907.0315</v>
+        <v>600524.2408</v>
       </c>
       <c r="G86" t="n">
-        <v>-39823985.76960546</v>
+        <v>-32240809.27230427</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -3890,9 +3550,11 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>0.4091</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3908,22 +3570,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4121</v>
+        <v>0.4116</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4115</v>
+        <v>0.4116</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4121</v>
+        <v>0.4116</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4115</v>
+        <v>0.4116</v>
       </c>
       <c r="F87" t="n">
-        <v>277782.1473</v>
+        <v>7169.0404</v>
       </c>
       <c r="G87" t="n">
-        <v>-40101767.91690546</v>
+        <v>-32233640.23190428</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3932,9 +3594,11 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>0.4091</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,22 +3614,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4141</v>
+        <v>0.4113</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4141</v>
+        <v>0.4113</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4141</v>
+        <v>0.4113</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4141</v>
+        <v>0.4113</v>
       </c>
       <c r="F88" t="n">
-        <v>241487.56339048</v>
+        <v>7033258.1625</v>
       </c>
       <c r="G88" t="n">
-        <v>-39860280.35351498</v>
+        <v>-39266898.39440428</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3974,7 +3638,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3990,22 +3656,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.414</v>
+        <v>0.4113</v>
       </c>
       <c r="C89" t="n">
-        <v>0.414</v>
+        <v>0.4113</v>
       </c>
       <c r="D89" t="n">
-        <v>0.414</v>
+        <v>0.4113</v>
       </c>
       <c r="E89" t="n">
-        <v>0.414</v>
+        <v>0.4113</v>
       </c>
       <c r="F89" t="n">
-        <v>1723398.1953</v>
+        <v>0.0001</v>
       </c>
       <c r="G89" t="n">
-        <v>-41583678.54881497</v>
+        <v>-39266898.39440428</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -4014,9 +3680,11 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+        <v>0.4113</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4032,22 +3700,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.414</v>
+        <v>0.4114</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4142</v>
+        <v>0.4114</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4142</v>
+        <v>0.4114</v>
       </c>
       <c r="E90" t="n">
-        <v>0.414</v>
+        <v>0.4114</v>
       </c>
       <c r="F90" t="n">
-        <v>17625084.8735</v>
+        <v>4396.0831</v>
       </c>
       <c r="G90" t="n">
-        <v>-23958593.67531497</v>
+        <v>-39262502.31130428</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4056,7 +3724,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4072,22 +3742,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4141</v>
+        <v>0.411</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4141</v>
+        <v>0.411</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4141</v>
+        <v>0.411</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4141</v>
+        <v>0.411</v>
       </c>
       <c r="F91" t="n">
-        <v>10810346.2674</v>
+        <v>19476.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-34768939.94271497</v>
+        <v>-39281978.49130428</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4096,7 +3766,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4112,22 +3784,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4142</v>
+        <v>0.409</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4142</v>
+        <v>0.409</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4142</v>
+        <v>0.409</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4142</v>
+        <v>0.409</v>
       </c>
       <c r="F92" t="n">
-        <v>335786.6464</v>
+        <v>3116.1617</v>
       </c>
       <c r="G92" t="n">
-        <v>-34433153.29631498</v>
+        <v>-39285094.65300428</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4136,7 +3808,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4152,22 +3826,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4142</v>
+        <v>0.411</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4142</v>
+        <v>0.411</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4142</v>
+        <v>0.411</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4142</v>
+        <v>0.411</v>
       </c>
       <c r="F93" t="n">
-        <v>3047821.4476</v>
+        <v>22871.04622871</v>
       </c>
       <c r="G93" t="n">
-        <v>-34433153.29631498</v>
+        <v>-39262223.60677557</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4176,7 +3850,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4192,22 +3868,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4142</v>
+        <v>0.409</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4142</v>
+        <v>0.409</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4142</v>
+        <v>0.409</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4142</v>
+        <v>0.409</v>
       </c>
       <c r="F94" t="n">
-        <v>3139684.0192</v>
+        <v>1786.863</v>
       </c>
       <c r="G94" t="n">
-        <v>-34433153.29631498</v>
+        <v>-39264010.46977557</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4216,7 +3892,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4232,22 +3910,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4144</v>
+        <v>0.409</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4172</v>
+        <v>0.409</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4172</v>
+        <v>0.409</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4144</v>
+        <v>0.409</v>
       </c>
       <c r="F95" t="n">
-        <v>22262.4241375</v>
+        <v>1825.2085</v>
       </c>
       <c r="G95" t="n">
-        <v>-34410890.87217747</v>
+        <v>-39264010.46977557</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4256,7 +3934,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4272,31 +3952,35 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4173</v>
+        <v>0.409</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4173</v>
+        <v>0.409</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4173</v>
+        <v>0.409</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4173</v>
+        <v>0.409</v>
       </c>
       <c r="F96" t="n">
-        <v>1199</v>
+        <v>1497.003</v>
       </c>
       <c r="G96" t="n">
-        <v>-34409691.87217747</v>
+        <v>-39264010.46977557</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,31 +3996,35 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4173</v>
+        <v>0.409</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4173</v>
+        <v>0.411</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4173</v>
+        <v>0.411</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4141</v>
+        <v>0.409</v>
       </c>
       <c r="F97" t="n">
-        <v>3640.2848</v>
+        <v>7275709.09327129</v>
       </c>
       <c r="G97" t="n">
-        <v>-34409691.87217747</v>
+        <v>-31988301.37650428</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4352,31 +4040,35 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4173</v>
+        <v>0.411</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4173</v>
+        <v>0.411</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4173</v>
+        <v>0.411</v>
       </c>
       <c r="E98" t="n">
-        <v>0.415</v>
+        <v>0.411</v>
       </c>
       <c r="F98" t="n">
-        <v>211136.6203</v>
+        <v>3666000</v>
       </c>
       <c r="G98" t="n">
-        <v>-34409691.87217747</v>
+        <v>-31988301.37650428</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4392,31 +4084,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4173</v>
+        <v>0.411</v>
       </c>
       <c r="C99" t="n">
-        <v>0.419</v>
+        <v>0.411</v>
       </c>
       <c r="D99" t="n">
-        <v>0.419</v>
+        <v>0.411</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4173</v>
+        <v>0.411</v>
       </c>
       <c r="F99" t="n">
-        <v>23866.34844909</v>
+        <v>1241000</v>
       </c>
       <c r="G99" t="n">
-        <v>-34385825.52372839</v>
+        <v>-31988301.37650428</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4432,31 +4128,35 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.419</v>
+        <v>0.411</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4155</v>
+        <v>0.411</v>
       </c>
       <c r="D100" t="n">
-        <v>0.419</v>
+        <v>0.411</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4155</v>
+        <v>0.411</v>
       </c>
       <c r="F100" t="n">
-        <v>2434.3676</v>
+        <v>2195837</v>
       </c>
       <c r="G100" t="n">
-        <v>-34388259.89132839</v>
+        <v>-31988301.37650428</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,31 +4172,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.4198</v>
+        <v>0.4112</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4198</v>
+        <v>0.4112</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4198</v>
+        <v>0.4112</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4198</v>
+        <v>0.4112</v>
       </c>
       <c r="F101" t="n">
-        <v>1192</v>
+        <v>5281.9677</v>
       </c>
       <c r="G101" t="n">
-        <v>-34387067.89132839</v>
+        <v>-31983019.40880428</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4512,31 +4216,35 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.4198</v>
+        <v>0.411</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4198</v>
+        <v>0.411</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4198</v>
+        <v>0.411</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4198</v>
+        <v>0.411</v>
       </c>
       <c r="F102" t="n">
-        <v>12651.3</v>
+        <v>4492000</v>
       </c>
       <c r="G102" t="n">
-        <v>-34387067.89132839</v>
+        <v>-36475019.40880428</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4552,31 +4260,35 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4199</v>
+        <v>0.411</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4199</v>
+        <v>0.411</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4199</v>
+        <v>0.411</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4199</v>
+        <v>0.411</v>
       </c>
       <c r="F103" t="n">
-        <v>1191</v>
+        <v>6559000</v>
       </c>
       <c r="G103" t="n">
-        <v>-34385876.89132839</v>
+        <v>-36475019.40880428</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4592,31 +4304,35 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.4199</v>
+        <v>0.411</v>
       </c>
       <c r="C104" t="n">
-        <v>0.421</v>
+        <v>0.411</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4211</v>
+        <v>0.411</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4199</v>
+        <v>0.411</v>
       </c>
       <c r="F104" t="n">
-        <v>1891761.0749</v>
+        <v>3151000</v>
       </c>
       <c r="G104" t="n">
-        <v>-32494115.81642839</v>
+        <v>-36475019.40880428</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,31 +4348,35 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.417</v>
+        <v>0.411</v>
       </c>
       <c r="C105" t="n">
-        <v>0.417</v>
+        <v>0.411</v>
       </c>
       <c r="D105" t="n">
-        <v>0.417</v>
+        <v>0.411</v>
       </c>
       <c r="E105" t="n">
-        <v>0.417</v>
+        <v>0.411</v>
       </c>
       <c r="F105" t="n">
-        <v>325610.6615</v>
+        <v>3970000</v>
       </c>
       <c r="G105" t="n">
-        <v>-32819726.47792839</v>
+        <v>-36475019.40880428</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4672,31 +4392,35 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.4205</v>
+        <v>0.411</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4205</v>
+        <v>0.4114</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4205</v>
+        <v>0.4114</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4205</v>
+        <v>0.411</v>
       </c>
       <c r="F106" t="n">
-        <v>77032</v>
+        <v>9742362.9735</v>
       </c>
       <c r="G106" t="n">
-        <v>-32742694.47792839</v>
+        <v>-26732656.43530428</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4712,31 +4436,35 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4167</v>
+        <v>0.411</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4167</v>
+        <v>0.411</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4204</v>
+        <v>0.411</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4167</v>
+        <v>0.411</v>
       </c>
       <c r="F107" t="n">
-        <v>262820.2589</v>
+        <v>98698</v>
       </c>
       <c r="G107" t="n">
-        <v>-33005514.73682839</v>
+        <v>-26831354.43530428</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4752,31 +4480,35 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.4167</v>
+        <v>0.4114</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4203</v>
+        <v>0.4114</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4204</v>
+        <v>0.4114</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4155</v>
+        <v>0.4114</v>
       </c>
       <c r="F108" t="n">
-        <v>10125947.4528</v>
+        <v>3299</v>
       </c>
       <c r="G108" t="n">
-        <v>-22879567.28402839</v>
+        <v>-26828055.43530428</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4792,31 +4524,35 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4203</v>
+        <v>0.411</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4203</v>
+        <v>0.411</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4203</v>
+        <v>0.411</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4203</v>
+        <v>0.411</v>
       </c>
       <c r="F109" t="n">
-        <v>97619</v>
+        <v>2008321.9999</v>
       </c>
       <c r="G109" t="n">
-        <v>-22879567.28402839</v>
+        <v>-28836377.43520428</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4832,31 +4568,35 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.416</v>
+        <v>0.411</v>
       </c>
       <c r="C110" t="n">
-        <v>0.416</v>
+        <v>0.411</v>
       </c>
       <c r="D110" t="n">
-        <v>0.416</v>
+        <v>0.411</v>
       </c>
       <c r="E110" t="n">
-        <v>0.416</v>
+        <v>0.411</v>
       </c>
       <c r="F110" t="n">
-        <v>1536000</v>
+        <v>1392940.4488</v>
       </c>
       <c r="G110" t="n">
-        <v>-24415567.28402839</v>
+        <v>-28836377.43520428</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4872,31 +4612,35 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.4203</v>
+        <v>0.411</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4203</v>
+        <v>0.411</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4203</v>
+        <v>0.411</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4203</v>
+        <v>0.411</v>
       </c>
       <c r="F111" t="n">
-        <v>47585.0583</v>
+        <v>4161883.4175</v>
       </c>
       <c r="G111" t="n">
-        <v>-24367982.22572839</v>
+        <v>-28836377.43520428</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4912,37 +4656,43 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.4203</v>
+        <v>0.4114</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4203</v>
+        <v>0.4114</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4203</v>
+        <v>0.4114</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4203</v>
+        <v>0.4114</v>
       </c>
       <c r="F112" t="n">
-        <v>6712.0801</v>
+        <v>1219.164</v>
       </c>
       <c r="G112" t="n">
-        <v>-24367982.22572839</v>
+        <v>-28835158.27120428</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.409</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
       <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
@@ -4950,32 +4700,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.4203</v>
+        <v>0.411</v>
       </c>
       <c r="C113" t="n">
-        <v>0.416</v>
+        <v>0.411</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4203</v>
+        <v>0.411</v>
       </c>
       <c r="E113" t="n">
-        <v>0.416</v>
+        <v>0.411</v>
       </c>
       <c r="F113" t="n">
-        <v>2426.838</v>
+        <v>2.871e-05</v>
       </c>
       <c r="G113" t="n">
-        <v>-24370409.06372839</v>
+        <v>-28835158.27123299</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4986,32 +4744,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.416</v>
+        <v>0.4095</v>
       </c>
       <c r="C114" t="n">
-        <v>0.416</v>
+        <v>0.4095</v>
       </c>
       <c r="D114" t="n">
-        <v>0.416</v>
+        <v>0.4095</v>
       </c>
       <c r="E114" t="n">
-        <v>0.416</v>
+        <v>0.4095</v>
       </c>
       <c r="F114" t="n">
-        <v>1049135.5656</v>
+        <v>167548.3463</v>
       </c>
       <c r="G114" t="n">
-        <v>-24370409.06372839</v>
+        <v>-29002706.61753299</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5022,32 +4788,40 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.4203</v>
+        <v>0.4093</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4203</v>
+        <v>0.4093</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4203</v>
+        <v>0.4093</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4203</v>
+        <v>0.4093</v>
       </c>
       <c r="F115" t="n">
-        <v>80000</v>
+        <v>311329.2921</v>
       </c>
       <c r="G115" t="n">
-        <v>-24290409.06372839</v>
+        <v>-29314035.90963299</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5058,36 +4832,2988 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="F116" t="n">
+        <v>234309.67428293</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-29079726.23535006</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.4093</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="F117" t="n">
+        <v>431662.9037</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-29079726.23535006</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="F118" t="n">
+        <v>106314.9588</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F119" t="n">
+        <v>121212</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1265124.6267</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1263271.8523</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.707e-05</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2450830.07208293</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.707e-05</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1166698.8435</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7268.03008293</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10720.2835</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-28984131.56005006</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="F128" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-28954131.56005006</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F129" t="n">
+        <v>283653.6744</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-29237785.23445006</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="F130" t="n">
+        <v>483638.4432</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-28754146.79125006</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4653000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-33407146.79125006</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F132" t="n">
+        <v>23525.8398</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-33430672.63105007</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1252.3431</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-33429420.28795006</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="F134" t="n">
+        <v>6893685.4831</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-26535734.80485006</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="F135" t="n">
+        <v>134443.2346</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-26670178.03945006</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1211.3381</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-26668966.70135006</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="F137" t="n">
+        <v>18099.5588</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-26687066.26015006</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.4102</v>
+      </c>
+      <c r="F138" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-27287066.26015006</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F139" t="n">
+        <v>148814.9023</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-27435881.16245006</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="F140" t="n">
+        <v>221852.7946</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-27214028.36785007</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="F141" t="n">
+        <v>516127.0313</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-27214028.36785007</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.4137</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="F142" t="n">
+        <v>213922.92049567</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-27000105.44735439</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.4101</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1208</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-26998897.44735439</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="F144" t="n">
+        <v>10744.68085106</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-27009642.12820546</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2617.1272</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-27012259.25540546</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.4133</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.4133</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.4133</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.4133</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7305.9065</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-27004953.34890546</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="F147" t="n">
+        <v>4372.4344</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-27000580.91450546</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.4132</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.4132</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.4132</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.4132</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2167797.4714</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-29168378.38590546</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.4131</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.4131</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F149" t="n">
+        <v>10394085.7128</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-39562464.09870546</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="F150" t="n">
+        <v>23792.6314</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-39538671.46730546</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F151" t="n">
+        <v>382024.3</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-39920695.76730546</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1234.9625</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-39919460.80480546</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2431.9963</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-39921892.80110545</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1051217.3361</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-39921892.80110545</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F155" t="n">
+        <v>117199.5254</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-39921892.80110545</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F156" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-39921892.80110545</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="F157" t="n">
+        <v>97907.0315</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-39823985.76960546</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.4121</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.4115</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.4121</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.4115</v>
+      </c>
+      <c r="F158" t="n">
+        <v>277782.1473</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-40101767.91690546</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="F159" t="n">
+        <v>241487.56339048</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-39860280.35351498</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1723398.1953</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-41583678.54881497</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="F161" t="n">
+        <v>17625084.8735</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-23958593.67531497</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10810346.2674</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-34768939.94271497</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="F163" t="n">
+        <v>335786.6464</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-34433153.29631498</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3047821.4476</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-34433153.29631498</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.4142</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3139684.0192</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-34433153.29631498</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.4144</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.4172</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.4172</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.4144</v>
+      </c>
+      <c r="F166" t="n">
+        <v>22262.4241375</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-34410890.87217747</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1199</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-34409691.87217747</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3640.2848</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-34409691.87217747</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F169" t="n">
+        <v>211136.6203</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-34409691.87217747</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.4173</v>
+      </c>
+      <c r="F170" t="n">
+        <v>23866.34844909</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-34385825.52372839</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.4155</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.4155</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2434.3676</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-34388259.89132839</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1192</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-34387067.89132839</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.4198</v>
+      </c>
+      <c r="F173" t="n">
+        <v>12651.3</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-34387067.89132839</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1.02140586797066</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1191</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-34385876.89132839</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.4211</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.4199</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1891761.0749</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-32494115.81642839</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="F176" t="n">
+        <v>325610.6615</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-32819726.47792839</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.4205</v>
+      </c>
+      <c r="F177" t="n">
+        <v>77032</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-32742694.47792839</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.4204</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="F178" t="n">
+        <v>262820.2589</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-33005514.73682839</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.4204</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.4155</v>
+      </c>
+      <c r="F179" t="n">
+        <v>10125947.4528</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-22879567.28402839</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="F180" t="n">
+        <v>97619</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-22879567.28402839</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1536000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-24415567.28402839</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="F182" t="n">
+        <v>47585.0583</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-24367982.22572839</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="F183" t="n">
+        <v>6712.0801</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-24367982.22572839</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2426.838</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-24370409.06372839</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1049135.5656</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-24370409.06372839</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.4203</v>
+      </c>
+      <c r="F186" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-24290409.06372839</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
         <v>0.4202</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C187" t="n">
         <v>0.4202</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D187" t="n">
         <v>0.4202</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E187" t="n">
         <v>0.4202</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F187" t="n">
         <v>1600000</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G187" t="n">
         <v>-25890409.06372839</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest BTT.xlsx
+++ b/BackTest/2020-01-22 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,19 @@
         <v>-27481746.35870427</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4098</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2435,23 @@
         <v>-22211899.44760427</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2478,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2517,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2556,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2595,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2634,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2673,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2712,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2751,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2790,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2829,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2868,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2907,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2946,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2983,23 @@
         <v>-32372704.67220427</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>0.4075</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,22 +3024,23 @@
         <v>-32371486.02420427</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.4073</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4073</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.4073</v>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3196,26 +3065,23 @@
         <v>-32871486.02420427</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>0.4104</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4104</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.4073</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3240,26 +3106,21 @@
         <v>-32903486.02420427</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>0.4103</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.4073</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3284,22 +3145,23 @@
         <v>-30391639.73840427</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="J80" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3324,26 +3186,23 @@
         <v>-31560564.76970427</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.4104</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4104</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3368,26 +3227,23 @@
         <v>-30812752.76980428</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.409</v>
       </c>
       <c r="J82" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3412,26 +3268,23 @@
         <v>-30796546.94890428</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>0.4091</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3456,26 +3309,23 @@
         <v>-32240809.27230427</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>0.4107</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3500,26 +3350,21 @@
         <v>-32240809.27230427</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3544,26 +3389,23 @@
         <v>-32240809.27230427</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.4091</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3588,26 +3430,21 @@
         <v>-32233640.23190428</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3634,22 +3471,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3674,26 +3508,21 @@
         <v>-39266898.39440428</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>0.4113</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3720,22 +3549,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3762,22 +3588,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3804,22 +3627,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3846,22 +3666,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3886,24 +3703,23 @@
         <v>-39264010.46977557</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>0.411</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3930,22 +3746,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3970,26 +3783,21 @@
         <v>-39264010.46977557</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4014,26 +3822,21 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4058,26 +3861,21 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4102,26 +3900,21 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4146,26 +3939,23 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="J100" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4190,26 +3980,21 @@
         <v>-31983019.40880428</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4234,26 +4019,21 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4278,26 +4058,21 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4322,26 +4097,23 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="J104" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4366,26 +4138,21 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4412,24 +4179,19 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4454,26 +4216,21 @@
         <v>-26831354.43530428</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4498,26 +4255,21 @@
         <v>-26828055.43530428</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4542,26 +4294,23 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>0.4114</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4586,26 +4335,23 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="J110" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4630,26 +4376,23 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="J111" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4674,26 +4417,23 @@
         <v>-28835158.27120428</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="J112" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4718,26 +4458,23 @@
         <v>-28835158.27123299</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>0.4114</v>
       </c>
       <c r="J113" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4762,26 +4499,23 @@
         <v>-29002706.61753299</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="J114" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4806,26 +4540,21 @@
         <v>-29314035.90963299</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4850,26 +4579,21 @@
         <v>-29079726.23535006</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>0.4093</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4894,26 +4618,21 @@
         <v>-29079726.23535006</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4940,22 +4659,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4980,26 +4696,21 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5024,24 +4735,21 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5066,26 +4774,23 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>0.4116</v>
       </c>
       <c r="J121" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5110,26 +4815,23 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>0.4116</v>
       </c>
       <c r="J122" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5154,26 +4856,23 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>0.4116</v>
       </c>
       <c r="J123" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5198,26 +4897,23 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>0.4116</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5242,26 +4938,21 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5286,26 +4977,23 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>0.4116</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5330,26 +5018,23 @@
         <v>-28984131.56005006</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>0.4116</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5374,26 +5059,23 @@
         <v>-28954131.56005006</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>0.4107</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5418,26 +5100,23 @@
         <v>-29237785.23445006</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5462,26 +5141,23 @@
         <v>-28754146.79125006</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="J130" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5506,26 +5182,23 @@
         <v>-33407146.79125006</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="J131" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5550,26 +5223,23 @@
         <v>-33430672.63105007</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>0.4103</v>
       </c>
       <c r="J132" t="n">
-        <v>0.4103</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5594,26 +5264,23 @@
         <v>-33429420.28795006</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J133" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5638,26 +5305,23 @@
         <v>-26535734.80485006</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>0.4124</v>
       </c>
       <c r="J134" t="n">
-        <v>0.4124</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5682,26 +5346,23 @@
         <v>-26670178.03945006</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="J135" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5726,26 +5387,23 @@
         <v>-26668966.70135006</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>0.4103</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4103</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5770,24 +5428,23 @@
         <v>-26687066.26015006</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0.4128</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5812,24 +5469,23 @@
         <v>-27287066.26015006</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>0.4105</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5854,24 +5510,23 @@
         <v>-27435881.16245006</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>0.4102</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5896,26 +5551,23 @@
         <v>-27214028.36785007</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="J140" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5940,26 +5592,23 @@
         <v>-27214028.36785007</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>0.4101</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4101</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5984,26 +5633,23 @@
         <v>-27000105.44735439</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>0.4101</v>
       </c>
       <c r="J142" t="n">
-        <v>0.4101</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6028,26 +5674,23 @@
         <v>-26998897.44735439</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>0.4105</v>
       </c>
       <c r="J143" t="n">
-        <v>0.4105</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6072,24 +5715,21 @@
         <v>-27009642.12820546</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6114,24 +5754,21 @@
         <v>-27012259.25540546</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6156,26 +5793,23 @@
         <v>-27004953.34890546</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="J146" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>0.4098</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6200,24 +5834,21 @@
         <v>-27000580.91450546</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6242,24 +5873,21 @@
         <v>-29168378.38590546</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6284,24 +5912,21 @@
         <v>-39562464.09870546</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6326,24 +5951,23 @@
         <v>-39538671.46730546</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>0.4131</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6368,24 +5992,21 @@
         <v>-39920695.76730546</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6410,24 +6031,23 @@
         <v>-39919460.80480546</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>0.412</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6452,24 +6072,23 @@
         <v>-39921892.80110545</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>0.4141</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6494,24 +6113,23 @@
         <v>-39921892.80110545</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>0.412</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6536,24 +6154,23 @@
         <v>-39921892.80110545</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>0.412</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6578,24 +6195,23 @@
         <v>-39921892.80110545</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>0.412</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6620,24 +6236,23 @@
         <v>-39823985.76960546</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>0.412</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6662,24 +6277,23 @@
         <v>-40101767.91690546</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>0.4141</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6706,22 +6320,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6748,22 +6359,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6790,22 +6398,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6832,22 +6437,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6874,22 +6476,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6916,22 +6515,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6958,22 +6554,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7000,22 +6593,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7042,22 +6632,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7084,22 +6671,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7124,24 +6708,21 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0.4098</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1.013301610541728</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7168,22 +6749,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7210,22 +6782,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7252,22 +6815,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7294,22 +6848,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1.02140586797066</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7336,16 +6881,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7370,18 +6912,15 @@
         <v>-32494115.81642839</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7406,18 +6945,15 @@
         <v>-32819726.47792839</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7442,18 +6978,15 @@
         <v>-32742694.47792839</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7478,18 +7011,15 @@
         <v>-33005514.73682839</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7514,18 +7044,15 @@
         <v>-22879567.28402839</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7550,18 +7077,15 @@
         <v>-22879567.28402839</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7586,18 +7110,15 @@
         <v>-24415567.28402839</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7624,16 +7145,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7658,18 +7176,15 @@
         <v>-24367982.22572839</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7696,16 +7211,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7732,16 +7244,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7768,16 +7277,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7804,18 +7310,15 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest BTT.xlsx
+++ b/BackTest/2020-01-22 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-14354877.58040426</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-14356127.58040426</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-14359194.22170426</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-14357956.12180426</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-14957956.12180426</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -2398,14 +2398,10 @@
         <v>-27481746.35870427</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.4098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2435,19 +2431,11 @@
         <v>-22211899.44760427</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2479,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2518,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2557,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2596,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2635,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2674,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2713,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2752,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2791,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2830,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2869,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2908,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2947,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2983,19 +2893,11 @@
         <v>-32372704.67220427</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.4075</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3024,19 +2926,15 @@
         <v>-32371486.02420427</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0.4073</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.4073</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3065,17 +2963,17 @@
         <v>-32871486.02420427</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0.4104</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4098</v>
+        <v>0.4073</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3106,15 +3004,17 @@
         <v>-32903486.02420427</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.4103</v>
+      </c>
       <c r="J79" t="n">
-        <v>0.4098</v>
+        <v>0.4073</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3145,19 +3045,15 @@
         <v>-30391639.73840427</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0.409</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4098</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.409</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3186,17 +3082,17 @@
         <v>-31560564.76970427</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0.4104</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3227,13 +3123,13 @@
         <v>-30812752.76980428</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0.409</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3268,13 +3164,13 @@
         <v>-30796546.94890428</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0.4091</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3309,13 +3205,13 @@
         <v>-32240809.27230427</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0.4107</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3350,11 +3246,13 @@
         <v>-32240809.27230427</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.4091</v>
+      </c>
       <c r="J85" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3389,13 +3287,13 @@
         <v>-32240809.27230427</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0.4091</v>
       </c>
       <c r="J86" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3430,11 +3328,13 @@
         <v>-32233640.23190428</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.4091</v>
+      </c>
       <c r="J87" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3473,7 +3373,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3512,7 +3412,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3551,7 +3451,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3586,11 +3486,13 @@
         <v>-39281978.49130428</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="J91" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3629,7 +3531,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3664,11 +3566,13 @@
         <v>-39262223.60677557</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.409</v>
+      </c>
       <c r="J93" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3703,13 +3607,11 @@
         <v>-39264010.46977557</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3744,11 +3646,13 @@
         <v>-39264010.46977557</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.409</v>
+      </c>
       <c r="J95" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3787,7 +3691,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3826,7 +3730,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3861,11 +3765,13 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J98" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3900,11 +3806,13 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J99" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3939,13 +3847,13 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0.411</v>
       </c>
       <c r="J100" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3980,11 +3888,13 @@
         <v>-31983019.40880428</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J101" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4019,11 +3929,13 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.4112</v>
+      </c>
       <c r="J102" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4058,11 +3970,13 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J103" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4097,13 +4011,13 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0.411</v>
       </c>
       <c r="J104" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4138,11 +4052,13 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J105" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4179,9 +4095,11 @@
       <c r="H106" t="n">
         <v>1</v>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J106" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4216,11 +4134,13 @@
         <v>-26831354.43530428</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="J107" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4255,11 +4175,13 @@
         <v>-26828055.43530428</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J108" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4294,13 +4216,13 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0.4114</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4335,13 +4257,13 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0.411</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4376,13 +4298,13 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0.411</v>
       </c>
       <c r="J111" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4417,13 +4339,13 @@
         <v>-28835158.27120428</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0.411</v>
       </c>
       <c r="J112" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4458,13 +4380,11 @@
         <v>-28835158.27123299</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.4114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4499,13 +4419,11 @@
         <v>-29002706.61753299</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4544,7 +4462,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4579,11 +4497,13 @@
         <v>-29079726.23535006</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.4093</v>
+      </c>
       <c r="J116" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4618,11 +4538,13 @@
         <v>-29079726.23535006</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="J117" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4657,11 +4579,13 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="J118" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4696,11 +4620,13 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="J119" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4735,11 +4661,11 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4774,13 +4700,11 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4815,13 +4739,11 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4856,13 +4778,11 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4897,13 +4817,13 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0.4116</v>
       </c>
       <c r="J124" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4942,7 +4862,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4977,13 +4897,13 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0.4116</v>
       </c>
       <c r="J126" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5018,13 +4938,13 @@
         <v>-28984131.56005006</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0.4116</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5059,13 +4979,13 @@
         <v>-28954131.56005006</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0.4107</v>
       </c>
       <c r="J128" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5100,13 +5020,13 @@
         <v>-29237785.23445006</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0.4125</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5141,13 +5061,11 @@
         <v>-28754146.79125006</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5182,13 +5100,11 @@
         <v>-33407146.79125006</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.4125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5223,13 +5139,11 @@
         <v>-33430672.63105007</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.4103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5264,13 +5178,13 @@
         <v>-33429420.28795006</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0.41</v>
       </c>
       <c r="J133" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5305,13 +5219,11 @@
         <v>-26535734.80485006</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.4124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5346,13 +5258,11 @@
         <v>-26670178.03945006</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.4125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5387,13 +5297,11 @@
         <v>-26668966.70135006</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.4103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5428,13 +5336,11 @@
         <v>-26687066.26015006</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.4128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5469,13 +5375,11 @@
         <v>-27287066.26015006</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.4105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5510,13 +5414,13 @@
         <v>-27435881.16245006</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0.4102</v>
       </c>
       <c r="J139" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5551,13 +5455,13 @@
         <v>-27214028.36785007</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0.41</v>
       </c>
       <c r="J140" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5592,13 +5496,13 @@
         <v>-27214028.36785007</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0.4101</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5633,13 +5537,13 @@
         <v>-27000105.44735439</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0.4101</v>
       </c>
       <c r="J142" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5674,13 +5578,13 @@
         <v>-26998897.44735439</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0.4105</v>
       </c>
       <c r="J143" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5715,11 +5619,11 @@
         <v>-27009642.12820546</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5754,11 +5658,11 @@
         <v>-27012259.25540546</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5793,13 +5697,11 @@
         <v>-27004953.34890546</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5834,11 +5736,11 @@
         <v>-27000580.91450546</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5873,11 +5775,11 @@
         <v>-29168378.38590546</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5912,11 +5814,11 @@
         <v>-39562464.09870546</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5951,13 +5853,11 @@
         <v>-39538671.46730546</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.4131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5992,11 +5892,11 @@
         <v>-39920695.76730546</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6031,13 +5931,13 @@
         <v>-39919460.80480546</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0.412</v>
       </c>
       <c r="J152" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6072,13 +5972,11 @@
         <v>-39921892.80110545</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.4141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6113,13 +6011,11 @@
         <v>-39921892.80110545</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6154,13 +6050,13 @@
         <v>-39921892.80110545</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0.412</v>
       </c>
       <c r="J155" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6195,13 +6091,13 @@
         <v>-39921892.80110545</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0.412</v>
       </c>
       <c r="J156" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6236,13 +6132,13 @@
         <v>-39823985.76960546</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0.412</v>
       </c>
       <c r="J157" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6277,13 +6173,13 @@
         <v>-40101767.91690546</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0.4141</v>
       </c>
       <c r="J158" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6318,11 +6214,13 @@
         <v>-39860280.35351498</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.4115</v>
+      </c>
       <c r="J159" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6361,7 +6259,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6400,7 +6298,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6439,7 +6337,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6478,7 +6376,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6517,7 +6415,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6556,7 +6454,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6595,7 +6493,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6634,7 +6532,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6673,7 +6571,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6708,19 +6606,19 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>0.4098</v>
+        <v>0.409</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.013301610541728</v>
+        <v>1</v>
       </c>
       <c r="M169" t="inlineStr"/>
     </row>
@@ -6750,8 +6648,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6783,8 +6687,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6816,8 +6726,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6849,8 +6765,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6882,8 +6804,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6912,11 +6840,17 @@
         <v>-32494115.81642839</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6945,11 +6879,17 @@
         <v>-32819726.47792839</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6978,11 +6918,17 @@
         <v>-32742694.47792839</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7011,11 +6957,17 @@
         <v>-33005514.73682839</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7044,11 +6996,17 @@
         <v>-22879567.28402839</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7077,11 +7035,17 @@
         <v>-22879567.28402839</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7110,11 +7074,17 @@
         <v>-24415567.28402839</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7146,8 +7116,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7176,11 +7152,17 @@
         <v>-24367982.22572839</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7209,13 +7191,19 @@
         <v>-24370409.06372839</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L184" t="n">
-        <v>1</v>
+        <v>1.012114914425428</v>
       </c>
       <c r="M184" t="inlineStr"/>
     </row>
@@ -7308,7 +7296,7 @@
         <v>-25890409.06372839</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7319,6 +7307,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest BTT.xlsx
+++ b/BackTest/2020-01-22 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-14354877.58040426</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-14356127.58040426</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-14359194.22170426</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-14357956.12180426</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-14957956.12180426</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -2926,14 +2926,10 @@
         <v>-32371486.02420427</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.4073</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.4073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -2963,19 +2959,11 @@
         <v>-32871486.02420427</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.4104</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.4073</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3004,19 +2992,11 @@
         <v>-32903486.02420427</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.4103</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.4073</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3045,14 +3025,10 @@
         <v>-30391639.73840427</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3082,2035 +3058,1671 @@
         <v>-31560564.76970427</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.4104</v>
-      </c>
-      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="F82" t="n">
+        <v>747811.9999000001</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-30812752.76980428</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="F83" t="n">
+        <v>16205.8209</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-30796546.94890428</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1444262.3234</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-32240809.27230427</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.4092</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.4092</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="F85" t="n">
+        <v>97264.16620000001</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-32240809.27230427</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="F86" t="n">
+        <v>600524.2408</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-32240809.27230427</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7169.0404</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-32233640.23190428</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.4113</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4113</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.4113</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.4113</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7033258.1625</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-39266898.39440428</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.4113</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.4113</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.4113</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.4113</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-39266898.39440428</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4396.0831</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-39262502.31130428</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F91" t="n">
+        <v>19476.18</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-39281978.49130428</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
         <v>0.409</v>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="C92" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3116.1617</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-39285094.65300428</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F93" t="n">
+        <v>22871.04622871</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-39262223.60677557</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1786.863</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-39264010.46977557</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1825.2085</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-39264010.46977557</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1497.003</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-39264010.46977557</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="F97" t="n">
+        <v>7275709.09327129</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-31988301.37650428</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3666000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-31988301.37650428</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1241000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-31988301.37650428</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2195837</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-31988301.37650428</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.4112</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5281.9677</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-31983019.40880428</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4492000</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-36475019.40880428</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6559000</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-36475019.40880428</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3151000</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-36475019.40880428</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3970000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-36475019.40880428</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9742362.9735</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-26732656.43530428</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F107" t="n">
+        <v>98698</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-26831354.43530428</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3299</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-26828055.43530428</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2008321.9999</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-28836377.43520428</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1392940.4488</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-28836377.43520428</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4161883.4175</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-28836377.43520428</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1219.164</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-28835158.27120428</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.871e-05</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-28835158.27123299</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.4095</v>
+      </c>
+      <c r="F114" t="n">
+        <v>167548.3463</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-29002706.61753299</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.4093</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.4093</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.4093</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.4093</v>
+      </c>
+      <c r="F115" t="n">
+        <v>311329.2921</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-29314035.90963299</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="F116" t="n">
+        <v>234309.67428293</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-29079726.23535006</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="F117" t="n">
+        <v>431662.9037</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-29079726.23535006</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4114</v>
+      </c>
+      <c r="F118" t="n">
+        <v>106314.9588</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F119" t="n">
+        <v>121212</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1265124.6267</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1263271.8523</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.707e-05</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2450830.07208293</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.707e-05</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1166698.8435</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.4116</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7268.03008293</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-28973411.27655006</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.4107</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10720.2835</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-28984131.56005006</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="F128" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-28954131.56005006</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="F129" t="n">
+        <v>283653.6744</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-29237785.23445006</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="F130" t="n">
+        <v>483638.4432</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-28754146.79125006</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4653000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-33407146.79125006</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="F82" t="n">
-        <v>747811.9999000001</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-30812752.76980428</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="F83" t="n">
-        <v>16205.8209</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-30796546.94890428</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1444262.3234</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-32240809.27230427</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.4092</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.4092</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="F85" t="n">
-        <v>97264.16620000001</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-32240809.27230427</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="F86" t="n">
-        <v>600524.2408</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-32240809.27230427</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="F87" t="n">
-        <v>7169.0404</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-32233640.23190428</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.4091</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.4113</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.4113</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.4113</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.4113</v>
-      </c>
-      <c r="F88" t="n">
-        <v>7033258.1625</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-39266898.39440428</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.4113</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.4113</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0.4113</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.4113</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-39266898.39440428</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="F90" t="n">
-        <v>4396.0831</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-39262502.31130428</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F91" t="n">
-        <v>19476.18</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-39281978.49130428</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="F92" t="n">
-        <v>3116.1617</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-39285094.65300428</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F93" t="n">
-        <v>22871.04622871</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-39262223.60677557</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1786.863</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-39264010.46977557</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1825.2085</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-39264010.46977557</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1497.003</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-39264010.46977557</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="F97" t="n">
-        <v>7275709.09327129</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-31988301.37650428</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3666000</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-31988301.37650428</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1241000</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-31988301.37650428</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2195837</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-31988301.37650428</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="F101" t="n">
-        <v>5281.9677</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-31983019.40880428</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F102" t="n">
-        <v>4492000</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-36475019.40880428</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.4112</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F103" t="n">
-        <v>6559000</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-36475019.40880428</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F104" t="n">
-        <v>3151000</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-36475019.40880428</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3970000</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-36475019.40880428</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F106" t="n">
-        <v>9742362.9735</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-26732656.43530428</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F107" t="n">
-        <v>98698</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-26831354.43530428</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3299</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-26828055.43530428</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2008321.9999</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-28836377.43520428</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1392940.4488</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-28836377.43520428</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4161883.4175</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-28836377.43520428</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1219.164</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-28835158.27120428</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2.871e-05</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-28835158.27123299</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.4095</v>
-      </c>
-      <c r="F114" t="n">
-        <v>167548.3463</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-29002706.61753299</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.4093</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.4093</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.4093</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.4093</v>
-      </c>
-      <c r="F115" t="n">
-        <v>311329.2921</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-29314035.90963299</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="F116" t="n">
-        <v>234309.67428293</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-29079726.23535006</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.4093</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="F117" t="n">
-        <v>431662.9037</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-29079726.23535006</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="F118" t="n">
-        <v>106314.9588</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.4114</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="F119" t="n">
-        <v>121212</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1265124.6267</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1263271.8523</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1.707e-05</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="F123" t="n">
-        <v>2450830.07208293</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1.707e-05</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1166698.8435</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="F126" t="n">
-        <v>7268.03008293</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="F127" t="n">
-        <v>10720.2835</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-28984131.56005006</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.4116</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="F128" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-28954131.56005006</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.4107</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="F129" t="n">
-        <v>283653.6744</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-29237785.23445006</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="C130" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.4125</v>
-      </c>
-      <c r="F130" t="n">
-        <v>483638.4432</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-28754146.79125006</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="C131" t="n">
-        <v>0.4103</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.4103</v>
-      </c>
-      <c r="F131" t="n">
-        <v>4653000</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-33407146.79125006</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5143,7 +4755,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5184,7 +4796,7 @@
         <v>0.41</v>
       </c>
       <c r="J133" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5223,7 +4835,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5262,7 +4874,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5301,7 +4913,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5340,7 +4952,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5379,7 +4991,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5420,7 +5032,7 @@
         <v>0.4102</v>
       </c>
       <c r="J139" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5461,7 +5073,7 @@
         <v>0.41</v>
       </c>
       <c r="J140" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5502,7 +5114,7 @@
         <v>0.4101</v>
       </c>
       <c r="J141" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5543,7 +5155,7 @@
         <v>0.4101</v>
       </c>
       <c r="J142" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5578,13 +5190,11 @@
         <v>-26998897.44735439</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.4105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5623,7 +5233,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5662,7 +5272,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5701,7 +5311,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5740,7 +5350,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5779,7 +5389,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5818,7 +5428,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5857,7 +5467,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5896,7 +5506,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5931,13 +5541,11 @@
         <v>-39919460.80480546</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5976,7 +5584,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6015,7 +5623,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6050,13 +5658,11 @@
         <v>-39921892.80110545</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6091,13 +5697,11 @@
         <v>-39921892.80110545</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6132,13 +5736,11 @@
         <v>-39823985.76960546</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.412</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6173,13 +5775,11 @@
         <v>-40101767.91690546</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.4141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6214,13 +5814,11 @@
         <v>-39860280.35351498</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.4115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6259,7 +5857,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6298,7 +5896,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6337,7 +5935,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6376,7 +5974,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6411,19 +6009,19 @@
         <v>-34433153.29631498</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>0.409</v>
+        <v>0.411</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1</v>
+        <v>1.002785888077859</v>
       </c>
       <c r="M164" t="inlineStr"/>
     </row>
@@ -6450,17 +6048,11 @@
         <v>-34433153.29631498</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6492,14 +6084,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6528,17 +6114,11 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6567,17 +6147,11 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6606,17 +6180,11 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6645,17 +6213,11 @@
         <v>-34385825.52372839</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6684,17 +6246,11 @@
         <v>-34388259.89132839</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6723,17 +6279,11 @@
         <v>-34387067.89132839</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6765,14 +6315,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6804,14 +6348,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6843,14 +6381,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6882,14 +6414,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6921,14 +6447,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6960,14 +6480,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6999,14 +6513,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7038,14 +6546,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7077,14 +6579,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7116,14 +6612,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7155,14 +6645,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7191,19 +6675,13 @@
         <v>-24370409.06372839</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
-        <v>1.012114914425428</v>
+        <v>1</v>
       </c>
       <c r="M184" t="inlineStr"/>
     </row>
@@ -7296,7 +6774,7 @@
         <v>-25890409.06372839</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7307,6 +6785,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest BTT.xlsx
+++ b/BackTest/2020-01-22 BackTest BTT.xlsx
@@ -3421,10 +3421,14 @@
         <v>-39285094.65300428</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.411</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
@@ -3454,11 +3458,19 @@
         <v>-39262223.60677557</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3499,19 @@
         <v>-39264010.46977557</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3606,17 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.409</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3649,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3682,17 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3721,17 @@
         <v>-31988301.37650428</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3760,17 @@
         <v>-31983019.40880428</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3799,17 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.4112</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3838,17 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3877,17 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3916,17 @@
         <v>-36475019.40880428</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3955,17 @@
         <v>-26732656.43530428</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3994,17 @@
         <v>-26831354.43530428</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4033,17 @@
         <v>-26828055.43530428</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4072,17 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4111,17 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4150,17 @@
         <v>-28836377.43520428</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4189,17 @@
         <v>-28835158.27120428</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4228,17 @@
         <v>-28835158.27123299</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4267,17 @@
         <v>-29002706.61753299</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.411</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4306,17 @@
         <v>-29314035.90963299</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.4095</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4345,17 @@
         <v>-29079726.23535006</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.4093</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4384,17 @@
         <v>-29079726.23535006</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4423,17 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.4114</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4462,17 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4501,17 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4540,17 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4579,17 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4618,17 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4657,17 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4696,17 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4735,17 @@
         <v>-28973411.27655006</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4774,17 @@
         <v>-28984131.56005006</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.4116</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4813,17 @@
         <v>-28954131.56005006</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.4107</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4852,17 @@
         <v>-29237785.23445006</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.4125</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4680,10 +4896,12 @@
       <c r="I130" t="n">
         <v>0.411</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,15 +4930,15 @@
         <v>-33407146.79125006</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.411</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -4751,12 +4969,12 @@
         <v>-33430672.63105007</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.411</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4795,9 +5013,7 @@
       <c r="I133" t="n">
         <v>0.41</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4831,12 +5047,12 @@
         <v>-26535734.80485006</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.411</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.4124</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4870,12 +5086,12 @@
         <v>-26670178.03945006</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.411</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.4125</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4909,12 +5125,12 @@
         <v>-26668966.70135006</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.411</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.4103</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4948,12 +5164,12 @@
         <v>-26687066.26015006</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>0.411</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.4128</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4987,12 +5203,12 @@
         <v>-27287066.26015006</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>0.411</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.4105</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5031,9 +5247,7 @@
       <c r="I139" t="n">
         <v>0.4102</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5072,9 +5286,7 @@
       <c r="I140" t="n">
         <v>0.41</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5113,9 +5325,7 @@
       <c r="I141" t="n">
         <v>0.4101</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5154,9 +5364,7 @@
       <c r="I142" t="n">
         <v>0.4101</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5193,9 +5401,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5232,9 +5438,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5271,9 +5475,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5310,9 +5512,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5349,9 +5549,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5388,9 +5586,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5427,9 +5623,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5466,9 +5660,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5505,9 +5697,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5544,9 +5734,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5583,9 +5771,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5622,9 +5808,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5661,9 +5845,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5700,9 +5882,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5739,9 +5919,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5778,9 +5956,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5817,9 +5993,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5856,9 +6030,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5895,9 +6067,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5934,9 +6104,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5973,9 +6141,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6009,19 +6175,17 @@
         <v>-34433153.29631498</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>0.411</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.002785888077859</v>
+        <v>1</v>
       </c>
       <c r="M164" t="inlineStr"/>
     </row>
@@ -6048,11 +6212,15 @@
         <v>-34433153.29631498</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6085,7 +6253,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6114,11 +6286,15 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6147,11 +6323,15 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6180,11 +6360,15 @@
         <v>-34409691.87217747</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6213,11 +6397,15 @@
         <v>-34385825.52372839</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6246,11 +6434,15 @@
         <v>-34388259.89132839</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6279,11 +6471,15 @@
         <v>-34387067.89132839</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6316,7 +6512,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6345,14 +6545,16 @@
         <v>-34385876.89132839</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -6378,7 +6580,7 @@
         <v>-32494115.81642839</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6411,7 +6613,7 @@
         <v>-32819726.47792839</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6477,7 +6679,7 @@
         <v>-33005514.73682839</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6576,7 +6778,7 @@
         <v>-24415567.28402839</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6642,7 +6844,7 @@
         <v>-24367982.22572839</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6675,7 +6877,7 @@
         <v>-24370409.06372839</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6708,7 +6910,7 @@
         <v>-24370409.06372839</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6741,7 +6943,7 @@
         <v>-24290409.06372839</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6774,7 +6976,7 @@
         <v>-25890409.06372839</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>

--- a/BackTest/2020-01-22 BackTest BTT.xlsx
+++ b/BackTest/2020-01-22 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>31530.4742</v>
       </c>
       <c r="G2" t="n">
-        <v>-14354877.58040426</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>6567.2582</v>
       </c>
       <c r="G3" t="n">
-        <v>-14354877.58040426</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2867.5948</v>
       </c>
       <c r="G4" t="n">
-        <v>-14354877.58040426</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1250</v>
       </c>
       <c r="G5" t="n">
-        <v>-14356127.58040426</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1232.2753</v>
       </c>
       <c r="G6" t="n">
-        <v>-14354895.30510426</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4298.9166</v>
       </c>
       <c r="G7" t="n">
-        <v>-14359194.22170426</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1238.0999</v>
       </c>
       <c r="G8" t="n">
-        <v>-14357956.12180426</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>212595.1529</v>
       </c>
       <c r="G9" t="n">
-        <v>-14357956.12180426</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>600000</v>
       </c>
       <c r="G10" t="n">
-        <v>-14957956.12180426</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>72478.06849999999</v>
       </c>
       <c r="G11" t="n">
-        <v>-14885478.05330426</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2500</v>
       </c>
       <c r="G12" t="n">
-        <v>-14887978.05330426</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1910</v>
       </c>
       <c r="G13" t="n">
-        <v>-14887978.05330426</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1570109.3494</v>
       </c>
       <c r="G14" t="n">
-        <v>-16458087.40270426</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>177147.9905</v>
       </c>
       <c r="G15" t="n">
-        <v>-16280939.41220427</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>10122.3097</v>
       </c>
       <c r="G16" t="n">
-        <v>-16291061.72190426</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2424.6626</v>
       </c>
       <c r="G17" t="n">
-        <v>-16288637.05930427</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>30000</v>
       </c>
       <c r="G18" t="n">
-        <v>-16288637.05930427</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>8220.8622</v>
       </c>
       <c r="G19" t="n">
-        <v>-16296857.92150426</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1484203.1934</v>
       </c>
       <c r="G20" t="n">
-        <v>-17781061.11490427</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>4837376.6165</v>
       </c>
       <c r="G21" t="n">
-        <v>-22618437.73140427</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2461.3154</v>
       </c>
       <c r="G22" t="n">
-        <v>-22615976.41600427</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>32639.338</v>
       </c>
       <c r="G23" t="n">
-        <v>-22583337.07800427</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>4506.3319</v>
       </c>
       <c r="G24" t="n">
-        <v>-22587843.40990427</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>95513.273</v>
       </c>
       <c r="G25" t="n">
-        <v>-22587843.40990427</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>230854.9724</v>
       </c>
       <c r="G26" t="n">
-        <v>-22356988.43750427</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>10535.9353</v>
       </c>
       <c r="G27" t="n">
-        <v>-22356988.43750427</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>136696.1667</v>
       </c>
       <c r="G28" t="n">
-        <v>-22356988.43750427</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>7174.5284</v>
       </c>
       <c r="G29" t="n">
-        <v>-22356988.43750427</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>161125.3376</v>
       </c>
       <c r="G30" t="n">
-        <v>-22356988.43750427</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>157933.0912</v>
       </c>
       <c r="G31" t="n">
-        <v>-22356988.43750427</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1220</v>
       </c>
       <c r="G32" t="n">
-        <v>-22356988.43750427</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1300</v>
       </c>
       <c r="G33" t="n">
-        <v>-22355688.43750427</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1212</v>
       </c>
       <c r="G34" t="n">
-        <v>-22354476.43750427</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1212.6595</v>
       </c>
       <c r="G35" t="n">
-        <v>-22354476.43750427</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1500</v>
       </c>
       <c r="G36" t="n">
-        <v>-22355976.43750427</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>79341.93919999999</v>
       </c>
       <c r="G37" t="n">
-        <v>-22435318.37670427</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>8379289.9406</v>
       </c>
       <c r="G38" t="n">
-        <v>-30814608.31730427</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>10669773.7646</v>
       </c>
       <c r="G39" t="n">
-        <v>-30814608.31730427</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>81337.3846</v>
       </c>
       <c r="G40" t="n">
-        <v>-30733270.93270427</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1500</v>
       </c>
       <c r="G41" t="n">
-        <v>-30731770.93270427</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1500</v>
       </c>
       <c r="G42" t="n">
-        <v>-30730270.93270427</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>110000000</v>
       </c>
       <c r="G43" t="n">
-        <v>-30730270.93270427</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>687500000</v>
       </c>
       <c r="G44" t="n">
-        <v>-30730270.93270427</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>150000</v>
       </c>
       <c r="G45" t="n">
-        <v>-30880270.93270427</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>20373</v>
       </c>
       <c r="G46" t="n">
-        <v>-30880270.93270427</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1857673.8937</v>
       </c>
       <c r="G47" t="n">
-        <v>-29022597.03900427</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>3624.9355</v>
       </c>
       <c r="G48" t="n">
-        <v>-29026221.97450427</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2150763.4838</v>
       </c>
       <c r="G49" t="n">
-        <v>-26875458.49070427</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>594218.7913</v>
       </c>
       <c r="G50" t="n">
-        <v>-27469677.28200427</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>8799.697700000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-27478476.97970427</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1447405.2928</v>
       </c>
       <c r="G52" t="n">
-        <v>-27478476.97970427</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>3269.379</v>
       </c>
       <c r="G53" t="n">
-        <v>-27481746.35870427</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>4642960.72774818</v>
       </c>
       <c r="G54" t="n">
-        <v>-27481746.35870427</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>192537.6283</v>
       </c>
       <c r="G55" t="n">
-        <v>-27481746.35870427</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>800818.2812</v>
       </c>
       <c r="G56" t="n">
-        <v>-27481746.35870427</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>166601.425</v>
       </c>
       <c r="G57" t="n">
-        <v>-27481746.35870427</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>5404553.396</v>
       </c>
       <c r="G58" t="n">
-        <v>-27481746.35870427</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>50614</v>
       </c>
       <c r="G59" t="n">
-        <v>-27481746.35870427</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>2548954.1924</v>
       </c>
       <c r="G60" t="n">
-        <v>-27481746.35870427</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>2897115.9949</v>
       </c>
       <c r="G61" t="n">
-        <v>-27481746.35870427</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>5269846.9111</v>
       </c>
       <c r="G62" t="n">
-        <v>-22211899.44760427</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>7592394.6075</v>
       </c>
       <c r="G63" t="n">
-        <v>-29804294.05510427</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>2163.1539</v>
       </c>
       <c r="G64" t="n">
-        <v>-29802130.90120427</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>5215592.7618</v>
       </c>
       <c r="G65" t="n">
-        <v>-29802130.90120427</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1271.0311</v>
       </c>
       <c r="G66" t="n">
-        <v>-29800859.87010427</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>7182188.1734</v>
       </c>
       <c r="G67" t="n">
-        <v>-22618671.69670427</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>792889</v>
       </c>
       <c r="G68" t="n">
-        <v>-23411560.69670427</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>15000</v>
       </c>
       <c r="G69" t="n">
-        <v>-23411560.69670427</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>3188662.1281</v>
       </c>
       <c r="G70" t="n">
-        <v>-23411560.69670427</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>2055971</v>
       </c>
       <c r="G71" t="n">
-        <v>-23411560.69670427</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>3866934.3602</v>
       </c>
       <c r="G72" t="n">
-        <v>-19544626.33650427</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>5824993.5197</v>
       </c>
       <c r="G73" t="n">
-        <v>-25369619.85620427</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>126701.816</v>
       </c>
       <c r="G74" t="n">
-        <v>-25496321.67220427</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>2000000</v>
       </c>
       <c r="G75" t="n">
-        <v>-27496321.67220427</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>4876383</v>
       </c>
       <c r="G76" t="n">
-        <v>-32372704.67220427</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>1218.648</v>
       </c>
       <c r="G77" t="n">
-        <v>-32371486.02420427</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>500000</v>
       </c>
       <c r="G78" t="n">
-        <v>-32871486.02420427</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>32000</v>
       </c>
       <c r="G79" t="n">
-        <v>-32903486.02420427</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>2511846.2858</v>
       </c>
       <c r="G80" t="n">
-        <v>-30391639.73840427</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1168925.0313</v>
       </c>
       <c r="G81" t="n">
-        <v>-31560564.76970427</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,19 @@
         <v>747811.9999000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-30812752.76980428</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>0.409</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.409</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2877,23 @@
         <v>16205.8209</v>
       </c>
       <c r="G83" t="n">
-        <v>-30796546.94890428</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0.4091</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2915,23 @@
         <v>1444262.3234</v>
       </c>
       <c r="G84" t="n">
-        <v>-32240809.27230427</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0.4107</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2953,15 @@
         <v>97264.16620000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-32240809.27230427</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2983,19 @@
         <v>600524.2408</v>
       </c>
       <c r="G86" t="n">
-        <v>-32240809.27230427</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>0.4091</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.4091</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3017,21 @@
         <v>7169.0404</v>
       </c>
       <c r="G87" t="n">
-        <v>-32233640.23190428</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3053,21 @@
         <v>7033258.1625</v>
       </c>
       <c r="G88" t="n">
-        <v>-39266898.39440428</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>0.4091</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3089,15 @@
         <v>0.0001</v>
       </c>
       <c r="G89" t="n">
-        <v>-39266898.39440428</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3119,15 @@
         <v>4396.0831</v>
       </c>
       <c r="G90" t="n">
-        <v>-39262502.31130428</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3149,15 @@
         <v>19476.18</v>
       </c>
       <c r="G91" t="n">
-        <v>-39281978.49130428</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,22 +3179,15 @@
         <v>3116.1617</v>
       </c>
       <c r="G92" t="n">
-        <v>-39285094.65300428</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3455,26 +3209,15 @@
         <v>22871.04622871</v>
       </c>
       <c r="G93" t="n">
-        <v>-39262223.60677557</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.409</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3496,26 +3239,15 @@
         <v>1786.863</v>
       </c>
       <c r="G94" t="n">
-        <v>-39264010.46977557</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3537,18 +3269,15 @@
         <v>1825.2085</v>
       </c>
       <c r="G95" t="n">
-        <v>-39264010.46977557</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3570,18 +3299,15 @@
         <v>1497.003</v>
       </c>
       <c r="G96" t="n">
-        <v>-39264010.46977557</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3603,24 +3329,15 @@
         <v>7275709.09327129</v>
       </c>
       <c r="G97" t="n">
-        <v>-31988301.37650428</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3642,22 +3359,15 @@
         <v>3666000</v>
       </c>
       <c r="G98" t="n">
-        <v>-31988301.37650428</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3679,24 +3389,15 @@
         <v>1241000</v>
       </c>
       <c r="G99" t="n">
-        <v>-31988301.37650428</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3718,24 +3419,15 @@
         <v>2195837</v>
       </c>
       <c r="G100" t="n">
-        <v>-31988301.37650428</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3757,24 +3449,15 @@
         <v>5281.9677</v>
       </c>
       <c r="G101" t="n">
-        <v>-31983019.40880428</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3796,24 +3479,15 @@
         <v>4492000</v>
       </c>
       <c r="G102" t="n">
-        <v>-36475019.40880428</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.4112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3835,24 +3509,15 @@
         <v>6559000</v>
       </c>
       <c r="G103" t="n">
-        <v>-36475019.40880428</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3874,24 +3539,15 @@
         <v>3151000</v>
       </c>
       <c r="G104" t="n">
-        <v>-36475019.40880428</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3913,24 +3569,15 @@
         <v>3970000</v>
       </c>
       <c r="G105" t="n">
-        <v>-36475019.40880428</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3952,24 +3599,15 @@
         <v>9742362.9735</v>
       </c>
       <c r="G106" t="n">
-        <v>-26732656.43530428</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3991,24 +3629,15 @@
         <v>98698</v>
       </c>
       <c r="G107" t="n">
-        <v>-26831354.43530428</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.4114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4030,24 +3659,15 @@
         <v>3299</v>
       </c>
       <c r="G108" t="n">
-        <v>-26828055.43530428</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4069,24 +3689,15 @@
         <v>2008321.9999</v>
       </c>
       <c r="G109" t="n">
-        <v>-28836377.43520428</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.4114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4108,24 +3719,15 @@
         <v>1392940.4488</v>
       </c>
       <c r="G110" t="n">
-        <v>-28836377.43520428</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4147,24 +3749,15 @@
         <v>4161883.4175</v>
       </c>
       <c r="G111" t="n">
-        <v>-28836377.43520428</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4186,24 +3779,15 @@
         <v>1219.164</v>
       </c>
       <c r="G112" t="n">
-        <v>-28835158.27120428</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4225,24 +3809,15 @@
         <v>2.871e-05</v>
       </c>
       <c r="G113" t="n">
-        <v>-28835158.27123299</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.4114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4264,24 +3839,15 @@
         <v>167548.3463</v>
       </c>
       <c r="G114" t="n">
-        <v>-29002706.61753299</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4303,24 +3869,15 @@
         <v>311329.2921</v>
       </c>
       <c r="G115" t="n">
-        <v>-29314035.90963299</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.4095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4342,24 +3899,15 @@
         <v>234309.67428293</v>
       </c>
       <c r="G116" t="n">
-        <v>-29079726.23535006</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.4093</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4381,24 +3929,15 @@
         <v>431662.9037</v>
       </c>
       <c r="G117" t="n">
-        <v>-29079726.23535006</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.4114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4420,24 +3959,15 @@
         <v>106314.9588</v>
       </c>
       <c r="G118" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.4114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4459,24 +3989,15 @@
         <v>121212</v>
       </c>
       <c r="G119" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4498,24 +4019,15 @@
         <v>1265124.6267</v>
       </c>
       <c r="G120" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4537,24 +4049,15 @@
         <v>1263271.8523</v>
       </c>
       <c r="G121" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4576,24 +4079,15 @@
         <v>1.707e-05</v>
       </c>
       <c r="G122" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4615,24 +4109,15 @@
         <v>2450830.07208293</v>
       </c>
       <c r="G123" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4654,24 +4139,15 @@
         <v>1.707e-05</v>
       </c>
       <c r="G124" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4693,24 +4169,15 @@
         <v>1166698.8435</v>
       </c>
       <c r="G125" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4732,24 +4199,15 @@
         <v>7268.03008293</v>
       </c>
       <c r="G126" t="n">
-        <v>-28973411.27655006</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4771,24 +4229,15 @@
         <v>10720.2835</v>
       </c>
       <c r="G127" t="n">
-        <v>-28984131.56005006</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.4116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4810,24 +4259,15 @@
         <v>30000</v>
       </c>
       <c r="G128" t="n">
-        <v>-28954131.56005006</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.4107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4849,24 +4289,15 @@
         <v>283653.6744</v>
       </c>
       <c r="G129" t="n">
-        <v>-29237785.23445006</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.4125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4888,24 +4319,15 @@
         <v>483638.4432</v>
       </c>
       <c r="G130" t="n">
-        <v>-28754146.79125006</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.411</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4927,24 +4349,15 @@
         <v>4653000</v>
       </c>
       <c r="G131" t="n">
-        <v>-33407146.79125006</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.4125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4966,24 +4379,15 @@
         <v>23525.8398</v>
       </c>
       <c r="G132" t="n">
-        <v>-33430672.63105007</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.4103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5005,24 +4409,15 @@
         <v>1252.3431</v>
       </c>
       <c r="G133" t="n">
-        <v>-33429420.28795006</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5044,24 +4439,15 @@
         <v>6893685.4831</v>
       </c>
       <c r="G134" t="n">
-        <v>-26535734.80485006</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.4124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5083,24 +4469,15 @@
         <v>134443.2346</v>
       </c>
       <c r="G135" t="n">
-        <v>-26670178.03945006</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.4125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5122,24 +4499,15 @@
         <v>1211.3381</v>
       </c>
       <c r="G136" t="n">
-        <v>-26668966.70135006</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.4103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5161,24 +4529,15 @@
         <v>18099.5588</v>
       </c>
       <c r="G137" t="n">
-        <v>-26687066.26015006</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.4128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5200,24 +4559,15 @@
         <v>600000</v>
       </c>
       <c r="G138" t="n">
-        <v>-27287066.26015006</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.4105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5239,24 +4589,15 @@
         <v>148814.9023</v>
       </c>
       <c r="G139" t="n">
-        <v>-27435881.16245006</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.4102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5278,24 +4619,15 @@
         <v>221852.7946</v>
       </c>
       <c r="G140" t="n">
-        <v>-27214028.36785007</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5317,24 +4649,15 @@
         <v>516127.0313</v>
       </c>
       <c r="G141" t="n">
-        <v>-27214028.36785007</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.4101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5356,24 +4679,15 @@
         <v>213922.92049567</v>
       </c>
       <c r="G142" t="n">
-        <v>-27000105.44735439</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.4101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5395,22 +4709,15 @@
         <v>1208</v>
       </c>
       <c r="G143" t="n">
-        <v>-26998897.44735439</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5432,22 +4739,15 @@
         <v>10744.68085106</v>
       </c>
       <c r="G144" t="n">
-        <v>-27009642.12820546</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5469,22 +4769,15 @@
         <v>2617.1272</v>
       </c>
       <c r="G145" t="n">
-        <v>-27012259.25540546</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5506,22 +4799,15 @@
         <v>7305.9065</v>
       </c>
       <c r="G146" t="n">
-        <v>-27004953.34890546</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5543,22 +4829,15 @@
         <v>4372.4344</v>
       </c>
       <c r="G147" t="n">
-        <v>-27000580.91450546</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5580,22 +4859,15 @@
         <v>2167797.4714</v>
       </c>
       <c r="G148" t="n">
-        <v>-29168378.38590546</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5617,22 +4889,15 @@
         <v>10394085.7128</v>
       </c>
       <c r="G149" t="n">
-        <v>-39562464.09870546</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5654,22 +4919,15 @@
         <v>23792.6314</v>
       </c>
       <c r="G150" t="n">
-        <v>-39538671.46730546</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5691,22 +4949,15 @@
         <v>382024.3</v>
       </c>
       <c r="G151" t="n">
-        <v>-39920695.76730546</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5728,22 +4979,15 @@
         <v>1234.9625</v>
       </c>
       <c r="G152" t="n">
-        <v>-39919460.80480546</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5765,22 +5009,15 @@
         <v>2431.9963</v>
       </c>
       <c r="G153" t="n">
-        <v>-39921892.80110545</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5802,22 +5039,15 @@
         <v>1051217.3361</v>
       </c>
       <c r="G154" t="n">
-        <v>-39921892.80110545</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5839,22 +5069,15 @@
         <v>117199.5254</v>
       </c>
       <c r="G155" t="n">
-        <v>-39921892.80110545</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5876,22 +5099,15 @@
         <v>150000</v>
       </c>
       <c r="G156" t="n">
-        <v>-39921892.80110545</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5913,22 +5129,15 @@
         <v>97907.0315</v>
       </c>
       <c r="G157" t="n">
-        <v>-39823985.76960546</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5950,22 +5159,15 @@
         <v>277782.1473</v>
       </c>
       <c r="G158" t="n">
-        <v>-40101767.91690546</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5987,22 +5189,15 @@
         <v>241487.56339048</v>
       </c>
       <c r="G159" t="n">
-        <v>-39860280.35351498</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6024,22 +5219,15 @@
         <v>1723398.1953</v>
       </c>
       <c r="G160" t="n">
-        <v>-41583678.54881497</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6061,22 +5249,15 @@
         <v>17625084.8735</v>
       </c>
       <c r="G161" t="n">
-        <v>-23958593.67531497</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6098,22 +5279,15 @@
         <v>10810346.2674</v>
       </c>
       <c r="G162" t="n">
-        <v>-34768939.94271497</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6135,22 +5309,15 @@
         <v>335786.6464</v>
       </c>
       <c r="G163" t="n">
-        <v>-34433153.29631498</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6172,22 +5339,15 @@
         <v>3047821.4476</v>
       </c>
       <c r="G164" t="n">
-        <v>-34433153.29631498</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6209,22 +5369,15 @@
         <v>3139684.0192</v>
       </c>
       <c r="G165" t="n">
-        <v>-34433153.29631498</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6246,22 +5399,15 @@
         <v>22262.4241375</v>
       </c>
       <c r="G166" t="n">
-        <v>-34410890.87217747</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6283,22 +5429,15 @@
         <v>1199</v>
       </c>
       <c r="G167" t="n">
-        <v>-34409691.87217747</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6320,22 +5459,15 @@
         <v>3640.2848</v>
       </c>
       <c r="G168" t="n">
-        <v>-34409691.87217747</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6357,22 +5489,15 @@
         <v>211136.6203</v>
       </c>
       <c r="G169" t="n">
-        <v>-34409691.87217747</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6394,22 +5519,15 @@
         <v>23866.34844909</v>
       </c>
       <c r="G170" t="n">
-        <v>-34385825.52372839</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6431,22 +5549,15 @@
         <v>2434.3676</v>
       </c>
       <c r="G171" t="n">
-        <v>-34388259.89132839</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6468,22 +5579,15 @@
         <v>1192</v>
       </c>
       <c r="G172" t="n">
-        <v>-34387067.89132839</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6505,22 +5609,15 @@
         <v>12651.3</v>
       </c>
       <c r="G173" t="n">
-        <v>-34387067.89132839</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6542,20 +5639,15 @@
         <v>1191</v>
       </c>
       <c r="G174" t="n">
-        <v>-34385876.89132839</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K174" t="n">
+        <v>1</v>
       </c>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6577,18 +5669,15 @@
         <v>1891761.0749</v>
       </c>
       <c r="G175" t="n">
-        <v>-32494115.81642839</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6610,18 +5699,15 @@
         <v>325610.6615</v>
       </c>
       <c r="G176" t="n">
-        <v>-32819726.47792839</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6643,18 +5729,15 @@
         <v>77032</v>
       </c>
       <c r="G177" t="n">
-        <v>-32742694.47792839</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6676,18 +5759,15 @@
         <v>262820.2589</v>
       </c>
       <c r="G178" t="n">
-        <v>-33005514.73682839</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6709,18 +5789,15 @@
         <v>10125947.4528</v>
       </c>
       <c r="G179" t="n">
-        <v>-22879567.28402839</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6742,18 +5819,15 @@
         <v>97619</v>
       </c>
       <c r="G180" t="n">
-        <v>-22879567.28402839</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6775,18 +5849,15 @@
         <v>1536000</v>
       </c>
       <c r="G181" t="n">
-        <v>-24415567.28402839</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6808,18 +5879,15 @@
         <v>47585.0583</v>
       </c>
       <c r="G182" t="n">
-        <v>-24367982.22572839</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6841,18 +5909,15 @@
         <v>6712.0801</v>
       </c>
       <c r="G183" t="n">
-        <v>-24367982.22572839</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6874,18 +5939,15 @@
         <v>2426.838</v>
       </c>
       <c r="G184" t="n">
-        <v>-24370409.06372839</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6907,18 +5969,15 @@
         <v>1049135.5656</v>
       </c>
       <c r="G185" t="n">
-        <v>-24370409.06372839</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6940,18 +5999,15 @@
         <v>80000</v>
       </c>
       <c r="G186" t="n">
-        <v>-24290409.06372839</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6973,18 +6029,15 @@
         <v>1600000</v>
       </c>
       <c r="G187" t="n">
-        <v>-25890409.06372839</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
